--- a/KaryotypingPinnacle/CNN/theWholePatientID.xlsx
+++ b/KaryotypingPinnacle/CNN/theWholePatientID.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5460" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5676" uniqueCount="98">
   <si>
     <t>Chromosome</t>
   </si>
@@ -293,6 +293,15 @@
   </si>
   <si>
     <t>W28055</t>
+  </si>
+  <si>
+    <t>184431</t>
+  </si>
+  <si>
+    <t>190258</t>
+  </si>
+  <si>
+    <t>193067</t>
   </si>
   <si>
     <t>W17944</t>
@@ -656,7 +665,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C2730"/>
+  <dimension ref="A1:C2838"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -24394,7 +24403,7 @@
         <v>25</v>
       </c>
       <c r="C2158" t="s">
-        <v>35</v>
+        <v>83</v>
       </c>
     </row>
     <row r="2159" spans="1:3">
@@ -24405,7 +24414,7 @@
         <v>25</v>
       </c>
       <c r="C2159" t="s">
-        <v>36</v>
+        <v>83</v>
       </c>
     </row>
     <row r="2160" spans="1:3">
@@ -24416,7 +24425,7 @@
         <v>25</v>
       </c>
       <c r="C2160" t="s">
-        <v>40</v>
+        <v>83</v>
       </c>
     </row>
     <row r="2161" spans="1:3">
@@ -24427,7 +24436,7 @@
         <v>25</v>
       </c>
       <c r="C2161" t="s">
-        <v>42</v>
+        <v>83</v>
       </c>
     </row>
     <row r="2162" spans="1:3">
@@ -24438,7 +24447,7 @@
         <v>25</v>
       </c>
       <c r="C2162" t="s">
-        <v>43</v>
+        <v>83</v>
       </c>
     </row>
     <row r="2163" spans="1:3">
@@ -24449,7 +24458,7 @@
         <v>25</v>
       </c>
       <c r="C2163" t="s">
-        <v>44</v>
+        <v>83</v>
       </c>
     </row>
     <row r="2164" spans="1:3">
@@ -24460,7 +24469,7 @@
         <v>25</v>
       </c>
       <c r="C2164" t="s">
-        <v>46</v>
+        <v>83</v>
       </c>
     </row>
     <row r="2165" spans="1:3">
@@ -24471,7 +24480,7 @@
         <v>25</v>
       </c>
       <c r="C2165" t="s">
-        <v>47</v>
+        <v>83</v>
       </c>
     </row>
     <row r="2166" spans="1:3">
@@ -24482,7 +24491,7 @@
         <v>25</v>
       </c>
       <c r="C2166" t="s">
-        <v>48</v>
+        <v>83</v>
       </c>
     </row>
     <row r="2167" spans="1:3">
@@ -24493,7 +24502,7 @@
         <v>25</v>
       </c>
       <c r="C2167" t="s">
-        <v>49</v>
+        <v>83</v>
       </c>
     </row>
     <row r="2168" spans="1:3">
@@ -24504,7 +24513,7 @@
         <v>25</v>
       </c>
       <c r="C2168" t="s">
-        <v>49</v>
+        <v>83</v>
       </c>
     </row>
     <row r="2169" spans="1:3">
@@ -24515,7 +24524,7 @@
         <v>25</v>
       </c>
       <c r="C2169" t="s">
-        <v>50</v>
+        <v>83</v>
       </c>
     </row>
     <row r="2170" spans="1:3">
@@ -24526,7 +24535,7 @@
         <v>25</v>
       </c>
       <c r="C2170" t="s">
-        <v>51</v>
+        <v>83</v>
       </c>
     </row>
     <row r="2171" spans="1:3">
@@ -24537,7 +24546,7 @@
         <v>25</v>
       </c>
       <c r="C2171" t="s">
-        <v>53</v>
+        <v>83</v>
       </c>
     </row>
     <row r="2172" spans="1:3">
@@ -24548,7 +24557,7 @@
         <v>25</v>
       </c>
       <c r="C2172" t="s">
-        <v>54</v>
+        <v>83</v>
       </c>
     </row>
     <row r="2173" spans="1:3">
@@ -24559,7 +24568,7 @@
         <v>25</v>
       </c>
       <c r="C2173" t="s">
-        <v>55</v>
+        <v>83</v>
       </c>
     </row>
     <row r="2174" spans="1:3">
@@ -24570,7 +24579,7 @@
         <v>25</v>
       </c>
       <c r="C2174" t="s">
-        <v>56</v>
+        <v>83</v>
       </c>
     </row>
     <row r="2175" spans="1:3">
@@ -24581,7 +24590,7 @@
         <v>25</v>
       </c>
       <c r="C2175" t="s">
-        <v>57</v>
+        <v>83</v>
       </c>
     </row>
     <row r="2176" spans="1:3">
@@ -24592,7 +24601,7 @@
         <v>25</v>
       </c>
       <c r="C2176" t="s">
-        <v>58</v>
+        <v>83</v>
       </c>
     </row>
     <row r="2177" spans="1:3">
@@ -24603,7 +24612,7 @@
         <v>25</v>
       </c>
       <c r="C2177" t="s">
-        <v>59</v>
+        <v>83</v>
       </c>
     </row>
     <row r="2178" spans="1:3">
@@ -24614,7 +24623,7 @@
         <v>25</v>
       </c>
       <c r="C2178" t="s">
-        <v>60</v>
+        <v>83</v>
       </c>
     </row>
     <row r="2179" spans="1:3">
@@ -24625,7 +24634,7 @@
         <v>25</v>
       </c>
       <c r="C2179" t="s">
-        <v>61</v>
+        <v>83</v>
       </c>
     </row>
     <row r="2180" spans="1:3">
@@ -24636,7 +24645,7 @@
         <v>25</v>
       </c>
       <c r="C2180" t="s">
-        <v>62</v>
+        <v>83</v>
       </c>
     </row>
     <row r="2181" spans="1:3">
@@ -24647,7 +24656,7 @@
         <v>25</v>
       </c>
       <c r="C2181" t="s">
-        <v>63</v>
+        <v>93</v>
       </c>
     </row>
     <row r="2182" spans="1:3">
@@ -24658,7 +24667,7 @@
         <v>25</v>
       </c>
       <c r="C2182" t="s">
-        <v>64</v>
+        <v>93</v>
       </c>
     </row>
     <row r="2183" spans="1:3">
@@ -24669,7 +24678,7 @@
         <v>25</v>
       </c>
       <c r="C2183" t="s">
-        <v>65</v>
+        <v>93</v>
       </c>
     </row>
     <row r="2184" spans="1:3">
@@ -24680,7 +24689,7 @@
         <v>25</v>
       </c>
       <c r="C2184" t="s">
-        <v>66</v>
+        <v>93</v>
       </c>
     </row>
     <row r="2185" spans="1:3">
@@ -24691,7 +24700,7 @@
         <v>25</v>
       </c>
       <c r="C2185" t="s">
-        <v>67</v>
+        <v>93</v>
       </c>
     </row>
     <row r="2186" spans="1:3">
@@ -24702,7 +24711,7 @@
         <v>25</v>
       </c>
       <c r="C2186" t="s">
-        <v>68</v>
+        <v>93</v>
       </c>
     </row>
     <row r="2187" spans="1:3">
@@ -24710,10 +24719,10 @@
         <v>2185</v>
       </c>
       <c r="B2187" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C2187" t="s">
-        <v>83</v>
+        <v>93</v>
       </c>
     </row>
     <row r="2188" spans="1:3">
@@ -24721,10 +24730,10 @@
         <v>2186</v>
       </c>
       <c r="B2188" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C2188" t="s">
-        <v>83</v>
+        <v>93</v>
       </c>
     </row>
     <row r="2189" spans="1:3">
@@ -24732,10 +24741,10 @@
         <v>2187</v>
       </c>
       <c r="B2189" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C2189" t="s">
-        <v>83</v>
+        <v>93</v>
       </c>
     </row>
     <row r="2190" spans="1:3">
@@ -24743,10 +24752,10 @@
         <v>2188</v>
       </c>
       <c r="B2190" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C2190" t="s">
-        <v>83</v>
+        <v>93</v>
       </c>
     </row>
     <row r="2191" spans="1:3">
@@ -24754,10 +24763,10 @@
         <v>2189</v>
       </c>
       <c r="B2191" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C2191" t="s">
-        <v>83</v>
+        <v>93</v>
       </c>
     </row>
     <row r="2192" spans="1:3">
@@ -24765,10 +24774,10 @@
         <v>2190</v>
       </c>
       <c r="B2192" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C2192" t="s">
-        <v>83</v>
+        <v>93</v>
       </c>
     </row>
     <row r="2193" spans="1:3">
@@ -24776,10 +24785,10 @@
         <v>2191</v>
       </c>
       <c r="B2193" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C2193" t="s">
-        <v>83</v>
+        <v>93</v>
       </c>
     </row>
     <row r="2194" spans="1:3">
@@ -24787,10 +24796,10 @@
         <v>2192</v>
       </c>
       <c r="B2194" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C2194" t="s">
-        <v>83</v>
+        <v>93</v>
       </c>
     </row>
     <row r="2195" spans="1:3">
@@ -24798,10 +24807,10 @@
         <v>2193</v>
       </c>
       <c r="B2195" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C2195" t="s">
-        <v>83</v>
+        <v>93</v>
       </c>
     </row>
     <row r="2196" spans="1:3">
@@ -24809,10 +24818,10 @@
         <v>2194</v>
       </c>
       <c r="B2196" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C2196" t="s">
-        <v>83</v>
+        <v>93</v>
       </c>
     </row>
     <row r="2197" spans="1:3">
@@ -24820,10 +24829,10 @@
         <v>2195</v>
       </c>
       <c r="B2197" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C2197" t="s">
-        <v>83</v>
+        <v>93</v>
       </c>
     </row>
     <row r="2198" spans="1:3">
@@ -24831,10 +24840,10 @@
         <v>2196</v>
       </c>
       <c r="B2198" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C2198" t="s">
-        <v>83</v>
+        <v>93</v>
       </c>
     </row>
     <row r="2199" spans="1:3">
@@ -24842,10 +24851,10 @@
         <v>2197</v>
       </c>
       <c r="B2199" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C2199" t="s">
-        <v>83</v>
+        <v>93</v>
       </c>
     </row>
     <row r="2200" spans="1:3">
@@ -24853,10 +24862,10 @@
         <v>2198</v>
       </c>
       <c r="B2200" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C2200" t="s">
-        <v>83</v>
+        <v>93</v>
       </c>
     </row>
     <row r="2201" spans="1:3">
@@ -24864,10 +24873,10 @@
         <v>2199</v>
       </c>
       <c r="B2201" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C2201" t="s">
-        <v>83</v>
+        <v>93</v>
       </c>
     </row>
     <row r="2202" spans="1:3">
@@ -24875,10 +24884,10 @@
         <v>2200</v>
       </c>
       <c r="B2202" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C2202" t="s">
-        <v>83</v>
+        <v>93</v>
       </c>
     </row>
     <row r="2203" spans="1:3">
@@ -24886,10 +24895,10 @@
         <v>2201</v>
       </c>
       <c r="B2203" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C2203" t="s">
-        <v>83</v>
+        <v>93</v>
       </c>
     </row>
     <row r="2204" spans="1:3">
@@ -24897,10 +24906,10 @@
         <v>2202</v>
       </c>
       <c r="B2204" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C2204" t="s">
-        <v>83</v>
+        <v>93</v>
       </c>
     </row>
     <row r="2205" spans="1:3">
@@ -24908,10 +24917,10 @@
         <v>2203</v>
       </c>
       <c r="B2205" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C2205" t="s">
-        <v>83</v>
+        <v>94</v>
       </c>
     </row>
     <row r="2206" spans="1:3">
@@ -24919,10 +24928,10 @@
         <v>2204</v>
       </c>
       <c r="B2206" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C2206" t="s">
-        <v>83</v>
+        <v>94</v>
       </c>
     </row>
     <row r="2207" spans="1:3">
@@ -24930,10 +24939,10 @@
         <v>2205</v>
       </c>
       <c r="B2207" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C2207" t="s">
-        <v>83</v>
+        <v>94</v>
       </c>
     </row>
     <row r="2208" spans="1:3">
@@ -24941,10 +24950,10 @@
         <v>2206</v>
       </c>
       <c r="B2208" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C2208" t="s">
-        <v>83</v>
+        <v>94</v>
       </c>
     </row>
     <row r="2209" spans="1:3">
@@ -24952,10 +24961,10 @@
         <v>2207</v>
       </c>
       <c r="B2209" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C2209" t="s">
-        <v>83</v>
+        <v>94</v>
       </c>
     </row>
     <row r="2210" spans="1:3">
@@ -24963,10 +24972,10 @@
         <v>2208</v>
       </c>
       <c r="B2210" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C2210" t="s">
-        <v>83</v>
+        <v>94</v>
       </c>
     </row>
     <row r="2211" spans="1:3">
@@ -24974,10 +24983,10 @@
         <v>2209</v>
       </c>
       <c r="B2211" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C2211" t="s">
-        <v>83</v>
+        <v>94</v>
       </c>
     </row>
     <row r="2212" spans="1:3">
@@ -24985,10 +24994,10 @@
         <v>2210</v>
       </c>
       <c r="B2212" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C2212" t="s">
-        <v>84</v>
+        <v>94</v>
       </c>
     </row>
     <row r="2213" spans="1:3">
@@ -24996,10 +25005,10 @@
         <v>2211</v>
       </c>
       <c r="B2213" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C2213" t="s">
-        <v>84</v>
+        <v>94</v>
       </c>
     </row>
     <row r="2214" spans="1:3">
@@ -25007,10 +25016,10 @@
         <v>2212</v>
       </c>
       <c r="B2214" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C2214" t="s">
-        <v>84</v>
+        <v>94</v>
       </c>
     </row>
     <row r="2215" spans="1:3">
@@ -25018,10 +25027,10 @@
         <v>2213</v>
       </c>
       <c r="B2215" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C2215" t="s">
-        <v>84</v>
+        <v>94</v>
       </c>
     </row>
     <row r="2216" spans="1:3">
@@ -25029,10 +25038,10 @@
         <v>2214</v>
       </c>
       <c r="B2216" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C2216" t="s">
-        <v>84</v>
+        <v>94</v>
       </c>
     </row>
     <row r="2217" spans="1:3">
@@ -25040,10 +25049,10 @@
         <v>2215</v>
       </c>
       <c r="B2217" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C2217" t="s">
-        <v>84</v>
+        <v>94</v>
       </c>
     </row>
     <row r="2218" spans="1:3">
@@ -25051,10 +25060,10 @@
         <v>2216</v>
       </c>
       <c r="B2218" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C2218" t="s">
-        <v>84</v>
+        <v>94</v>
       </c>
     </row>
     <row r="2219" spans="1:3">
@@ -25062,10 +25071,10 @@
         <v>2217</v>
       </c>
       <c r="B2219" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C2219" t="s">
-        <v>84</v>
+        <v>94</v>
       </c>
     </row>
     <row r="2220" spans="1:3">
@@ -25073,10 +25082,10 @@
         <v>2218</v>
       </c>
       <c r="B2220" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C2220" t="s">
-        <v>84</v>
+        <v>94</v>
       </c>
     </row>
     <row r="2221" spans="1:3">
@@ -25084,10 +25093,10 @@
         <v>2219</v>
       </c>
       <c r="B2221" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C2221" t="s">
-        <v>84</v>
+        <v>94</v>
       </c>
     </row>
     <row r="2222" spans="1:3">
@@ -25095,10 +25104,10 @@
         <v>2220</v>
       </c>
       <c r="B2222" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C2222" t="s">
-        <v>84</v>
+        <v>94</v>
       </c>
     </row>
     <row r="2223" spans="1:3">
@@ -25106,10 +25115,10 @@
         <v>2221</v>
       </c>
       <c r="B2223" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C2223" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="2224" spans="1:3">
@@ -25117,10 +25126,10 @@
         <v>2222</v>
       </c>
       <c r="B2224" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C2224" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="2225" spans="1:3">
@@ -25128,10 +25137,10 @@
         <v>2223</v>
       </c>
       <c r="B2225" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C2225" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="2226" spans="1:3">
@@ -25139,10 +25148,10 @@
         <v>2224</v>
       </c>
       <c r="B2226" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C2226" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="2227" spans="1:3">
@@ -25150,10 +25159,10 @@
         <v>2225</v>
       </c>
       <c r="B2227" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C2227" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="2228" spans="1:3">
@@ -25161,10 +25170,10 @@
         <v>2226</v>
       </c>
       <c r="B2228" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C2228" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="2229" spans="1:3">
@@ -25172,10 +25181,10 @@
         <v>2227</v>
       </c>
       <c r="B2229" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C2229" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="2230" spans="1:3">
@@ -25183,10 +25192,10 @@
         <v>2228</v>
       </c>
       <c r="B2230" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C2230" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="2231" spans="1:3">
@@ -25194,10 +25203,10 @@
         <v>2229</v>
       </c>
       <c r="B2231" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C2231" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="2232" spans="1:3">
@@ -25205,10 +25214,10 @@
         <v>2230</v>
       </c>
       <c r="B2232" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C2232" t="s">
-        <v>71</v>
+        <v>85</v>
       </c>
     </row>
     <row r="2233" spans="1:3">
@@ -25216,10 +25225,10 @@
         <v>2231</v>
       </c>
       <c r="B2233" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C2233" t="s">
-        <v>71</v>
+        <v>85</v>
       </c>
     </row>
     <row r="2234" spans="1:3">
@@ -25227,10 +25236,10 @@
         <v>2232</v>
       </c>
       <c r="B2234" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C2234" t="s">
-        <v>71</v>
+        <v>85</v>
       </c>
     </row>
     <row r="2235" spans="1:3">
@@ -25238,10 +25247,10 @@
         <v>2233</v>
       </c>
       <c r="B2235" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C2235" t="s">
-        <v>71</v>
+        <v>85</v>
       </c>
     </row>
     <row r="2236" spans="1:3">
@@ -25249,10 +25258,10 @@
         <v>2234</v>
       </c>
       <c r="B2236" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C2236" t="s">
-        <v>71</v>
+        <v>85</v>
       </c>
     </row>
     <row r="2237" spans="1:3">
@@ -25260,10 +25269,10 @@
         <v>2235</v>
       </c>
       <c r="B2237" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C2237" t="s">
-        <v>71</v>
+        <v>85</v>
       </c>
     </row>
     <row r="2238" spans="1:3">
@@ -25271,10 +25280,10 @@
         <v>2236</v>
       </c>
       <c r="B2238" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C2238" t="s">
-        <v>71</v>
+        <v>85</v>
       </c>
     </row>
     <row r="2239" spans="1:3">
@@ -25282,10 +25291,10 @@
         <v>2237</v>
       </c>
       <c r="B2239" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C2239" t="s">
-        <v>71</v>
+        <v>85</v>
       </c>
     </row>
     <row r="2240" spans="1:3">
@@ -25293,10 +25302,10 @@
         <v>2238</v>
       </c>
       <c r="B2240" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C2240" t="s">
-        <v>71</v>
+        <v>85</v>
       </c>
     </row>
     <row r="2241" spans="1:3">
@@ -25304,10 +25313,10 @@
         <v>2239</v>
       </c>
       <c r="B2241" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C2241" t="s">
-        <v>71</v>
+        <v>85</v>
       </c>
     </row>
     <row r="2242" spans="1:3">
@@ -25315,10 +25324,10 @@
         <v>2240</v>
       </c>
       <c r="B2242" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C2242" t="s">
-        <v>71</v>
+        <v>95</v>
       </c>
     </row>
     <row r="2243" spans="1:3">
@@ -25326,10 +25335,10 @@
         <v>2241</v>
       </c>
       <c r="B2243" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C2243" t="s">
-        <v>71</v>
+        <v>95</v>
       </c>
     </row>
     <row r="2244" spans="1:3">
@@ -25337,10 +25346,10 @@
         <v>2242</v>
       </c>
       <c r="B2244" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C2244" t="s">
-        <v>71</v>
+        <v>95</v>
       </c>
     </row>
     <row r="2245" spans="1:3">
@@ -25348,10 +25357,10 @@
         <v>2243</v>
       </c>
       <c r="B2245" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C2245" t="s">
-        <v>71</v>
+        <v>95</v>
       </c>
     </row>
     <row r="2246" spans="1:3">
@@ -25359,10 +25368,10 @@
         <v>2244</v>
       </c>
       <c r="B2246" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C2246" t="s">
-        <v>71</v>
+        <v>95</v>
       </c>
     </row>
     <row r="2247" spans="1:3">
@@ -25370,10 +25379,10 @@
         <v>2245</v>
       </c>
       <c r="B2247" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C2247" t="s">
-        <v>71</v>
+        <v>95</v>
       </c>
     </row>
     <row r="2248" spans="1:3">
@@ -25381,10 +25390,10 @@
         <v>2246</v>
       </c>
       <c r="B2248" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C2248" t="s">
-        <v>71</v>
+        <v>95</v>
       </c>
     </row>
     <row r="2249" spans="1:3">
@@ -25392,10 +25401,10 @@
         <v>2247</v>
       </c>
       <c r="B2249" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C2249" t="s">
-        <v>71</v>
+        <v>95</v>
       </c>
     </row>
     <row r="2250" spans="1:3">
@@ -25403,10 +25412,10 @@
         <v>2248</v>
       </c>
       <c r="B2250" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C2250" t="s">
-        <v>71</v>
+        <v>95</v>
       </c>
     </row>
     <row r="2251" spans="1:3">
@@ -25414,10 +25423,10 @@
         <v>2249</v>
       </c>
       <c r="B2251" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C2251" t="s">
-        <v>71</v>
+        <v>95</v>
       </c>
     </row>
     <row r="2252" spans="1:3">
@@ -25425,10 +25434,10 @@
         <v>2250</v>
       </c>
       <c r="B2252" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C2252" t="s">
-        <v>71</v>
+        <v>95</v>
       </c>
     </row>
     <row r="2253" spans="1:3">
@@ -25436,10 +25445,10 @@
         <v>2251</v>
       </c>
       <c r="B2253" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C2253" t="s">
-        <v>71</v>
+        <v>95</v>
       </c>
     </row>
     <row r="2254" spans="1:3">
@@ -25447,10 +25456,10 @@
         <v>2252</v>
       </c>
       <c r="B2254" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C2254" t="s">
-        <v>71</v>
+        <v>95</v>
       </c>
     </row>
     <row r="2255" spans="1:3">
@@ -25458,10 +25467,10 @@
         <v>2253</v>
       </c>
       <c r="B2255" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C2255" t="s">
-        <v>71</v>
+        <v>95</v>
       </c>
     </row>
     <row r="2256" spans="1:3">
@@ -25469,10 +25478,10 @@
         <v>2254</v>
       </c>
       <c r="B2256" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C2256" t="s">
-        <v>71</v>
+        <v>95</v>
       </c>
     </row>
     <row r="2257" spans="1:3">
@@ -25480,10 +25489,10 @@
         <v>2255</v>
       </c>
       <c r="B2257" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C2257" t="s">
-        <v>71</v>
+        <v>95</v>
       </c>
     </row>
     <row r="2258" spans="1:3">
@@ -25491,10 +25500,10 @@
         <v>2256</v>
       </c>
       <c r="B2258" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C2258" t="s">
-        <v>71</v>
+        <v>95</v>
       </c>
     </row>
     <row r="2259" spans="1:3">
@@ -25502,10 +25511,10 @@
         <v>2257</v>
       </c>
       <c r="B2259" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C2259" t="s">
-        <v>71</v>
+        <v>95</v>
       </c>
     </row>
     <row r="2260" spans="1:3">
@@ -25513,10 +25522,10 @@
         <v>2258</v>
       </c>
       <c r="B2260" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C2260" t="s">
-        <v>71</v>
+        <v>95</v>
       </c>
     </row>
     <row r="2261" spans="1:3">
@@ -25524,10 +25533,10 @@
         <v>2259</v>
       </c>
       <c r="B2261" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C2261" t="s">
-        <v>71</v>
+        <v>95</v>
       </c>
     </row>
     <row r="2262" spans="1:3">
@@ -25535,10 +25544,10 @@
         <v>2260</v>
       </c>
       <c r="B2262" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C2262" t="s">
-        <v>82</v>
+        <v>95</v>
       </c>
     </row>
     <row r="2263" spans="1:3">
@@ -25546,10 +25555,10 @@
         <v>2261</v>
       </c>
       <c r="B2263" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C2263" t="s">
-        <v>82</v>
+        <v>95</v>
       </c>
     </row>
     <row r="2264" spans="1:3">
@@ -25557,10 +25566,10 @@
         <v>2262</v>
       </c>
       <c r="B2264" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C2264" t="s">
-        <v>82</v>
+        <v>95</v>
       </c>
     </row>
     <row r="2265" spans="1:3">
@@ -25568,10 +25577,10 @@
         <v>2263</v>
       </c>
       <c r="B2265" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C2265" t="s">
-        <v>82</v>
+        <v>95</v>
       </c>
     </row>
     <row r="2266" spans="1:3">
@@ -25579,10 +25588,10 @@
         <v>2264</v>
       </c>
       <c r="B2266" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C2266" t="s">
-        <v>82</v>
+        <v>35</v>
       </c>
     </row>
     <row r="2267" spans="1:3">
@@ -25590,10 +25599,10 @@
         <v>2265</v>
       </c>
       <c r="B2267" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C2267" t="s">
-        <v>82</v>
+        <v>36</v>
       </c>
     </row>
     <row r="2268" spans="1:3">
@@ -25601,10 +25610,10 @@
         <v>2266</v>
       </c>
       <c r="B2268" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C2268" t="s">
-        <v>82</v>
+        <v>40</v>
       </c>
     </row>
     <row r="2269" spans="1:3">
@@ -25612,10 +25621,10 @@
         <v>2267</v>
       </c>
       <c r="B2269" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C2269" t="s">
-        <v>82</v>
+        <v>42</v>
       </c>
     </row>
     <row r="2270" spans="1:3">
@@ -25623,10 +25632,10 @@
         <v>2268</v>
       </c>
       <c r="B2270" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C2270" t="s">
-        <v>82</v>
+        <v>43</v>
       </c>
     </row>
     <row r="2271" spans="1:3">
@@ -25634,10 +25643,10 @@
         <v>2269</v>
       </c>
       <c r="B2271" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C2271" t="s">
-        <v>82</v>
+        <v>44</v>
       </c>
     </row>
     <row r="2272" spans="1:3">
@@ -25645,10 +25654,10 @@
         <v>2270</v>
       </c>
       <c r="B2272" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C2272" t="s">
-        <v>82</v>
+        <v>46</v>
       </c>
     </row>
     <row r="2273" spans="1:3">
@@ -25656,10 +25665,10 @@
         <v>2271</v>
       </c>
       <c r="B2273" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C2273" t="s">
-        <v>82</v>
+        <v>47</v>
       </c>
     </row>
     <row r="2274" spans="1:3">
@@ -25667,10 +25676,10 @@
         <v>2272</v>
       </c>
       <c r="B2274" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C2274" t="s">
-        <v>82</v>
+        <v>48</v>
       </c>
     </row>
     <row r="2275" spans="1:3">
@@ -25678,10 +25687,10 @@
         <v>2273</v>
       </c>
       <c r="B2275" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C2275" t="s">
-        <v>85</v>
+        <v>49</v>
       </c>
     </row>
     <row r="2276" spans="1:3">
@@ -25689,10 +25698,10 @@
         <v>2274</v>
       </c>
       <c r="B2276" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C2276" t="s">
-        <v>85</v>
+        <v>49</v>
       </c>
     </row>
     <row r="2277" spans="1:3">
@@ -25700,10 +25709,10 @@
         <v>2275</v>
       </c>
       <c r="B2277" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C2277" t="s">
-        <v>85</v>
+        <v>50</v>
       </c>
     </row>
     <row r="2278" spans="1:3">
@@ -25711,10 +25720,10 @@
         <v>2276</v>
       </c>
       <c r="B2278" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C2278" t="s">
-        <v>85</v>
+        <v>51</v>
       </c>
     </row>
     <row r="2279" spans="1:3">
@@ -25722,10 +25731,10 @@
         <v>2277</v>
       </c>
       <c r="B2279" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C2279" t="s">
-        <v>85</v>
+        <v>53</v>
       </c>
     </row>
     <row r="2280" spans="1:3">
@@ -25733,10 +25742,10 @@
         <v>2278</v>
       </c>
       <c r="B2280" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C2280" t="s">
-        <v>85</v>
+        <v>54</v>
       </c>
     </row>
     <row r="2281" spans="1:3">
@@ -25744,10 +25753,10 @@
         <v>2279</v>
       </c>
       <c r="B2281" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C2281" t="s">
-        <v>85</v>
+        <v>55</v>
       </c>
     </row>
     <row r="2282" spans="1:3">
@@ -25755,10 +25764,10 @@
         <v>2280</v>
       </c>
       <c r="B2282" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C2282" t="s">
-        <v>85</v>
+        <v>56</v>
       </c>
     </row>
     <row r="2283" spans="1:3">
@@ -25766,10 +25775,10 @@
         <v>2281</v>
       </c>
       <c r="B2283" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C2283" t="s">
-        <v>85</v>
+        <v>57</v>
       </c>
     </row>
     <row r="2284" spans="1:3">
@@ -25777,10 +25786,10 @@
         <v>2282</v>
       </c>
       <c r="B2284" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C2284" t="s">
-        <v>85</v>
+        <v>58</v>
       </c>
     </row>
     <row r="2285" spans="1:3">
@@ -25788,10 +25797,10 @@
         <v>2283</v>
       </c>
       <c r="B2285" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C2285" t="s">
-        <v>85</v>
+        <v>59</v>
       </c>
     </row>
     <row r="2286" spans="1:3">
@@ -25799,10 +25808,10 @@
         <v>2284</v>
       </c>
       <c r="B2286" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C2286" t="s">
-        <v>85</v>
+        <v>60</v>
       </c>
     </row>
     <row r="2287" spans="1:3">
@@ -25810,10 +25819,10 @@
         <v>2285</v>
       </c>
       <c r="B2287" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C2287" t="s">
-        <v>85</v>
+        <v>61</v>
       </c>
     </row>
     <row r="2288" spans="1:3">
@@ -25821,10 +25830,10 @@
         <v>2286</v>
       </c>
       <c r="B2288" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C2288" t="s">
-        <v>85</v>
+        <v>62</v>
       </c>
     </row>
     <row r="2289" spans="1:3">
@@ -25832,10 +25841,10 @@
         <v>2287</v>
       </c>
       <c r="B2289" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C2289" t="s">
-        <v>85</v>
+        <v>63</v>
       </c>
     </row>
     <row r="2290" spans="1:3">
@@ -25843,10 +25852,10 @@
         <v>2288</v>
       </c>
       <c r="B2290" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C2290" t="s">
-        <v>85</v>
+        <v>64</v>
       </c>
     </row>
     <row r="2291" spans="1:3">
@@ -25854,10 +25863,10 @@
         <v>2289</v>
       </c>
       <c r="B2291" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C2291" t="s">
-        <v>85</v>
+        <v>65</v>
       </c>
     </row>
     <row r="2292" spans="1:3">
@@ -25865,10 +25874,10 @@
         <v>2290</v>
       </c>
       <c r="B2292" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C2292" t="s">
-        <v>85</v>
+        <v>66</v>
       </c>
     </row>
     <row r="2293" spans="1:3">
@@ -25876,10 +25885,10 @@
         <v>2291</v>
       </c>
       <c r="B2293" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C2293" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
     </row>
     <row r="2294" spans="1:3">
@@ -25887,10 +25896,10 @@
         <v>2292</v>
       </c>
       <c r="B2294" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C2294" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
     </row>
     <row r="2295" spans="1:3">
@@ -25898,10 +25907,10 @@
         <v>2293</v>
       </c>
       <c r="B2295" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C2295" t="s">
-        <v>73</v>
+        <v>83</v>
       </c>
     </row>
     <row r="2296" spans="1:3">
@@ -25909,10 +25918,10 @@
         <v>2294</v>
       </c>
       <c r="B2296" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C2296" t="s">
-        <v>73</v>
+        <v>83</v>
       </c>
     </row>
     <row r="2297" spans="1:3">
@@ -25920,10 +25929,10 @@
         <v>2295</v>
       </c>
       <c r="B2297" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C2297" t="s">
-        <v>73</v>
+        <v>83</v>
       </c>
     </row>
     <row r="2298" spans="1:3">
@@ -25931,10 +25940,10 @@
         <v>2296</v>
       </c>
       <c r="B2298" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C2298" t="s">
-        <v>73</v>
+        <v>83</v>
       </c>
     </row>
     <row r="2299" spans="1:3">
@@ -25942,10 +25951,10 @@
         <v>2297</v>
       </c>
       <c r="B2299" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C2299" t="s">
-        <v>73</v>
+        <v>83</v>
       </c>
     </row>
     <row r="2300" spans="1:3">
@@ -25953,10 +25962,10 @@
         <v>2298</v>
       </c>
       <c r="B2300" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C2300" t="s">
-        <v>73</v>
+        <v>83</v>
       </c>
     </row>
     <row r="2301" spans="1:3">
@@ -25964,10 +25973,10 @@
         <v>2299</v>
       </c>
       <c r="B2301" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C2301" t="s">
-        <v>73</v>
+        <v>83</v>
       </c>
     </row>
     <row r="2302" spans="1:3">
@@ -25975,10 +25984,10 @@
         <v>2300</v>
       </c>
       <c r="B2302" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C2302" t="s">
-        <v>73</v>
+        <v>83</v>
       </c>
     </row>
     <row r="2303" spans="1:3">
@@ -25986,10 +25995,10 @@
         <v>2301</v>
       </c>
       <c r="B2303" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C2303" t="s">
-        <v>73</v>
+        <v>83</v>
       </c>
     </row>
     <row r="2304" spans="1:3">
@@ -25997,10 +26006,10 @@
         <v>2302</v>
       </c>
       <c r="B2304" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C2304" t="s">
-        <v>73</v>
+        <v>83</v>
       </c>
     </row>
     <row r="2305" spans="1:3">
@@ -26008,10 +26017,10 @@
         <v>2303</v>
       </c>
       <c r="B2305" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C2305" t="s">
-        <v>73</v>
+        <v>83</v>
       </c>
     </row>
     <row r="2306" spans="1:3">
@@ -26019,10 +26028,10 @@
         <v>2304</v>
       </c>
       <c r="B2306" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C2306" t="s">
-        <v>73</v>
+        <v>83</v>
       </c>
     </row>
     <row r="2307" spans="1:3">
@@ -26030,10 +26039,10 @@
         <v>2305</v>
       </c>
       <c r="B2307" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C2307" t="s">
-        <v>73</v>
+        <v>83</v>
       </c>
     </row>
     <row r="2308" spans="1:3">
@@ -26041,10 +26050,10 @@
         <v>2306</v>
       </c>
       <c r="B2308" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C2308" t="s">
-        <v>73</v>
+        <v>83</v>
       </c>
     </row>
     <row r="2309" spans="1:3">
@@ -26052,10 +26061,10 @@
         <v>2307</v>
       </c>
       <c r="B2309" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C2309" t="s">
-        <v>73</v>
+        <v>83</v>
       </c>
     </row>
     <row r="2310" spans="1:3">
@@ -26063,10 +26072,10 @@
         <v>2308</v>
       </c>
       <c r="B2310" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C2310" t="s">
-        <v>73</v>
+        <v>83</v>
       </c>
     </row>
     <row r="2311" spans="1:3">
@@ -26074,10 +26083,10 @@
         <v>2309</v>
       </c>
       <c r="B2311" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C2311" t="s">
-        <v>73</v>
+        <v>83</v>
       </c>
     </row>
     <row r="2312" spans="1:3">
@@ -26085,10 +26094,10 @@
         <v>2310</v>
       </c>
       <c r="B2312" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C2312" t="s">
-        <v>74</v>
+        <v>83</v>
       </c>
     </row>
     <row r="2313" spans="1:3">
@@ -26096,10 +26105,10 @@
         <v>2311</v>
       </c>
       <c r="B2313" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C2313" t="s">
-        <v>74</v>
+        <v>83</v>
       </c>
     </row>
     <row r="2314" spans="1:3">
@@ -26107,10 +26116,10 @@
         <v>2312</v>
       </c>
       <c r="B2314" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C2314" t="s">
-        <v>74</v>
+        <v>83</v>
       </c>
     </row>
     <row r="2315" spans="1:3">
@@ -26118,10 +26127,10 @@
         <v>2313</v>
       </c>
       <c r="B2315" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C2315" t="s">
-        <v>74</v>
+        <v>83</v>
       </c>
     </row>
     <row r="2316" spans="1:3">
@@ -26129,10 +26138,10 @@
         <v>2314</v>
       </c>
       <c r="B2316" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C2316" t="s">
-        <v>74</v>
+        <v>83</v>
       </c>
     </row>
     <row r="2317" spans="1:3">
@@ -26140,10 +26149,10 @@
         <v>2315</v>
       </c>
       <c r="B2317" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C2317" t="s">
-        <v>74</v>
+        <v>83</v>
       </c>
     </row>
     <row r="2318" spans="1:3">
@@ -26151,10 +26160,10 @@
         <v>2316</v>
       </c>
       <c r="B2318" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C2318" t="s">
-        <v>74</v>
+        <v>83</v>
       </c>
     </row>
     <row r="2319" spans="1:3">
@@ -26162,10 +26171,10 @@
         <v>2317</v>
       </c>
       <c r="B2319" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C2319" t="s">
-        <v>74</v>
+        <v>83</v>
       </c>
     </row>
     <row r="2320" spans="1:3">
@@ -26173,10 +26182,10 @@
         <v>2318</v>
       </c>
       <c r="B2320" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C2320" t="s">
-        <v>74</v>
+        <v>84</v>
       </c>
     </row>
     <row r="2321" spans="1:3">
@@ -26184,10 +26193,10 @@
         <v>2319</v>
       </c>
       <c r="B2321" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C2321" t="s">
-        <v>74</v>
+        <v>84</v>
       </c>
     </row>
     <row r="2322" spans="1:3">
@@ -26195,10 +26204,10 @@
         <v>2320</v>
       </c>
       <c r="B2322" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C2322" t="s">
-        <v>74</v>
+        <v>84</v>
       </c>
     </row>
     <row r="2323" spans="1:3">
@@ -26206,10 +26215,10 @@
         <v>2321</v>
       </c>
       <c r="B2323" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C2323" t="s">
-        <v>74</v>
+        <v>84</v>
       </c>
     </row>
     <row r="2324" spans="1:3">
@@ -26217,10 +26226,10 @@
         <v>2322</v>
       </c>
       <c r="B2324" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C2324" t="s">
-        <v>74</v>
+        <v>84</v>
       </c>
     </row>
     <row r="2325" spans="1:3">
@@ -26228,10 +26237,10 @@
         <v>2323</v>
       </c>
       <c r="B2325" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C2325" t="s">
-        <v>74</v>
+        <v>84</v>
       </c>
     </row>
     <row r="2326" spans="1:3">
@@ -26239,10 +26248,10 @@
         <v>2324</v>
       </c>
       <c r="B2326" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C2326" t="s">
-        <v>74</v>
+        <v>84</v>
       </c>
     </row>
     <row r="2327" spans="1:3">
@@ -26250,10 +26259,10 @@
         <v>2325</v>
       </c>
       <c r="B2327" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C2327" t="s">
-        <v>74</v>
+        <v>84</v>
       </c>
     </row>
     <row r="2328" spans="1:3">
@@ -26261,10 +26270,10 @@
         <v>2326</v>
       </c>
       <c r="B2328" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C2328" t="s">
-        <v>74</v>
+        <v>84</v>
       </c>
     </row>
     <row r="2329" spans="1:3">
@@ -26272,10 +26281,10 @@
         <v>2327</v>
       </c>
       <c r="B2329" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C2329" t="s">
-        <v>74</v>
+        <v>84</v>
       </c>
     </row>
     <row r="2330" spans="1:3">
@@ -26283,10 +26292,10 @@
         <v>2328</v>
       </c>
       <c r="B2330" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C2330" t="s">
-        <v>74</v>
+        <v>84</v>
       </c>
     </row>
     <row r="2331" spans="1:3">
@@ -26294,10 +26303,10 @@
         <v>2329</v>
       </c>
       <c r="B2331" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C2331" t="s">
-        <v>74</v>
+        <v>84</v>
       </c>
     </row>
     <row r="2332" spans="1:3">
@@ -26305,10 +26314,10 @@
         <v>2330</v>
       </c>
       <c r="B2332" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C2332" t="s">
-        <v>74</v>
+        <v>84</v>
       </c>
     </row>
     <row r="2333" spans="1:3">
@@ -26316,10 +26325,10 @@
         <v>2331</v>
       </c>
       <c r="B2333" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C2333" t="s">
-        <v>74</v>
+        <v>84</v>
       </c>
     </row>
     <row r="2334" spans="1:3">
@@ -26327,10 +26336,10 @@
         <v>2332</v>
       </c>
       <c r="B2334" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C2334" t="s">
-        <v>75</v>
+        <v>84</v>
       </c>
     </row>
     <row r="2335" spans="1:3">
@@ -26338,10 +26347,10 @@
         <v>2333</v>
       </c>
       <c r="B2335" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C2335" t="s">
-        <v>75</v>
+        <v>84</v>
       </c>
     </row>
     <row r="2336" spans="1:3">
@@ -26349,10 +26358,10 @@
         <v>2334</v>
       </c>
       <c r="B2336" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C2336" t="s">
-        <v>75</v>
+        <v>84</v>
       </c>
     </row>
     <row r="2337" spans="1:3">
@@ -26360,10 +26369,10 @@
         <v>2335</v>
       </c>
       <c r="B2337" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C2337" t="s">
-        <v>75</v>
+        <v>84</v>
       </c>
     </row>
     <row r="2338" spans="1:3">
@@ -26371,10 +26380,10 @@
         <v>2336</v>
       </c>
       <c r="B2338" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C2338" t="s">
-        <v>75</v>
+        <v>84</v>
       </c>
     </row>
     <row r="2339" spans="1:3">
@@ -26382,10 +26391,10 @@
         <v>2337</v>
       </c>
       <c r="B2339" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C2339" t="s">
-        <v>75</v>
+        <v>84</v>
       </c>
     </row>
     <row r="2340" spans="1:3">
@@ -26393,10 +26402,10 @@
         <v>2338</v>
       </c>
       <c r="B2340" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C2340" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
     </row>
     <row r="2341" spans="1:3">
@@ -26404,10 +26413,10 @@
         <v>2339</v>
       </c>
       <c r="B2341" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C2341" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
     </row>
     <row r="2342" spans="1:3">
@@ -26415,10 +26424,10 @@
         <v>2340</v>
       </c>
       <c r="B2342" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C2342" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
     </row>
     <row r="2343" spans="1:3">
@@ -26426,10 +26435,10 @@
         <v>2341</v>
       </c>
       <c r="B2343" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C2343" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
     </row>
     <row r="2344" spans="1:3">
@@ -26437,10 +26446,10 @@
         <v>2342</v>
       </c>
       <c r="B2344" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C2344" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
     </row>
     <row r="2345" spans="1:3">
@@ -26448,10 +26457,10 @@
         <v>2343</v>
       </c>
       <c r="B2345" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C2345" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
     </row>
     <row r="2346" spans="1:3">
@@ -26459,10 +26468,10 @@
         <v>2344</v>
       </c>
       <c r="B2346" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C2346" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
     </row>
     <row r="2347" spans="1:3">
@@ -26470,10 +26479,10 @@
         <v>2345</v>
       </c>
       <c r="B2347" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C2347" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
     </row>
     <row r="2348" spans="1:3">
@@ -26481,10 +26490,10 @@
         <v>2346</v>
       </c>
       <c r="B2348" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C2348" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
     </row>
     <row r="2349" spans="1:3">
@@ -26492,10 +26501,10 @@
         <v>2347</v>
       </c>
       <c r="B2349" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C2349" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
     </row>
     <row r="2350" spans="1:3">
@@ -26503,10 +26512,10 @@
         <v>2348</v>
       </c>
       <c r="B2350" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C2350" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
     </row>
     <row r="2351" spans="1:3">
@@ -26514,10 +26523,10 @@
         <v>2349</v>
       </c>
       <c r="B2351" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C2351" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
     </row>
     <row r="2352" spans="1:3">
@@ -26525,10 +26534,10 @@
         <v>2350</v>
       </c>
       <c r="B2352" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C2352" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
     </row>
     <row r="2353" spans="1:3">
@@ -26536,10 +26545,10 @@
         <v>2351</v>
       </c>
       <c r="B2353" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C2353" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
     </row>
     <row r="2354" spans="1:3">
@@ -26547,10 +26556,10 @@
         <v>2352</v>
       </c>
       <c r="B2354" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C2354" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
     </row>
     <row r="2355" spans="1:3">
@@ -26558,10 +26567,10 @@
         <v>2353</v>
       </c>
       <c r="B2355" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C2355" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
     </row>
     <row r="2356" spans="1:3">
@@ -26569,10 +26578,10 @@
         <v>2354</v>
       </c>
       <c r="B2356" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C2356" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
     </row>
     <row r="2357" spans="1:3">
@@ -26580,10 +26589,10 @@
         <v>2355</v>
       </c>
       <c r="B2357" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C2357" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
     </row>
     <row r="2358" spans="1:3">
@@ -26591,10 +26600,10 @@
         <v>2356</v>
       </c>
       <c r="B2358" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C2358" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
     </row>
     <row r="2359" spans="1:3">
@@ -26602,10 +26611,10 @@
         <v>2357</v>
       </c>
       <c r="B2359" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C2359" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
     </row>
     <row r="2360" spans="1:3">
@@ -26613,10 +26622,10 @@
         <v>2358</v>
       </c>
       <c r="B2360" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C2360" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
     </row>
     <row r="2361" spans="1:3">
@@ -26624,10 +26633,10 @@
         <v>2359</v>
       </c>
       <c r="B2361" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C2361" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
     </row>
     <row r="2362" spans="1:3">
@@ -26635,10 +26644,10 @@
         <v>2360</v>
       </c>
       <c r="B2362" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C2362" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
     </row>
     <row r="2363" spans="1:3">
@@ -26646,10 +26655,10 @@
         <v>2361</v>
       </c>
       <c r="B2363" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C2363" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
     </row>
     <row r="2364" spans="1:3">
@@ -26657,10 +26666,10 @@
         <v>2362</v>
       </c>
       <c r="B2364" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C2364" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
     </row>
     <row r="2365" spans="1:3">
@@ -26668,10 +26677,10 @@
         <v>2363</v>
       </c>
       <c r="B2365" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C2365" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
     </row>
     <row r="2366" spans="1:3">
@@ -26679,10 +26688,10 @@
         <v>2364</v>
       </c>
       <c r="B2366" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C2366" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
     </row>
     <row r="2367" spans="1:3">
@@ -26690,10 +26699,10 @@
         <v>2365</v>
       </c>
       <c r="B2367" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C2367" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
     </row>
     <row r="2368" spans="1:3">
@@ -26701,10 +26710,10 @@
         <v>2366</v>
       </c>
       <c r="B2368" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C2368" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
     </row>
     <row r="2369" spans="1:3">
@@ -26712,10 +26721,10 @@
         <v>2367</v>
       </c>
       <c r="B2369" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C2369" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
     </row>
     <row r="2370" spans="1:3">
@@ -26723,10 +26732,10 @@
         <v>2368</v>
       </c>
       <c r="B2370" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C2370" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
     </row>
     <row r="2371" spans="1:3">
@@ -26734,10 +26743,10 @@
         <v>2369</v>
       </c>
       <c r="B2371" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C2371" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
     </row>
     <row r="2372" spans="1:3">
@@ -26745,10 +26754,10 @@
         <v>2370</v>
       </c>
       <c r="B2372" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C2372" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
     </row>
     <row r="2373" spans="1:3">
@@ -26756,10 +26765,10 @@
         <v>2371</v>
       </c>
       <c r="B2373" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C2373" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
     </row>
     <row r="2374" spans="1:3">
@@ -26767,10 +26776,10 @@
         <v>2372</v>
       </c>
       <c r="B2374" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C2374" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
     </row>
     <row r="2375" spans="1:3">
@@ -26778,10 +26787,10 @@
         <v>2373</v>
       </c>
       <c r="B2375" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C2375" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
     </row>
     <row r="2376" spans="1:3">
@@ -26789,10 +26798,10 @@
         <v>2374</v>
       </c>
       <c r="B2376" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C2376" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
     </row>
     <row r="2377" spans="1:3">
@@ -26800,10 +26809,10 @@
         <v>2375</v>
       </c>
       <c r="B2377" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C2377" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
     </row>
     <row r="2378" spans="1:3">
@@ -26811,10 +26820,10 @@
         <v>2376</v>
       </c>
       <c r="B2378" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C2378" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
     </row>
     <row r="2379" spans="1:3">
@@ -26822,10 +26831,10 @@
         <v>2377</v>
       </c>
       <c r="B2379" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C2379" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
     </row>
     <row r="2380" spans="1:3">
@@ -26833,10 +26842,10 @@
         <v>2378</v>
       </c>
       <c r="B2380" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C2380" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
     </row>
     <row r="2381" spans="1:3">
@@ -26844,10 +26853,10 @@
         <v>2379</v>
       </c>
       <c r="B2381" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C2381" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
     </row>
     <row r="2382" spans="1:3">
@@ -26855,10 +26864,10 @@
         <v>2380</v>
       </c>
       <c r="B2382" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C2382" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
     </row>
     <row r="2383" spans="1:3">
@@ -26866,10 +26875,10 @@
         <v>2381</v>
       </c>
       <c r="B2383" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C2383" t="s">
-        <v>77</v>
+        <v>85</v>
       </c>
     </row>
     <row r="2384" spans="1:3">
@@ -26877,10 +26886,10 @@
         <v>2382</v>
       </c>
       <c r="B2384" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C2384" t="s">
-        <v>77</v>
+        <v>85</v>
       </c>
     </row>
     <row r="2385" spans="1:3">
@@ -26888,10 +26897,10 @@
         <v>2383</v>
       </c>
       <c r="B2385" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C2385" t="s">
-        <v>77</v>
+        <v>85</v>
       </c>
     </row>
     <row r="2386" spans="1:3">
@@ -26899,10 +26908,10 @@
         <v>2384</v>
       </c>
       <c r="B2386" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C2386" t="s">
-        <v>77</v>
+        <v>85</v>
       </c>
     </row>
     <row r="2387" spans="1:3">
@@ -26910,10 +26919,10 @@
         <v>2385</v>
       </c>
       <c r="B2387" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C2387" t="s">
-        <v>77</v>
+        <v>85</v>
       </c>
     </row>
     <row r="2388" spans="1:3">
@@ -26921,10 +26930,10 @@
         <v>2386</v>
       </c>
       <c r="B2388" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C2388" t="s">
-        <v>77</v>
+        <v>85</v>
       </c>
     </row>
     <row r="2389" spans="1:3">
@@ -26932,10 +26941,10 @@
         <v>2387</v>
       </c>
       <c r="B2389" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C2389" t="s">
-        <v>77</v>
+        <v>85</v>
       </c>
     </row>
     <row r="2390" spans="1:3">
@@ -26943,10 +26952,10 @@
         <v>2388</v>
       </c>
       <c r="B2390" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C2390" t="s">
-        <v>77</v>
+        <v>85</v>
       </c>
     </row>
     <row r="2391" spans="1:3">
@@ -26954,10 +26963,10 @@
         <v>2389</v>
       </c>
       <c r="B2391" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C2391" t="s">
-        <v>77</v>
+        <v>85</v>
       </c>
     </row>
     <row r="2392" spans="1:3">
@@ -26965,10 +26974,10 @@
         <v>2390</v>
       </c>
       <c r="B2392" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C2392" t="s">
-        <v>77</v>
+        <v>85</v>
       </c>
     </row>
     <row r="2393" spans="1:3">
@@ -26976,10 +26985,10 @@
         <v>2391</v>
       </c>
       <c r="B2393" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C2393" t="s">
-        <v>77</v>
+        <v>85</v>
       </c>
     </row>
     <row r="2394" spans="1:3">
@@ -26987,10 +26996,10 @@
         <v>2392</v>
       </c>
       <c r="B2394" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C2394" t="s">
-        <v>77</v>
+        <v>85</v>
       </c>
     </row>
     <row r="2395" spans="1:3">
@@ -26998,10 +27007,10 @@
         <v>2393</v>
       </c>
       <c r="B2395" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C2395" t="s">
-        <v>77</v>
+        <v>85</v>
       </c>
     </row>
     <row r="2396" spans="1:3">
@@ -27009,10 +27018,10 @@
         <v>2394</v>
       </c>
       <c r="B2396" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C2396" t="s">
-        <v>77</v>
+        <v>85</v>
       </c>
     </row>
     <row r="2397" spans="1:3">
@@ -27020,10 +27029,10 @@
         <v>2395</v>
       </c>
       <c r="B2397" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C2397" t="s">
-        <v>77</v>
+        <v>85</v>
       </c>
     </row>
     <row r="2398" spans="1:3">
@@ -27031,10 +27040,10 @@
         <v>2396</v>
       </c>
       <c r="B2398" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C2398" t="s">
-        <v>78</v>
+        <v>85</v>
       </c>
     </row>
     <row r="2399" spans="1:3">
@@ -27042,10 +27051,10 @@
         <v>2397</v>
       </c>
       <c r="B2399" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C2399" t="s">
-        <v>78</v>
+        <v>85</v>
       </c>
     </row>
     <row r="2400" spans="1:3">
@@ -27053,10 +27062,10 @@
         <v>2398</v>
       </c>
       <c r="B2400" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C2400" t="s">
-        <v>78</v>
+        <v>85</v>
       </c>
     </row>
     <row r="2401" spans="1:3">
@@ -27067,7 +27076,7 @@
         <v>28</v>
       </c>
       <c r="C2401" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
     </row>
     <row r="2402" spans="1:3">
@@ -27078,7 +27087,7 @@
         <v>28</v>
       </c>
       <c r="C2402" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
     </row>
     <row r="2403" spans="1:3">
@@ -27089,7 +27098,7 @@
         <v>28</v>
       </c>
       <c r="C2403" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
     </row>
     <row r="2404" spans="1:3">
@@ -27100,7 +27109,7 @@
         <v>28</v>
       </c>
       <c r="C2404" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
     </row>
     <row r="2405" spans="1:3">
@@ -27111,7 +27120,7 @@
         <v>28</v>
       </c>
       <c r="C2405" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
     </row>
     <row r="2406" spans="1:3">
@@ -27122,7 +27131,7 @@
         <v>28</v>
       </c>
       <c r="C2406" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
     </row>
     <row r="2407" spans="1:3">
@@ -27133,7 +27142,7 @@
         <v>28</v>
       </c>
       <c r="C2407" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
     </row>
     <row r="2408" spans="1:3">
@@ -27144,7 +27153,7 @@
         <v>28</v>
       </c>
       <c r="C2408" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
     </row>
     <row r="2409" spans="1:3">
@@ -27155,7 +27164,7 @@
         <v>28</v>
       </c>
       <c r="C2409" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
     </row>
     <row r="2410" spans="1:3">
@@ -27166,7 +27175,7 @@
         <v>28</v>
       </c>
       <c r="C2410" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
     </row>
     <row r="2411" spans="1:3">
@@ -27177,7 +27186,7 @@
         <v>28</v>
       </c>
       <c r="C2411" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
     </row>
     <row r="2412" spans="1:3">
@@ -27188,7 +27197,7 @@
         <v>28</v>
       </c>
       <c r="C2412" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
     </row>
     <row r="2413" spans="1:3">
@@ -27199,7 +27208,7 @@
         <v>28</v>
       </c>
       <c r="C2413" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
     </row>
     <row r="2414" spans="1:3">
@@ -27210,7 +27219,7 @@
         <v>28</v>
       </c>
       <c r="C2414" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
     </row>
     <row r="2415" spans="1:3">
@@ -27221,7 +27230,7 @@
         <v>28</v>
       </c>
       <c r="C2415" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
     </row>
     <row r="2416" spans="1:3">
@@ -27232,7 +27241,7 @@
         <v>28</v>
       </c>
       <c r="C2416" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
     </row>
     <row r="2417" spans="1:3">
@@ -27243,7 +27252,7 @@
         <v>28</v>
       </c>
       <c r="C2417" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
     </row>
     <row r="2418" spans="1:3">
@@ -27254,7 +27263,7 @@
         <v>28</v>
       </c>
       <c r="C2418" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
     </row>
     <row r="2419" spans="1:3">
@@ -27265,7 +27274,7 @@
         <v>28</v>
       </c>
       <c r="C2419" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
     </row>
     <row r="2420" spans="1:3">
@@ -27276,7 +27285,7 @@
         <v>28</v>
       </c>
       <c r="C2420" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
     </row>
     <row r="2421" spans="1:3">
@@ -27287,7 +27296,7 @@
         <v>28</v>
       </c>
       <c r="C2421" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
     </row>
     <row r="2422" spans="1:3">
@@ -27298,7 +27307,7 @@
         <v>28</v>
       </c>
       <c r="C2422" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
     </row>
     <row r="2423" spans="1:3">
@@ -27309,7 +27318,7 @@
         <v>28</v>
       </c>
       <c r="C2423" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
     </row>
     <row r="2424" spans="1:3">
@@ -27320,7 +27329,7 @@
         <v>28</v>
       </c>
       <c r="C2424" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
     </row>
     <row r="2425" spans="1:3">
@@ -27331,7 +27340,7 @@
         <v>28</v>
       </c>
       <c r="C2425" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
     </row>
     <row r="2426" spans="1:3">
@@ -27342,7 +27351,7 @@
         <v>28</v>
       </c>
       <c r="C2426" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
     </row>
     <row r="2427" spans="1:3">
@@ -27353,7 +27362,7 @@
         <v>28</v>
       </c>
       <c r="C2427" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
     </row>
     <row r="2428" spans="1:3">
@@ -27364,7 +27373,7 @@
         <v>28</v>
       </c>
       <c r="C2428" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
     </row>
     <row r="2429" spans="1:3">
@@ -27375,7 +27384,7 @@
         <v>28</v>
       </c>
       <c r="C2429" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
     </row>
     <row r="2430" spans="1:3">
@@ -27386,7 +27395,7 @@
         <v>28</v>
       </c>
       <c r="C2430" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
     </row>
     <row r="2431" spans="1:3">
@@ -27397,7 +27406,7 @@
         <v>28</v>
       </c>
       <c r="C2431" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
     </row>
     <row r="2432" spans="1:3">
@@ -27408,7 +27417,7 @@
         <v>28</v>
       </c>
       <c r="C2432" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
     </row>
     <row r="2433" spans="1:3">
@@ -27419,7 +27428,7 @@
         <v>28</v>
       </c>
       <c r="C2433" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
     </row>
     <row r="2434" spans="1:3">
@@ -27430,7 +27439,7 @@
         <v>28</v>
       </c>
       <c r="C2434" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
     </row>
     <row r="2435" spans="1:3">
@@ -27441,7 +27450,7 @@
         <v>28</v>
       </c>
       <c r="C2435" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
     </row>
     <row r="2436" spans="1:3">
@@ -27452,7 +27461,7 @@
         <v>28</v>
       </c>
       <c r="C2436" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
     </row>
     <row r="2437" spans="1:3">
@@ -27463,7 +27472,7 @@
         <v>28</v>
       </c>
       <c r="C2437" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
     </row>
     <row r="2438" spans="1:3">
@@ -27474,7 +27483,7 @@
         <v>28</v>
       </c>
       <c r="C2438" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
     </row>
     <row r="2439" spans="1:3">
@@ -27485,7 +27494,7 @@
         <v>28</v>
       </c>
       <c r="C2439" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
     </row>
     <row r="2440" spans="1:3">
@@ -27496,7 +27505,7 @@
         <v>28</v>
       </c>
       <c r="C2440" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
     </row>
     <row r="2441" spans="1:3">
@@ -27507,7 +27516,7 @@
         <v>28</v>
       </c>
       <c r="C2441" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
     </row>
     <row r="2442" spans="1:3">
@@ -27518,7 +27527,7 @@
         <v>28</v>
       </c>
       <c r="C2442" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
     </row>
     <row r="2443" spans="1:3">
@@ -27529,7 +27538,7 @@
         <v>28</v>
       </c>
       <c r="C2443" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
     </row>
     <row r="2444" spans="1:3">
@@ -27540,7 +27549,7 @@
         <v>28</v>
       </c>
       <c r="C2444" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
     </row>
     <row r="2445" spans="1:3">
@@ -27551,7 +27560,7 @@
         <v>28</v>
       </c>
       <c r="C2445" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
     </row>
     <row r="2446" spans="1:3">
@@ -27562,7 +27571,7 @@
         <v>28</v>
       </c>
       <c r="C2446" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
     </row>
     <row r="2447" spans="1:3">
@@ -27573,7 +27582,7 @@
         <v>28</v>
       </c>
       <c r="C2447" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
     </row>
     <row r="2448" spans="1:3">
@@ -27584,7 +27593,7 @@
         <v>28</v>
       </c>
       <c r="C2448" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
     </row>
     <row r="2449" spans="1:3">
@@ -27595,7 +27604,7 @@
         <v>28</v>
       </c>
       <c r="C2449" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
     </row>
     <row r="2450" spans="1:3">
@@ -27606,7 +27615,7 @@
         <v>28</v>
       </c>
       <c r="C2450" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
     </row>
     <row r="2451" spans="1:3">
@@ -27617,7 +27626,7 @@
         <v>28</v>
       </c>
       <c r="C2451" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
     </row>
     <row r="2452" spans="1:3">
@@ -27628,7 +27637,7 @@
         <v>28</v>
       </c>
       <c r="C2452" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
     </row>
     <row r="2453" spans="1:3">
@@ -27639,7 +27648,7 @@
         <v>28</v>
       </c>
       <c r="C2453" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
     </row>
     <row r="2454" spans="1:3">
@@ -27650,7 +27659,7 @@
         <v>28</v>
       </c>
       <c r="C2454" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
     </row>
     <row r="2455" spans="1:3">
@@ -27661,7 +27670,7 @@
         <v>28</v>
       </c>
       <c r="C2455" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
     </row>
     <row r="2456" spans="1:3">
@@ -27672,7 +27681,7 @@
         <v>28</v>
       </c>
       <c r="C2456" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
     </row>
     <row r="2457" spans="1:3">
@@ -27683,7 +27692,7 @@
         <v>28</v>
       </c>
       <c r="C2457" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
     </row>
     <row r="2458" spans="1:3">
@@ -27694,7 +27703,7 @@
         <v>28</v>
       </c>
       <c r="C2458" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
     </row>
     <row r="2459" spans="1:3">
@@ -27705,7 +27714,7 @@
         <v>28</v>
       </c>
       <c r="C2459" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
     </row>
     <row r="2460" spans="1:3">
@@ -27716,7 +27725,7 @@
         <v>28</v>
       </c>
       <c r="C2460" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
     </row>
     <row r="2461" spans="1:3">
@@ -27727,7 +27736,7 @@
         <v>28</v>
       </c>
       <c r="C2461" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
     </row>
     <row r="2462" spans="1:3">
@@ -27738,7 +27747,7 @@
         <v>28</v>
       </c>
       <c r="C2462" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
     </row>
     <row r="2463" spans="1:3">
@@ -27749,7 +27758,7 @@
         <v>28</v>
       </c>
       <c r="C2463" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
     </row>
     <row r="2464" spans="1:3">
@@ -27760,7 +27769,7 @@
         <v>28</v>
       </c>
       <c r="C2464" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
     </row>
     <row r="2465" spans="1:3">
@@ -27771,7 +27780,7 @@
         <v>28</v>
       </c>
       <c r="C2465" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
     </row>
     <row r="2466" spans="1:3">
@@ -27779,10 +27788,10 @@
         <v>2464</v>
       </c>
       <c r="B2466" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C2466" t="s">
-        <v>69</v>
+        <v>76</v>
       </c>
     </row>
     <row r="2467" spans="1:3">
@@ -27790,10 +27799,10 @@
         <v>2465</v>
       </c>
       <c r="B2467" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C2467" t="s">
-        <v>69</v>
+        <v>76</v>
       </c>
     </row>
     <row r="2468" spans="1:3">
@@ -27801,10 +27810,10 @@
         <v>2466</v>
       </c>
       <c r="B2468" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C2468" t="s">
-        <v>69</v>
+        <v>76</v>
       </c>
     </row>
     <row r="2469" spans="1:3">
@@ -27812,10 +27821,10 @@
         <v>2467</v>
       </c>
       <c r="B2469" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C2469" t="s">
-        <v>69</v>
+        <v>76</v>
       </c>
     </row>
     <row r="2470" spans="1:3">
@@ -27823,10 +27832,10 @@
         <v>2468</v>
       </c>
       <c r="B2470" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C2470" t="s">
-        <v>69</v>
+        <v>76</v>
       </c>
     </row>
     <row r="2471" spans="1:3">
@@ -27834,10 +27843,10 @@
         <v>2469</v>
       </c>
       <c r="B2471" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C2471" t="s">
-        <v>69</v>
+        <v>76</v>
       </c>
     </row>
     <row r="2472" spans="1:3">
@@ -27845,10 +27854,10 @@
         <v>2470</v>
       </c>
       <c r="B2472" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C2472" t="s">
-        <v>69</v>
+        <v>76</v>
       </c>
     </row>
     <row r="2473" spans="1:3">
@@ -27856,10 +27865,10 @@
         <v>2471</v>
       </c>
       <c r="B2473" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C2473" t="s">
-        <v>69</v>
+        <v>76</v>
       </c>
     </row>
     <row r="2474" spans="1:3">
@@ -27867,10 +27876,10 @@
         <v>2472</v>
       </c>
       <c r="B2474" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C2474" t="s">
-        <v>69</v>
+        <v>76</v>
       </c>
     </row>
     <row r="2475" spans="1:3">
@@ -27878,10 +27887,10 @@
         <v>2473</v>
       </c>
       <c r="B2475" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C2475" t="s">
-        <v>69</v>
+        <v>76</v>
       </c>
     </row>
     <row r="2476" spans="1:3">
@@ -27889,10 +27898,10 @@
         <v>2474</v>
       </c>
       <c r="B2476" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C2476" t="s">
-        <v>69</v>
+        <v>76</v>
       </c>
     </row>
     <row r="2477" spans="1:3">
@@ -27900,10 +27909,10 @@
         <v>2475</v>
       </c>
       <c r="B2477" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C2477" t="s">
-        <v>69</v>
+        <v>76</v>
       </c>
     </row>
     <row r="2478" spans="1:3">
@@ -27911,10 +27920,10 @@
         <v>2476</v>
       </c>
       <c r="B2478" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C2478" t="s">
-        <v>69</v>
+        <v>76</v>
       </c>
     </row>
     <row r="2479" spans="1:3">
@@ -27922,10 +27931,10 @@
         <v>2477</v>
       </c>
       <c r="B2479" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C2479" t="s">
-        <v>69</v>
+        <v>76</v>
       </c>
     </row>
     <row r="2480" spans="1:3">
@@ -27933,10 +27942,10 @@
         <v>2478</v>
       </c>
       <c r="B2480" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C2480" t="s">
-        <v>69</v>
+        <v>76</v>
       </c>
     </row>
     <row r="2481" spans="1:3">
@@ -27944,10 +27953,10 @@
         <v>2479</v>
       </c>
       <c r="B2481" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C2481" t="s">
-        <v>69</v>
+        <v>76</v>
       </c>
     </row>
     <row r="2482" spans="1:3">
@@ -27955,10 +27964,10 @@
         <v>2480</v>
       </c>
       <c r="B2482" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C2482" t="s">
-        <v>69</v>
+        <v>77</v>
       </c>
     </row>
     <row r="2483" spans="1:3">
@@ -27966,10 +27975,10 @@
         <v>2481</v>
       </c>
       <c r="B2483" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C2483" t="s">
-        <v>69</v>
+        <v>77</v>
       </c>
     </row>
     <row r="2484" spans="1:3">
@@ -27977,10 +27986,10 @@
         <v>2482</v>
       </c>
       <c r="B2484" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C2484" t="s">
-        <v>69</v>
+        <v>77</v>
       </c>
     </row>
     <row r="2485" spans="1:3">
@@ -27988,10 +27997,10 @@
         <v>2483</v>
       </c>
       <c r="B2485" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C2485" t="s">
-        <v>69</v>
+        <v>77</v>
       </c>
     </row>
     <row r="2486" spans="1:3">
@@ -27999,10 +28008,10 @@
         <v>2484</v>
       </c>
       <c r="B2486" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C2486" t="s">
-        <v>69</v>
+        <v>77</v>
       </c>
     </row>
     <row r="2487" spans="1:3">
@@ -28010,10 +28019,10 @@
         <v>2485</v>
       </c>
       <c r="B2487" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C2487" t="s">
-        <v>69</v>
+        <v>77</v>
       </c>
     </row>
     <row r="2488" spans="1:3">
@@ -28021,10 +28030,10 @@
         <v>2486</v>
       </c>
       <c r="B2488" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C2488" t="s">
-        <v>69</v>
+        <v>77</v>
       </c>
     </row>
     <row r="2489" spans="1:3">
@@ -28032,10 +28041,10 @@
         <v>2487</v>
       </c>
       <c r="B2489" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C2489" t="s">
-        <v>69</v>
+        <v>77</v>
       </c>
     </row>
     <row r="2490" spans="1:3">
@@ -28043,10 +28052,10 @@
         <v>2488</v>
       </c>
       <c r="B2490" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C2490" t="s">
-        <v>69</v>
+        <v>77</v>
       </c>
     </row>
     <row r="2491" spans="1:3">
@@ -28054,10 +28063,10 @@
         <v>2489</v>
       </c>
       <c r="B2491" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C2491" t="s">
-        <v>69</v>
+        <v>77</v>
       </c>
     </row>
     <row r="2492" spans="1:3">
@@ -28065,10 +28074,10 @@
         <v>2490</v>
       </c>
       <c r="B2492" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C2492" t="s">
-        <v>69</v>
+        <v>77</v>
       </c>
     </row>
     <row r="2493" spans="1:3">
@@ -28076,10 +28085,10 @@
         <v>2491</v>
       </c>
       <c r="B2493" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C2493" t="s">
-        <v>69</v>
+        <v>77</v>
       </c>
     </row>
     <row r="2494" spans="1:3">
@@ -28087,10 +28096,10 @@
         <v>2492</v>
       </c>
       <c r="B2494" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C2494" t="s">
-        <v>69</v>
+        <v>77</v>
       </c>
     </row>
     <row r="2495" spans="1:3">
@@ -28098,10 +28107,10 @@
         <v>2493</v>
       </c>
       <c r="B2495" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C2495" t="s">
-        <v>69</v>
+        <v>77</v>
       </c>
     </row>
     <row r="2496" spans="1:3">
@@ -28109,10 +28118,10 @@
         <v>2494</v>
       </c>
       <c r="B2496" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C2496" t="s">
-        <v>69</v>
+        <v>77</v>
       </c>
     </row>
     <row r="2497" spans="1:3">
@@ -28120,10 +28129,10 @@
         <v>2495</v>
       </c>
       <c r="B2497" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C2497" t="s">
-        <v>69</v>
+        <v>77</v>
       </c>
     </row>
     <row r="2498" spans="1:3">
@@ -28131,10 +28140,10 @@
         <v>2496</v>
       </c>
       <c r="B2498" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C2498" t="s">
-        <v>69</v>
+        <v>77</v>
       </c>
     </row>
     <row r="2499" spans="1:3">
@@ -28142,10 +28151,10 @@
         <v>2497</v>
       </c>
       <c r="B2499" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C2499" t="s">
-        <v>69</v>
+        <v>77</v>
       </c>
     </row>
     <row r="2500" spans="1:3">
@@ -28153,10 +28162,10 @@
         <v>2498</v>
       </c>
       <c r="B2500" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C2500" t="s">
-        <v>70</v>
+        <v>77</v>
       </c>
     </row>
     <row r="2501" spans="1:3">
@@ -28164,10 +28173,10 @@
         <v>2499</v>
       </c>
       <c r="B2501" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C2501" t="s">
-        <v>70</v>
+        <v>77</v>
       </c>
     </row>
     <row r="2502" spans="1:3">
@@ -28175,10 +28184,10 @@
         <v>2500</v>
       </c>
       <c r="B2502" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C2502" t="s">
-        <v>70</v>
+        <v>77</v>
       </c>
     </row>
     <row r="2503" spans="1:3">
@@ -28186,10 +28195,10 @@
         <v>2501</v>
       </c>
       <c r="B2503" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C2503" t="s">
-        <v>70</v>
+        <v>77</v>
       </c>
     </row>
     <row r="2504" spans="1:3">
@@ -28197,10 +28206,10 @@
         <v>2502</v>
       </c>
       <c r="B2504" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C2504" t="s">
-        <v>70</v>
+        <v>77</v>
       </c>
     </row>
     <row r="2505" spans="1:3">
@@ -28208,10 +28217,10 @@
         <v>2503</v>
       </c>
       <c r="B2505" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C2505" t="s">
-        <v>70</v>
+        <v>77</v>
       </c>
     </row>
     <row r="2506" spans="1:3">
@@ -28219,10 +28228,10 @@
         <v>2504</v>
       </c>
       <c r="B2506" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C2506" t="s">
-        <v>70</v>
+        <v>78</v>
       </c>
     </row>
     <row r="2507" spans="1:3">
@@ -28230,10 +28239,10 @@
         <v>2505</v>
       </c>
       <c r="B2507" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C2507" t="s">
-        <v>70</v>
+        <v>78</v>
       </c>
     </row>
     <row r="2508" spans="1:3">
@@ -28241,10 +28250,10 @@
         <v>2506</v>
       </c>
       <c r="B2508" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C2508" t="s">
-        <v>70</v>
+        <v>78</v>
       </c>
     </row>
     <row r="2509" spans="1:3">
@@ -28252,10 +28261,10 @@
         <v>2507</v>
       </c>
       <c r="B2509" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C2509" t="s">
-        <v>70</v>
+        <v>78</v>
       </c>
     </row>
     <row r="2510" spans="1:3">
@@ -28263,10 +28272,10 @@
         <v>2508</v>
       </c>
       <c r="B2510" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C2510" t="s">
-        <v>70</v>
+        <v>78</v>
       </c>
     </row>
     <row r="2511" spans="1:3">
@@ -28274,10 +28283,10 @@
         <v>2509</v>
       </c>
       <c r="B2511" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C2511" t="s">
-        <v>70</v>
+        <v>78</v>
       </c>
     </row>
     <row r="2512" spans="1:3">
@@ -28285,10 +28294,10 @@
         <v>2510</v>
       </c>
       <c r="B2512" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C2512" t="s">
-        <v>70</v>
+        <v>78</v>
       </c>
     </row>
     <row r="2513" spans="1:3">
@@ -28296,10 +28305,10 @@
         <v>2511</v>
       </c>
       <c r="B2513" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C2513" t="s">
-        <v>70</v>
+        <v>78</v>
       </c>
     </row>
     <row r="2514" spans="1:3">
@@ -28307,10 +28316,10 @@
         <v>2512</v>
       </c>
       <c r="B2514" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C2514" t="s">
-        <v>70</v>
+        <v>78</v>
       </c>
     </row>
     <row r="2515" spans="1:3">
@@ -28318,10 +28327,10 @@
         <v>2513</v>
       </c>
       <c r="B2515" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C2515" t="s">
-        <v>70</v>
+        <v>78</v>
       </c>
     </row>
     <row r="2516" spans="1:3">
@@ -28329,10 +28338,10 @@
         <v>2514</v>
       </c>
       <c r="B2516" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C2516" t="s">
-        <v>70</v>
+        <v>78</v>
       </c>
     </row>
     <row r="2517" spans="1:3">
@@ -28340,10 +28349,10 @@
         <v>2515</v>
       </c>
       <c r="B2517" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C2517" t="s">
-        <v>70</v>
+        <v>78</v>
       </c>
     </row>
     <row r="2518" spans="1:3">
@@ -28351,10 +28360,10 @@
         <v>2516</v>
       </c>
       <c r="B2518" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C2518" t="s">
-        <v>70</v>
+        <v>78</v>
       </c>
     </row>
     <row r="2519" spans="1:3">
@@ -28362,10 +28371,10 @@
         <v>2517</v>
       </c>
       <c r="B2519" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C2519" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
     </row>
     <row r="2520" spans="1:3">
@@ -28373,10 +28382,10 @@
         <v>2518</v>
       </c>
       <c r="B2520" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C2520" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
     </row>
     <row r="2521" spans="1:3">
@@ -28384,10 +28393,10 @@
         <v>2519</v>
       </c>
       <c r="B2521" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C2521" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
     </row>
     <row r="2522" spans="1:3">
@@ -28395,10 +28404,10 @@
         <v>2520</v>
       </c>
       <c r="B2522" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C2522" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
     </row>
     <row r="2523" spans="1:3">
@@ -28406,10 +28415,10 @@
         <v>2521</v>
       </c>
       <c r="B2523" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C2523" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
     </row>
     <row r="2524" spans="1:3">
@@ -28417,10 +28426,10 @@
         <v>2522</v>
       </c>
       <c r="B2524" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C2524" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
     </row>
     <row r="2525" spans="1:3">
@@ -28428,10 +28437,10 @@
         <v>2523</v>
       </c>
       <c r="B2525" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C2525" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
     </row>
     <row r="2526" spans="1:3">
@@ -28439,10 +28448,10 @@
         <v>2524</v>
       </c>
       <c r="B2526" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C2526" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
     </row>
     <row r="2527" spans="1:3">
@@ -28450,10 +28459,10 @@
         <v>2525</v>
       </c>
       <c r="B2527" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C2527" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
     </row>
     <row r="2528" spans="1:3">
@@ -28461,10 +28470,10 @@
         <v>2526</v>
       </c>
       <c r="B2528" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C2528" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
     </row>
     <row r="2529" spans="1:3">
@@ -28472,10 +28481,10 @@
         <v>2527</v>
       </c>
       <c r="B2529" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C2529" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
     </row>
     <row r="2530" spans="1:3">
@@ -28483,10 +28492,10 @@
         <v>2528</v>
       </c>
       <c r="B2530" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C2530" t="s">
-        <v>72</v>
+        <v>80</v>
       </c>
     </row>
     <row r="2531" spans="1:3">
@@ -28494,10 +28503,10 @@
         <v>2529</v>
       </c>
       <c r="B2531" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C2531" t="s">
-        <v>72</v>
+        <v>80</v>
       </c>
     </row>
     <row r="2532" spans="1:3">
@@ -28505,10 +28514,10 @@
         <v>2530</v>
       </c>
       <c r="B2532" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C2532" t="s">
-        <v>72</v>
+        <v>80</v>
       </c>
     </row>
     <row r="2533" spans="1:3">
@@ -28516,10 +28525,10 @@
         <v>2531</v>
       </c>
       <c r="B2533" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C2533" t="s">
-        <v>72</v>
+        <v>80</v>
       </c>
     </row>
     <row r="2534" spans="1:3">
@@ -28527,10 +28536,10 @@
         <v>2532</v>
       </c>
       <c r="B2534" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C2534" t="s">
-        <v>72</v>
+        <v>80</v>
       </c>
     </row>
     <row r="2535" spans="1:3">
@@ -28538,10 +28547,10 @@
         <v>2533</v>
       </c>
       <c r="B2535" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C2535" t="s">
-        <v>72</v>
+        <v>80</v>
       </c>
     </row>
     <row r="2536" spans="1:3">
@@ -28549,10 +28558,10 @@
         <v>2534</v>
       </c>
       <c r="B2536" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C2536" t="s">
-        <v>72</v>
+        <v>80</v>
       </c>
     </row>
     <row r="2537" spans="1:3">
@@ -28560,10 +28569,10 @@
         <v>2535</v>
       </c>
       <c r="B2537" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C2537" t="s">
-        <v>72</v>
+        <v>80</v>
       </c>
     </row>
     <row r="2538" spans="1:3">
@@ -28571,10 +28580,10 @@
         <v>2536</v>
       </c>
       <c r="B2538" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C2538" t="s">
-        <v>72</v>
+        <v>80</v>
       </c>
     </row>
     <row r="2539" spans="1:3">
@@ -28582,10 +28591,10 @@
         <v>2537</v>
       </c>
       <c r="B2539" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C2539" t="s">
-        <v>72</v>
+        <v>80</v>
       </c>
     </row>
     <row r="2540" spans="1:3">
@@ -28593,10 +28602,10 @@
         <v>2538</v>
       </c>
       <c r="B2540" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C2540" t="s">
-        <v>72</v>
+        <v>80</v>
       </c>
     </row>
     <row r="2541" spans="1:3">
@@ -28604,10 +28613,10 @@
         <v>2539</v>
       </c>
       <c r="B2541" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C2541" t="s">
-        <v>72</v>
+        <v>80</v>
       </c>
     </row>
     <row r="2542" spans="1:3">
@@ -28615,10 +28624,10 @@
         <v>2540</v>
       </c>
       <c r="B2542" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C2542" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
     </row>
     <row r="2543" spans="1:3">
@@ -28626,10 +28635,10 @@
         <v>2541</v>
       </c>
       <c r="B2543" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C2543" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
     </row>
     <row r="2544" spans="1:3">
@@ -28637,10 +28646,10 @@
         <v>2542</v>
       </c>
       <c r="B2544" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C2544" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
     </row>
     <row r="2545" spans="1:3">
@@ -28648,10 +28657,10 @@
         <v>2543</v>
       </c>
       <c r="B2545" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C2545" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
     </row>
     <row r="2546" spans="1:3">
@@ -28659,10 +28668,10 @@
         <v>2544</v>
       </c>
       <c r="B2546" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C2546" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
     </row>
     <row r="2547" spans="1:3">
@@ -28670,10 +28679,10 @@
         <v>2545</v>
       </c>
       <c r="B2547" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C2547" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
     </row>
     <row r="2548" spans="1:3">
@@ -28681,10 +28690,10 @@
         <v>2546</v>
       </c>
       <c r="B2548" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C2548" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
     </row>
     <row r="2549" spans="1:3">
@@ -28692,10 +28701,10 @@
         <v>2547</v>
       </c>
       <c r="B2549" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C2549" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
     </row>
     <row r="2550" spans="1:3">
@@ -28703,10 +28712,10 @@
         <v>2548</v>
       </c>
       <c r="B2550" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C2550" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
     </row>
     <row r="2551" spans="1:3">
@@ -28714,10 +28723,10 @@
         <v>2549</v>
       </c>
       <c r="B2551" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C2551" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
     </row>
     <row r="2552" spans="1:3">
@@ -28725,10 +28734,10 @@
         <v>2550</v>
       </c>
       <c r="B2552" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C2552" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
     </row>
     <row r="2553" spans="1:3">
@@ -28736,10 +28745,10 @@
         <v>2551</v>
       </c>
       <c r="B2553" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C2553" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
     </row>
     <row r="2554" spans="1:3">
@@ -28747,10 +28756,10 @@
         <v>2552</v>
       </c>
       <c r="B2554" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C2554" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
     </row>
     <row r="2555" spans="1:3">
@@ -28758,10 +28767,10 @@
         <v>2553</v>
       </c>
       <c r="B2555" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C2555" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
     </row>
     <row r="2556" spans="1:3">
@@ -28769,10 +28778,10 @@
         <v>2554</v>
       </c>
       <c r="B2556" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C2556" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
     </row>
     <row r="2557" spans="1:3">
@@ -28780,10 +28789,10 @@
         <v>2555</v>
       </c>
       <c r="B2557" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C2557" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
     </row>
     <row r="2558" spans="1:3">
@@ -28791,10 +28800,10 @@
         <v>2556</v>
       </c>
       <c r="B2558" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C2558" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
     </row>
     <row r="2559" spans="1:3">
@@ -28802,10 +28811,10 @@
         <v>2557</v>
       </c>
       <c r="B2559" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C2559" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
     </row>
     <row r="2560" spans="1:3">
@@ -28813,10 +28822,10 @@
         <v>2558</v>
       </c>
       <c r="B2560" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C2560" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
     </row>
     <row r="2561" spans="1:3">
@@ -28824,10 +28833,10 @@
         <v>2559</v>
       </c>
       <c r="B2561" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C2561" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
     </row>
     <row r="2562" spans="1:3">
@@ -28835,10 +28844,10 @@
         <v>2560</v>
       </c>
       <c r="B2562" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C2562" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
     </row>
     <row r="2563" spans="1:3">
@@ -28846,10 +28855,10 @@
         <v>2561</v>
       </c>
       <c r="B2563" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C2563" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
     </row>
     <row r="2564" spans="1:3">
@@ -28857,10 +28866,10 @@
         <v>2562</v>
       </c>
       <c r="B2564" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C2564" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
     </row>
     <row r="2565" spans="1:3">
@@ -28868,10 +28877,10 @@
         <v>2563</v>
       </c>
       <c r="B2565" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C2565" t="s">
-        <v>93</v>
+        <v>81</v>
       </c>
     </row>
     <row r="2566" spans="1:3">
@@ -28879,10 +28888,10 @@
         <v>2564</v>
       </c>
       <c r="B2566" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C2566" t="s">
-        <v>93</v>
+        <v>81</v>
       </c>
     </row>
     <row r="2567" spans="1:3">
@@ -28890,10 +28899,10 @@
         <v>2565</v>
       </c>
       <c r="B2567" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C2567" t="s">
-        <v>93</v>
+        <v>81</v>
       </c>
     </row>
     <row r="2568" spans="1:3">
@@ -28901,10 +28910,10 @@
         <v>2566</v>
       </c>
       <c r="B2568" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C2568" t="s">
-        <v>93</v>
+        <v>81</v>
       </c>
     </row>
     <row r="2569" spans="1:3">
@@ -28912,10 +28921,10 @@
         <v>2567</v>
       </c>
       <c r="B2569" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C2569" t="s">
-        <v>93</v>
+        <v>81</v>
       </c>
     </row>
     <row r="2570" spans="1:3">
@@ -28923,10 +28932,10 @@
         <v>2568</v>
       </c>
       <c r="B2570" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C2570" t="s">
-        <v>93</v>
+        <v>81</v>
       </c>
     </row>
     <row r="2571" spans="1:3">
@@ -28934,10 +28943,10 @@
         <v>2569</v>
       </c>
       <c r="B2571" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C2571" t="s">
-        <v>93</v>
+        <v>81</v>
       </c>
     </row>
     <row r="2572" spans="1:3">
@@ -28945,10 +28954,10 @@
         <v>2570</v>
       </c>
       <c r="B2572" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C2572" t="s">
-        <v>93</v>
+        <v>81</v>
       </c>
     </row>
     <row r="2573" spans="1:3">
@@ -28956,10 +28965,10 @@
         <v>2571</v>
       </c>
       <c r="B2573" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C2573" t="s">
-        <v>93</v>
+        <v>81</v>
       </c>
     </row>
     <row r="2574" spans="1:3">
@@ -28967,10 +28976,10 @@
         <v>2572</v>
       </c>
       <c r="B2574" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C2574" t="s">
-        <v>93</v>
+        <v>69</v>
       </c>
     </row>
     <row r="2575" spans="1:3">
@@ -28978,10 +28987,10 @@
         <v>2573</v>
       </c>
       <c r="B2575" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C2575" t="s">
-        <v>93</v>
+        <v>69</v>
       </c>
     </row>
     <row r="2576" spans="1:3">
@@ -28989,10 +28998,10 @@
         <v>2574</v>
       </c>
       <c r="B2576" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C2576" t="s">
-        <v>93</v>
+        <v>69</v>
       </c>
     </row>
     <row r="2577" spans="1:3">
@@ -29000,10 +29009,10 @@
         <v>2575</v>
       </c>
       <c r="B2577" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C2577" t="s">
-        <v>93</v>
+        <v>69</v>
       </c>
     </row>
     <row r="2578" spans="1:3">
@@ -29011,10 +29020,10 @@
         <v>2576</v>
       </c>
       <c r="B2578" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C2578" t="s">
-        <v>93</v>
+        <v>69</v>
       </c>
     </row>
     <row r="2579" spans="1:3">
@@ -29022,10 +29031,10 @@
         <v>2577</v>
       </c>
       <c r="B2579" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C2579" t="s">
-        <v>93</v>
+        <v>69</v>
       </c>
     </row>
     <row r="2580" spans="1:3">
@@ -29033,10 +29042,10 @@
         <v>2578</v>
       </c>
       <c r="B2580" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C2580" t="s">
-        <v>93</v>
+        <v>69</v>
       </c>
     </row>
     <row r="2581" spans="1:3">
@@ -29044,10 +29053,10 @@
         <v>2579</v>
       </c>
       <c r="B2581" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C2581" t="s">
-        <v>93</v>
+        <v>69</v>
       </c>
     </row>
     <row r="2582" spans="1:3">
@@ -29055,10 +29064,10 @@
         <v>2580</v>
       </c>
       <c r="B2582" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C2582" t="s">
-        <v>93</v>
+        <v>69</v>
       </c>
     </row>
     <row r="2583" spans="1:3">
@@ -29066,10 +29075,10 @@
         <v>2581</v>
       </c>
       <c r="B2583" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C2583" t="s">
-        <v>93</v>
+        <v>69</v>
       </c>
     </row>
     <row r="2584" spans="1:3">
@@ -29077,10 +29086,10 @@
         <v>2582</v>
       </c>
       <c r="B2584" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C2584" t="s">
-        <v>93</v>
+        <v>69</v>
       </c>
     </row>
     <row r="2585" spans="1:3">
@@ -29088,10 +29097,10 @@
         <v>2583</v>
       </c>
       <c r="B2585" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C2585" t="s">
-        <v>93</v>
+        <v>69</v>
       </c>
     </row>
     <row r="2586" spans="1:3">
@@ -29099,10 +29108,10 @@
         <v>2584</v>
       </c>
       <c r="B2586" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C2586" t="s">
-        <v>93</v>
+        <v>69</v>
       </c>
     </row>
     <row r="2587" spans="1:3">
@@ -29110,10 +29119,10 @@
         <v>2585</v>
       </c>
       <c r="B2587" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C2587" t="s">
-        <v>93</v>
+        <v>69</v>
       </c>
     </row>
     <row r="2588" spans="1:3">
@@ -29121,10 +29130,10 @@
         <v>2586</v>
       </c>
       <c r="B2588" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C2588" t="s">
-        <v>94</v>
+        <v>69</v>
       </c>
     </row>
     <row r="2589" spans="1:3">
@@ -29132,10 +29141,10 @@
         <v>2587</v>
       </c>
       <c r="B2589" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C2589" t="s">
-        <v>94</v>
+        <v>69</v>
       </c>
     </row>
     <row r="2590" spans="1:3">
@@ -29143,10 +29152,10 @@
         <v>2588</v>
       </c>
       <c r="B2590" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C2590" t="s">
-        <v>94</v>
+        <v>69</v>
       </c>
     </row>
     <row r="2591" spans="1:3">
@@ -29154,10 +29163,10 @@
         <v>2589</v>
       </c>
       <c r="B2591" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C2591" t="s">
-        <v>94</v>
+        <v>69</v>
       </c>
     </row>
     <row r="2592" spans="1:3">
@@ -29165,10 +29174,10 @@
         <v>2590</v>
       </c>
       <c r="B2592" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C2592" t="s">
-        <v>94</v>
+        <v>69</v>
       </c>
     </row>
     <row r="2593" spans="1:3">
@@ -29176,10 +29185,10 @@
         <v>2591</v>
       </c>
       <c r="B2593" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C2593" t="s">
-        <v>94</v>
+        <v>69</v>
       </c>
     </row>
     <row r="2594" spans="1:3">
@@ -29187,10 +29196,10 @@
         <v>2592</v>
       </c>
       <c r="B2594" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C2594" t="s">
-        <v>94</v>
+        <v>69</v>
       </c>
     </row>
     <row r="2595" spans="1:3">
@@ -29198,10 +29207,10 @@
         <v>2593</v>
       </c>
       <c r="B2595" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C2595" t="s">
-        <v>94</v>
+        <v>69</v>
       </c>
     </row>
     <row r="2596" spans="1:3">
@@ -29209,10 +29218,10 @@
         <v>2594</v>
       </c>
       <c r="B2596" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C2596" t="s">
-        <v>94</v>
+        <v>69</v>
       </c>
     </row>
     <row r="2597" spans="1:3">
@@ -29220,10 +29229,10 @@
         <v>2595</v>
       </c>
       <c r="B2597" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C2597" t="s">
-        <v>94</v>
+        <v>69</v>
       </c>
     </row>
     <row r="2598" spans="1:3">
@@ -29231,10 +29240,10 @@
         <v>2596</v>
       </c>
       <c r="B2598" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C2598" t="s">
-        <v>94</v>
+        <v>69</v>
       </c>
     </row>
     <row r="2599" spans="1:3">
@@ -29242,10 +29251,10 @@
         <v>2597</v>
       </c>
       <c r="B2599" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C2599" t="s">
-        <v>94</v>
+        <v>69</v>
       </c>
     </row>
     <row r="2600" spans="1:3">
@@ -29253,10 +29262,10 @@
         <v>2598</v>
       </c>
       <c r="B2600" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C2600" t="s">
-        <v>94</v>
+        <v>69</v>
       </c>
     </row>
     <row r="2601" spans="1:3">
@@ -29264,10 +29273,10 @@
         <v>2599</v>
       </c>
       <c r="B2601" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C2601" t="s">
-        <v>94</v>
+        <v>69</v>
       </c>
     </row>
     <row r="2602" spans="1:3">
@@ -29275,10 +29284,10 @@
         <v>2600</v>
       </c>
       <c r="B2602" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C2602" t="s">
-        <v>94</v>
+        <v>69</v>
       </c>
     </row>
     <row r="2603" spans="1:3">
@@ -29286,10 +29295,10 @@
         <v>2601</v>
       </c>
       <c r="B2603" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C2603" t="s">
-        <v>94</v>
+        <v>69</v>
       </c>
     </row>
     <row r="2604" spans="1:3">
@@ -29297,10 +29306,10 @@
         <v>2602</v>
       </c>
       <c r="B2604" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C2604" t="s">
-        <v>86</v>
+        <v>69</v>
       </c>
     </row>
     <row r="2605" spans="1:3">
@@ -29308,10 +29317,10 @@
         <v>2603</v>
       </c>
       <c r="B2605" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C2605" t="s">
-        <v>86</v>
+        <v>69</v>
       </c>
     </row>
     <row r="2606" spans="1:3">
@@ -29319,10 +29328,10 @@
         <v>2604</v>
       </c>
       <c r="B2606" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C2606" t="s">
-        <v>86</v>
+        <v>69</v>
       </c>
     </row>
     <row r="2607" spans="1:3">
@@ -29330,10 +29339,10 @@
         <v>2605</v>
       </c>
       <c r="B2607" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C2607" t="s">
-        <v>86</v>
+        <v>69</v>
       </c>
     </row>
     <row r="2608" spans="1:3">
@@ -29341,10 +29350,10 @@
         <v>2606</v>
       </c>
       <c r="B2608" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C2608" t="s">
-        <v>86</v>
+        <v>70</v>
       </c>
     </row>
     <row r="2609" spans="1:3">
@@ -29352,10 +29361,10 @@
         <v>2607</v>
       </c>
       <c r="B2609" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C2609" t="s">
-        <v>86</v>
+        <v>70</v>
       </c>
     </row>
     <row r="2610" spans="1:3">
@@ -29363,10 +29372,10 @@
         <v>2608</v>
       </c>
       <c r="B2610" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C2610" t="s">
-        <v>86</v>
+        <v>70</v>
       </c>
     </row>
     <row r="2611" spans="1:3">
@@ -29374,10 +29383,10 @@
         <v>2609</v>
       </c>
       <c r="B2611" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C2611" t="s">
-        <v>86</v>
+        <v>70</v>
       </c>
     </row>
     <row r="2612" spans="1:3">
@@ -29385,10 +29394,10 @@
         <v>2610</v>
       </c>
       <c r="B2612" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C2612" t="s">
-        <v>86</v>
+        <v>70</v>
       </c>
     </row>
     <row r="2613" spans="1:3">
@@ -29396,10 +29405,10 @@
         <v>2611</v>
       </c>
       <c r="B2613" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C2613" t="s">
-        <v>86</v>
+        <v>70</v>
       </c>
     </row>
     <row r="2614" spans="1:3">
@@ -29407,10 +29416,10 @@
         <v>2612</v>
       </c>
       <c r="B2614" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C2614" t="s">
-        <v>86</v>
+        <v>70</v>
       </c>
     </row>
     <row r="2615" spans="1:3">
@@ -29418,10 +29427,10 @@
         <v>2613</v>
       </c>
       <c r="B2615" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C2615" t="s">
-        <v>86</v>
+        <v>70</v>
       </c>
     </row>
     <row r="2616" spans="1:3">
@@ -29429,10 +29438,10 @@
         <v>2614</v>
       </c>
       <c r="B2616" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C2616" t="s">
-        <v>86</v>
+        <v>70</v>
       </c>
     </row>
     <row r="2617" spans="1:3">
@@ -29440,10 +29449,10 @@
         <v>2615</v>
       </c>
       <c r="B2617" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C2617" t="s">
-        <v>86</v>
+        <v>70</v>
       </c>
     </row>
     <row r="2618" spans="1:3">
@@ -29451,10 +29460,10 @@
         <v>2616</v>
       </c>
       <c r="B2618" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C2618" t="s">
-        <v>86</v>
+        <v>70</v>
       </c>
     </row>
     <row r="2619" spans="1:3">
@@ -29462,10 +29471,10 @@
         <v>2617</v>
       </c>
       <c r="B2619" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C2619" t="s">
-        <v>86</v>
+        <v>70</v>
       </c>
     </row>
     <row r="2620" spans="1:3">
@@ -29473,10 +29482,10 @@
         <v>2618</v>
       </c>
       <c r="B2620" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C2620" t="s">
-        <v>86</v>
+        <v>70</v>
       </c>
     </row>
     <row r="2621" spans="1:3">
@@ -29484,10 +29493,10 @@
         <v>2619</v>
       </c>
       <c r="B2621" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C2621" t="s">
-        <v>86</v>
+        <v>70</v>
       </c>
     </row>
     <row r="2622" spans="1:3">
@@ -29495,10 +29504,10 @@
         <v>2620</v>
       </c>
       <c r="B2622" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C2622" t="s">
-        <v>86</v>
+        <v>70</v>
       </c>
     </row>
     <row r="2623" spans="1:3">
@@ -29506,10 +29515,10 @@
         <v>2621</v>
       </c>
       <c r="B2623" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C2623" t="s">
-        <v>86</v>
+        <v>70</v>
       </c>
     </row>
     <row r="2624" spans="1:3">
@@ -29517,10 +29526,10 @@
         <v>2622</v>
       </c>
       <c r="B2624" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C2624" t="s">
-        <v>86</v>
+        <v>70</v>
       </c>
     </row>
     <row r="2625" spans="1:3">
@@ -29528,10 +29537,10 @@
         <v>2623</v>
       </c>
       <c r="B2625" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C2625" t="s">
-        <v>86</v>
+        <v>70</v>
       </c>
     </row>
     <row r="2626" spans="1:3">
@@ -29539,10 +29548,10 @@
         <v>2624</v>
       </c>
       <c r="B2626" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C2626" t="s">
-        <v>90</v>
+        <v>70</v>
       </c>
     </row>
     <row r="2627" spans="1:3">
@@ -29550,10 +29559,10 @@
         <v>2625</v>
       </c>
       <c r="B2627" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C2627" t="s">
-        <v>90</v>
+        <v>72</v>
       </c>
     </row>
     <row r="2628" spans="1:3">
@@ -29561,10 +29570,10 @@
         <v>2626</v>
       </c>
       <c r="B2628" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C2628" t="s">
-        <v>90</v>
+        <v>72</v>
       </c>
     </row>
     <row r="2629" spans="1:3">
@@ -29572,10 +29581,10 @@
         <v>2627</v>
       </c>
       <c r="B2629" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C2629" t="s">
-        <v>90</v>
+        <v>72</v>
       </c>
     </row>
     <row r="2630" spans="1:3">
@@ -29583,10 +29592,10 @@
         <v>2628</v>
       </c>
       <c r="B2630" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C2630" t="s">
-        <v>90</v>
+        <v>72</v>
       </c>
     </row>
     <row r="2631" spans="1:3">
@@ -29594,10 +29603,10 @@
         <v>2629</v>
       </c>
       <c r="B2631" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C2631" t="s">
-        <v>90</v>
+        <v>72</v>
       </c>
     </row>
     <row r="2632" spans="1:3">
@@ -29605,10 +29614,10 @@
         <v>2630</v>
       </c>
       <c r="B2632" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C2632" t="s">
-        <v>90</v>
+        <v>72</v>
       </c>
     </row>
     <row r="2633" spans="1:3">
@@ -29616,10 +29625,10 @@
         <v>2631</v>
       </c>
       <c r="B2633" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C2633" t="s">
-        <v>90</v>
+        <v>72</v>
       </c>
     </row>
     <row r="2634" spans="1:3">
@@ -29627,10 +29636,10 @@
         <v>2632</v>
       </c>
       <c r="B2634" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C2634" t="s">
-        <v>90</v>
+        <v>72</v>
       </c>
     </row>
     <row r="2635" spans="1:3">
@@ -29638,10 +29647,10 @@
         <v>2633</v>
       </c>
       <c r="B2635" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C2635" t="s">
-        <v>90</v>
+        <v>72</v>
       </c>
     </row>
     <row r="2636" spans="1:3">
@@ -29649,10 +29658,10 @@
         <v>2634</v>
       </c>
       <c r="B2636" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C2636" t="s">
-        <v>90</v>
+        <v>72</v>
       </c>
     </row>
     <row r="2637" spans="1:3">
@@ -29660,10 +29669,10 @@
         <v>2635</v>
       </c>
       <c r="B2637" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C2637" t="s">
-        <v>90</v>
+        <v>72</v>
       </c>
     </row>
     <row r="2638" spans="1:3">
@@ -29671,10 +29680,10 @@
         <v>2636</v>
       </c>
       <c r="B2638" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C2638" t="s">
-        <v>90</v>
+        <v>72</v>
       </c>
     </row>
     <row r="2639" spans="1:3">
@@ -29682,10 +29691,10 @@
         <v>2637</v>
       </c>
       <c r="B2639" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C2639" t="s">
-        <v>90</v>
+        <v>72</v>
       </c>
     </row>
     <row r="2640" spans="1:3">
@@ -29693,10 +29702,10 @@
         <v>2638</v>
       </c>
       <c r="B2640" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C2640" t="s">
-        <v>87</v>
+        <v>72</v>
       </c>
     </row>
     <row r="2641" spans="1:3">
@@ -29704,10 +29713,10 @@
         <v>2639</v>
       </c>
       <c r="B2641" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C2641" t="s">
-        <v>87</v>
+        <v>72</v>
       </c>
     </row>
     <row r="2642" spans="1:3">
@@ -29715,10 +29724,10 @@
         <v>2640</v>
       </c>
       <c r="B2642" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C2642" t="s">
-        <v>87</v>
+        <v>72</v>
       </c>
     </row>
     <row r="2643" spans="1:3">
@@ -29726,10 +29735,10 @@
         <v>2641</v>
       </c>
       <c r="B2643" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C2643" t="s">
-        <v>87</v>
+        <v>72</v>
       </c>
     </row>
     <row r="2644" spans="1:3">
@@ -29737,10 +29746,10 @@
         <v>2642</v>
       </c>
       <c r="B2644" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C2644" t="s">
-        <v>87</v>
+        <v>72</v>
       </c>
     </row>
     <row r="2645" spans="1:3">
@@ -29748,10 +29757,10 @@
         <v>2643</v>
       </c>
       <c r="B2645" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C2645" t="s">
-        <v>87</v>
+        <v>72</v>
       </c>
     </row>
     <row r="2646" spans="1:3">
@@ -29759,10 +29768,10 @@
         <v>2644</v>
       </c>
       <c r="B2646" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C2646" t="s">
-        <v>87</v>
+        <v>72</v>
       </c>
     </row>
     <row r="2647" spans="1:3">
@@ -29770,10 +29779,10 @@
         <v>2645</v>
       </c>
       <c r="B2647" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C2647" t="s">
-        <v>87</v>
+        <v>72</v>
       </c>
     </row>
     <row r="2648" spans="1:3">
@@ -29781,10 +29790,10 @@
         <v>2646</v>
       </c>
       <c r="B2648" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C2648" t="s">
-        <v>87</v>
+        <v>72</v>
       </c>
     </row>
     <row r="2649" spans="1:3">
@@ -29792,10 +29801,10 @@
         <v>2647</v>
       </c>
       <c r="B2649" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C2649" t="s">
-        <v>87</v>
+        <v>72</v>
       </c>
     </row>
     <row r="2650" spans="1:3">
@@ -29803,10 +29812,10 @@
         <v>2648</v>
       </c>
       <c r="B2650" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C2650" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="2651" spans="1:3">
@@ -29814,10 +29823,10 @@
         <v>2649</v>
       </c>
       <c r="B2651" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C2651" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="2652" spans="1:3">
@@ -29825,10 +29834,10 @@
         <v>2650</v>
       </c>
       <c r="B2652" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C2652" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="2653" spans="1:3">
@@ -29836,10 +29845,10 @@
         <v>2651</v>
       </c>
       <c r="B2653" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C2653" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="2654" spans="1:3">
@@ -29847,10 +29856,10 @@
         <v>2652</v>
       </c>
       <c r="B2654" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C2654" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="2655" spans="1:3">
@@ -29858,10 +29867,10 @@
         <v>2653</v>
       </c>
       <c r="B2655" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C2655" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="2656" spans="1:3">
@@ -29869,10 +29878,10 @@
         <v>2654</v>
       </c>
       <c r="B2656" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C2656" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="2657" spans="1:3">
@@ -29880,10 +29889,10 @@
         <v>2655</v>
       </c>
       <c r="B2657" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C2657" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="2658" spans="1:3">
@@ -29891,10 +29900,10 @@
         <v>2656</v>
       </c>
       <c r="B2658" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C2658" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="2659" spans="1:3">
@@ -29902,10 +29911,10 @@
         <v>2657</v>
       </c>
       <c r="B2659" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C2659" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="2660" spans="1:3">
@@ -29913,10 +29922,10 @@
         <v>2658</v>
       </c>
       <c r="B2660" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C2660" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="2661" spans="1:3">
@@ -29924,10 +29933,10 @@
         <v>2659</v>
       </c>
       <c r="B2661" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C2661" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="2662" spans="1:3">
@@ -29935,10 +29944,10 @@
         <v>2660</v>
       </c>
       <c r="B2662" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C2662" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="2663" spans="1:3">
@@ -29946,10 +29955,10 @@
         <v>2661</v>
       </c>
       <c r="B2663" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C2663" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="2664" spans="1:3">
@@ -29957,10 +29966,10 @@
         <v>2662</v>
       </c>
       <c r="B2664" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C2664" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="2665" spans="1:3">
@@ -29968,10 +29977,10 @@
         <v>2663</v>
       </c>
       <c r="B2665" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C2665" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="2666" spans="1:3">
@@ -29979,10 +29988,10 @@
         <v>2664</v>
       </c>
       <c r="B2666" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C2666" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="2667" spans="1:3">
@@ -29990,10 +29999,10 @@
         <v>2665</v>
       </c>
       <c r="B2667" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C2667" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="2668" spans="1:3">
@@ -30001,10 +30010,10 @@
         <v>2666</v>
       </c>
       <c r="B2668" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C2668" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="2669" spans="1:3">
@@ -30012,10 +30021,10 @@
         <v>2667</v>
       </c>
       <c r="B2669" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C2669" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="2670" spans="1:3">
@@ -30023,10 +30032,10 @@
         <v>2668</v>
       </c>
       <c r="B2670" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C2670" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="2671" spans="1:3">
@@ -30034,10 +30043,10 @@
         <v>2669</v>
       </c>
       <c r="B2671" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C2671" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
     </row>
     <row r="2672" spans="1:3">
@@ -30045,10 +30054,10 @@
         <v>2670</v>
       </c>
       <c r="B2672" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C2672" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
     </row>
     <row r="2673" spans="1:3">
@@ -30056,10 +30065,10 @@
         <v>2671</v>
       </c>
       <c r="B2673" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C2673" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
     </row>
     <row r="2674" spans="1:3">
@@ -30067,10 +30076,10 @@
         <v>2672</v>
       </c>
       <c r="B2674" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C2674" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
     </row>
     <row r="2675" spans="1:3">
@@ -30078,10 +30087,10 @@
         <v>2673</v>
       </c>
       <c r="B2675" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C2675" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
     </row>
     <row r="2676" spans="1:3">
@@ -30089,10 +30098,10 @@
         <v>2674</v>
       </c>
       <c r="B2676" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C2676" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
     </row>
     <row r="2677" spans="1:3">
@@ -30100,10 +30109,10 @@
         <v>2675</v>
       </c>
       <c r="B2677" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C2677" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
     </row>
     <row r="2678" spans="1:3">
@@ -30111,10 +30120,10 @@
         <v>2676</v>
       </c>
       <c r="B2678" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C2678" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
     </row>
     <row r="2679" spans="1:3">
@@ -30122,10 +30131,10 @@
         <v>2677</v>
       </c>
       <c r="B2679" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C2679" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
     </row>
     <row r="2680" spans="1:3">
@@ -30133,10 +30142,10 @@
         <v>2678</v>
       </c>
       <c r="B2680" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C2680" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
     </row>
     <row r="2681" spans="1:3">
@@ -30144,10 +30153,10 @@
         <v>2679</v>
       </c>
       <c r="B2681" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C2681" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
     </row>
     <row r="2682" spans="1:3">
@@ -30155,10 +30164,10 @@
         <v>2680</v>
       </c>
       <c r="B2682" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C2682" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
     </row>
     <row r="2683" spans="1:3">
@@ -30166,10 +30175,10 @@
         <v>2681</v>
       </c>
       <c r="B2683" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C2683" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
     </row>
     <row r="2684" spans="1:3">
@@ -30177,10 +30186,10 @@
         <v>2682</v>
       </c>
       <c r="B2684" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C2684" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
     </row>
     <row r="2685" spans="1:3">
@@ -30188,10 +30197,10 @@
         <v>2683</v>
       </c>
       <c r="B2685" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C2685" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
     </row>
     <row r="2686" spans="1:3">
@@ -30199,10 +30208,10 @@
         <v>2684</v>
       </c>
       <c r="B2686" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C2686" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
     </row>
     <row r="2687" spans="1:3">
@@ -30210,10 +30219,10 @@
         <v>2685</v>
       </c>
       <c r="B2687" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C2687" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
     </row>
     <row r="2688" spans="1:3">
@@ -30221,10 +30230,10 @@
         <v>2686</v>
       </c>
       <c r="B2688" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C2688" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
     </row>
     <row r="2689" spans="1:3">
@@ -30232,10 +30241,10 @@
         <v>2687</v>
       </c>
       <c r="B2689" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C2689" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
     </row>
     <row r="2690" spans="1:3">
@@ -30243,10 +30252,10 @@
         <v>2688</v>
       </c>
       <c r="B2690" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C2690" t="s">
-        <v>89</v>
+        <v>96</v>
       </c>
     </row>
     <row r="2691" spans="1:3">
@@ -30254,10 +30263,10 @@
         <v>2689</v>
       </c>
       <c r="B2691" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C2691" t="s">
-        <v>89</v>
+        <v>96</v>
       </c>
     </row>
     <row r="2692" spans="1:3">
@@ -30265,10 +30274,10 @@
         <v>2690</v>
       </c>
       <c r="B2692" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C2692" t="s">
-        <v>89</v>
+        <v>96</v>
       </c>
     </row>
     <row r="2693" spans="1:3">
@@ -30276,10 +30285,10 @@
         <v>2691</v>
       </c>
       <c r="B2693" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C2693" t="s">
-        <v>89</v>
+        <v>96</v>
       </c>
     </row>
     <row r="2694" spans="1:3">
@@ -30287,10 +30296,10 @@
         <v>2692</v>
       </c>
       <c r="B2694" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C2694" t="s">
-        <v>89</v>
+        <v>96</v>
       </c>
     </row>
     <row r="2695" spans="1:3">
@@ -30298,10 +30307,10 @@
         <v>2693</v>
       </c>
       <c r="B2695" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C2695" t="s">
-        <v>89</v>
+        <v>96</v>
       </c>
     </row>
     <row r="2696" spans="1:3">
@@ -30309,10 +30318,10 @@
         <v>2694</v>
       </c>
       <c r="B2696" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C2696" t="s">
-        <v>89</v>
+        <v>97</v>
       </c>
     </row>
     <row r="2697" spans="1:3">
@@ -30320,10 +30329,10 @@
         <v>2695</v>
       </c>
       <c r="B2697" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C2697" t="s">
-        <v>89</v>
+        <v>97</v>
       </c>
     </row>
     <row r="2698" spans="1:3">
@@ -30331,10 +30340,10 @@
         <v>2696</v>
       </c>
       <c r="B2698" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C2698" t="s">
-        <v>89</v>
+        <v>97</v>
       </c>
     </row>
     <row r="2699" spans="1:3">
@@ -30342,10 +30351,10 @@
         <v>2697</v>
       </c>
       <c r="B2699" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C2699" t="s">
-        <v>89</v>
+        <v>97</v>
       </c>
     </row>
     <row r="2700" spans="1:3">
@@ -30353,10 +30362,10 @@
         <v>2698</v>
       </c>
       <c r="B2700" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C2700" t="s">
-        <v>89</v>
+        <v>97</v>
       </c>
     </row>
     <row r="2701" spans="1:3">
@@ -30364,10 +30373,10 @@
         <v>2699</v>
       </c>
       <c r="B2701" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C2701" t="s">
-        <v>89</v>
+        <v>97</v>
       </c>
     </row>
     <row r="2702" spans="1:3">
@@ -30375,10 +30384,10 @@
         <v>2700</v>
       </c>
       <c r="B2702" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C2702" t="s">
-        <v>89</v>
+        <v>97</v>
       </c>
     </row>
     <row r="2703" spans="1:3">
@@ -30386,10 +30395,10 @@
         <v>2701</v>
       </c>
       <c r="B2703" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C2703" t="s">
-        <v>89</v>
+        <v>97</v>
       </c>
     </row>
     <row r="2704" spans="1:3">
@@ -30397,10 +30406,10 @@
         <v>2702</v>
       </c>
       <c r="B2704" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C2704" t="s">
-        <v>89</v>
+        <v>97</v>
       </c>
     </row>
     <row r="2705" spans="1:3">
@@ -30408,10 +30417,10 @@
         <v>2703</v>
       </c>
       <c r="B2705" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C2705" t="s">
-        <v>89</v>
+        <v>97</v>
       </c>
     </row>
     <row r="2706" spans="1:3">
@@ -30419,10 +30428,10 @@
         <v>2704</v>
       </c>
       <c r="B2706" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C2706" t="s">
-        <v>89</v>
+        <v>97</v>
       </c>
     </row>
     <row r="2707" spans="1:3">
@@ -30430,10 +30439,10 @@
         <v>2705</v>
       </c>
       <c r="B2707" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C2707" t="s">
-        <v>89</v>
+        <v>97</v>
       </c>
     </row>
     <row r="2708" spans="1:3">
@@ -30441,10 +30450,10 @@
         <v>2706</v>
       </c>
       <c r="B2708" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C2708" t="s">
-        <v>89</v>
+        <v>97</v>
       </c>
     </row>
     <row r="2709" spans="1:3">
@@ -30452,10 +30461,10 @@
         <v>2707</v>
       </c>
       <c r="B2709" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C2709" t="s">
-        <v>89</v>
+        <v>97</v>
       </c>
     </row>
     <row r="2710" spans="1:3">
@@ -30463,10 +30472,10 @@
         <v>2708</v>
       </c>
       <c r="B2710" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C2710" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
     </row>
     <row r="2711" spans="1:3">
@@ -30474,10 +30483,10 @@
         <v>2709</v>
       </c>
       <c r="B2711" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C2711" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
     </row>
     <row r="2712" spans="1:3">
@@ -30485,10 +30494,10 @@
         <v>2710</v>
       </c>
       <c r="B2712" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C2712" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
     </row>
     <row r="2713" spans="1:3">
@@ -30496,10 +30505,10 @@
         <v>2711</v>
       </c>
       <c r="B2713" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C2713" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
     </row>
     <row r="2714" spans="1:3">
@@ -30507,10 +30516,10 @@
         <v>2712</v>
       </c>
       <c r="B2714" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C2714" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
     </row>
     <row r="2715" spans="1:3">
@@ -30518,10 +30527,10 @@
         <v>2713</v>
       </c>
       <c r="B2715" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C2715" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
     </row>
     <row r="2716" spans="1:3">
@@ -30529,10 +30538,10 @@
         <v>2714</v>
       </c>
       <c r="B2716" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C2716" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
     </row>
     <row r="2717" spans="1:3">
@@ -30540,10 +30549,10 @@
         <v>2715</v>
       </c>
       <c r="B2717" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C2717" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
     </row>
     <row r="2718" spans="1:3">
@@ -30551,10 +30560,10 @@
         <v>2716</v>
       </c>
       <c r="B2718" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C2718" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
     </row>
     <row r="2719" spans="1:3">
@@ -30562,10 +30571,10 @@
         <v>2717</v>
       </c>
       <c r="B2719" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C2719" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
     </row>
     <row r="2720" spans="1:3">
@@ -30573,10 +30582,10 @@
         <v>2718</v>
       </c>
       <c r="B2720" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C2720" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
     </row>
     <row r="2721" spans="1:3">
@@ -30584,10 +30593,10 @@
         <v>2719</v>
       </c>
       <c r="B2721" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C2721" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
     </row>
     <row r="2722" spans="1:3">
@@ -30595,10 +30604,10 @@
         <v>2720</v>
       </c>
       <c r="B2722" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C2722" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
     </row>
     <row r="2723" spans="1:3">
@@ -30606,10 +30615,10 @@
         <v>2721</v>
       </c>
       <c r="B2723" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C2723" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
     </row>
     <row r="2724" spans="1:3">
@@ -30617,10 +30626,10 @@
         <v>2722</v>
       </c>
       <c r="B2724" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C2724" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
     </row>
     <row r="2725" spans="1:3">
@@ -30628,10 +30637,10 @@
         <v>2723</v>
       </c>
       <c r="B2725" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C2725" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
     </row>
     <row r="2726" spans="1:3">
@@ -30639,10 +30648,10 @@
         <v>2724</v>
       </c>
       <c r="B2726" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C2726" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
     </row>
     <row r="2727" spans="1:3">
@@ -30650,10 +30659,10 @@
         <v>2725</v>
       </c>
       <c r="B2727" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C2727" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
     </row>
     <row r="2728" spans="1:3">
@@ -30661,10 +30670,10 @@
         <v>2726</v>
       </c>
       <c r="B2728" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C2728" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
     </row>
     <row r="2729" spans="1:3">
@@ -30672,10 +30681,10 @@
         <v>2727</v>
       </c>
       <c r="B2729" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C2729" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
     </row>
     <row r="2730" spans="1:3">
@@ -30683,9 +30692,1197 @@
         <v>2728</v>
       </c>
       <c r="B2730" t="s">
+        <v>31</v>
+      </c>
+      <c r="C2730" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="2731" spans="1:3">
+      <c r="A2731" s="1">
+        <v>2729</v>
+      </c>
+      <c r="B2731" t="s">
+        <v>31</v>
+      </c>
+      <c r="C2731" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="2732" spans="1:3">
+      <c r="A2732" s="1">
+        <v>2730</v>
+      </c>
+      <c r="B2732" t="s">
+        <v>31</v>
+      </c>
+      <c r="C2732" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="2733" spans="1:3">
+      <c r="A2733" s="1">
+        <v>2731</v>
+      </c>
+      <c r="B2733" t="s">
+        <v>31</v>
+      </c>
+      <c r="C2733" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="2734" spans="1:3">
+      <c r="A2734" s="1">
+        <v>2732</v>
+      </c>
+      <c r="B2734" t="s">
+        <v>31</v>
+      </c>
+      <c r="C2734" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="2735" spans="1:3">
+      <c r="A2735" s="1">
+        <v>2733</v>
+      </c>
+      <c r="B2735" t="s">
+        <v>31</v>
+      </c>
+      <c r="C2735" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="2736" spans="1:3">
+      <c r="A2736" s="1">
+        <v>2734</v>
+      </c>
+      <c r="B2736" t="s">
+        <v>31</v>
+      </c>
+      <c r="C2736" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="2737" spans="1:3">
+      <c r="A2737" s="1">
+        <v>2735</v>
+      </c>
+      <c r="B2737" t="s">
+        <v>31</v>
+      </c>
+      <c r="C2737" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="2738" spans="1:3">
+      <c r="A2738" s="1">
+        <v>2736</v>
+      </c>
+      <c r="B2738" t="s">
+        <v>31</v>
+      </c>
+      <c r="C2738" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="2739" spans="1:3">
+      <c r="A2739" s="1">
+        <v>2737</v>
+      </c>
+      <c r="B2739" t="s">
+        <v>31</v>
+      </c>
+      <c r="C2739" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="2740" spans="1:3">
+      <c r="A2740" s="1">
+        <v>2738</v>
+      </c>
+      <c r="B2740" t="s">
+        <v>31</v>
+      </c>
+      <c r="C2740" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="2741" spans="1:3">
+      <c r="A2741" s="1">
+        <v>2739</v>
+      </c>
+      <c r="B2741" t="s">
+        <v>31</v>
+      </c>
+      <c r="C2741" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="2742" spans="1:3">
+      <c r="A2742" s="1">
+        <v>2740</v>
+      </c>
+      <c r="B2742" t="s">
+        <v>31</v>
+      </c>
+      <c r="C2742" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="2743" spans="1:3">
+      <c r="A2743" s="1">
+        <v>2741</v>
+      </c>
+      <c r="B2743" t="s">
+        <v>31</v>
+      </c>
+      <c r="C2743" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="2744" spans="1:3">
+      <c r="A2744" s="1">
+        <v>2742</v>
+      </c>
+      <c r="B2744" t="s">
+        <v>31</v>
+      </c>
+      <c r="C2744" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="2745" spans="1:3">
+      <c r="A2745" s="1">
+        <v>2743</v>
+      </c>
+      <c r="B2745" t="s">
+        <v>31</v>
+      </c>
+      <c r="C2745" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="2746" spans="1:3">
+      <c r="A2746" s="1">
+        <v>2744</v>
+      </c>
+      <c r="B2746" t="s">
+        <v>31</v>
+      </c>
+      <c r="C2746" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="2747" spans="1:3">
+      <c r="A2747" s="1">
+        <v>2745</v>
+      </c>
+      <c r="B2747" t="s">
+        <v>31</v>
+      </c>
+      <c r="C2747" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="2748" spans="1:3">
+      <c r="A2748" s="1">
+        <v>2746</v>
+      </c>
+      <c r="B2748" t="s">
+        <v>32</v>
+      </c>
+      <c r="C2748" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="2749" spans="1:3">
+      <c r="A2749" s="1">
+        <v>2747</v>
+      </c>
+      <c r="B2749" t="s">
+        <v>32</v>
+      </c>
+      <c r="C2749" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="2750" spans="1:3">
+      <c r="A2750" s="1">
+        <v>2748</v>
+      </c>
+      <c r="B2750" t="s">
+        <v>32</v>
+      </c>
+      <c r="C2750" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="2751" spans="1:3">
+      <c r="A2751" s="1">
+        <v>2749</v>
+      </c>
+      <c r="B2751" t="s">
+        <v>32</v>
+      </c>
+      <c r="C2751" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="2752" spans="1:3">
+      <c r="A2752" s="1">
+        <v>2750</v>
+      </c>
+      <c r="B2752" t="s">
+        <v>32</v>
+      </c>
+      <c r="C2752" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="2753" spans="1:3">
+      <c r="A2753" s="1">
+        <v>2751</v>
+      </c>
+      <c r="B2753" t="s">
+        <v>32</v>
+      </c>
+      <c r="C2753" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="2754" spans="1:3">
+      <c r="A2754" s="1">
+        <v>2752</v>
+      </c>
+      <c r="B2754" t="s">
+        <v>32</v>
+      </c>
+      <c r="C2754" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="2755" spans="1:3">
+      <c r="A2755" s="1">
+        <v>2753</v>
+      </c>
+      <c r="B2755" t="s">
+        <v>32</v>
+      </c>
+      <c r="C2755" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="2756" spans="1:3">
+      <c r="A2756" s="1">
+        <v>2754</v>
+      </c>
+      <c r="B2756" t="s">
+        <v>32</v>
+      </c>
+      <c r="C2756" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="2757" spans="1:3">
+      <c r="A2757" s="1">
+        <v>2755</v>
+      </c>
+      <c r="B2757" t="s">
+        <v>32</v>
+      </c>
+      <c r="C2757" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="2758" spans="1:3">
+      <c r="A2758" s="1">
+        <v>2756</v>
+      </c>
+      <c r="B2758" t="s">
+        <v>32</v>
+      </c>
+      <c r="C2758" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="2759" spans="1:3">
+      <c r="A2759" s="1">
+        <v>2757</v>
+      </c>
+      <c r="B2759" t="s">
+        <v>32</v>
+      </c>
+      <c r="C2759" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="2760" spans="1:3">
+      <c r="A2760" s="1">
+        <v>2758</v>
+      </c>
+      <c r="B2760" t="s">
+        <v>32</v>
+      </c>
+      <c r="C2760" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="2761" spans="1:3">
+      <c r="A2761" s="1">
+        <v>2759</v>
+      </c>
+      <c r="B2761" t="s">
+        <v>32</v>
+      </c>
+      <c r="C2761" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="2762" spans="1:3">
+      <c r="A2762" s="1">
+        <v>2760</v>
+      </c>
+      <c r="B2762" t="s">
+        <v>32</v>
+      </c>
+      <c r="C2762" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="2763" spans="1:3">
+      <c r="A2763" s="1">
+        <v>2761</v>
+      </c>
+      <c r="B2763" t="s">
+        <v>32</v>
+      </c>
+      <c r="C2763" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="2764" spans="1:3">
+      <c r="A2764" s="1">
+        <v>2762</v>
+      </c>
+      <c r="B2764" t="s">
+        <v>32</v>
+      </c>
+      <c r="C2764" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="2765" spans="1:3">
+      <c r="A2765" s="1">
+        <v>2763</v>
+      </c>
+      <c r="B2765" t="s">
+        <v>32</v>
+      </c>
+      <c r="C2765" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="2766" spans="1:3">
+      <c r="A2766" s="1">
+        <v>2764</v>
+      </c>
+      <c r="B2766" t="s">
+        <v>32</v>
+      </c>
+      <c r="C2766" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="2767" spans="1:3">
+      <c r="A2767" s="1">
+        <v>2765</v>
+      </c>
+      <c r="B2767" t="s">
+        <v>32</v>
+      </c>
+      <c r="C2767" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="2768" spans="1:3">
+      <c r="A2768" s="1">
+        <v>2766</v>
+      </c>
+      <c r="B2768" t="s">
+        <v>32</v>
+      </c>
+      <c r="C2768" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="2769" spans="1:3">
+      <c r="A2769" s="1">
+        <v>2767</v>
+      </c>
+      <c r="B2769" t="s">
+        <v>32</v>
+      </c>
+      <c r="C2769" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="2770" spans="1:3">
+      <c r="A2770" s="1">
+        <v>2768</v>
+      </c>
+      <c r="B2770" t="s">
+        <v>32</v>
+      </c>
+      <c r="C2770" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="2771" spans="1:3">
+      <c r="A2771" s="1">
+        <v>2769</v>
+      </c>
+      <c r="B2771" t="s">
+        <v>32</v>
+      </c>
+      <c r="C2771" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="2772" spans="1:3">
+      <c r="A2772" s="1">
+        <v>2770</v>
+      </c>
+      <c r="B2772" t="s">
+        <v>32</v>
+      </c>
+      <c r="C2772" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="2773" spans="1:3">
+      <c r="A2773" s="1">
+        <v>2771</v>
+      </c>
+      <c r="B2773" t="s">
+        <v>32</v>
+      </c>
+      <c r="C2773" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="2774" spans="1:3">
+      <c r="A2774" s="1">
+        <v>2772</v>
+      </c>
+      <c r="B2774" t="s">
+        <v>32</v>
+      </c>
+      <c r="C2774" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="2775" spans="1:3">
+      <c r="A2775" s="1">
+        <v>2773</v>
+      </c>
+      <c r="B2775" t="s">
+        <v>32</v>
+      </c>
+      <c r="C2775" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="2776" spans="1:3">
+      <c r="A2776" s="1">
+        <v>2774</v>
+      </c>
+      <c r="B2776" t="s">
+        <v>32</v>
+      </c>
+      <c r="C2776" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="2777" spans="1:3">
+      <c r="A2777" s="1">
+        <v>2775</v>
+      </c>
+      <c r="B2777" t="s">
+        <v>32</v>
+      </c>
+      <c r="C2777" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="2778" spans="1:3">
+      <c r="A2778" s="1">
+        <v>2776</v>
+      </c>
+      <c r="B2778" t="s">
+        <v>32</v>
+      </c>
+      <c r="C2778" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="2779" spans="1:3">
+      <c r="A2779" s="1">
+        <v>2777</v>
+      </c>
+      <c r="B2779" t="s">
+        <v>32</v>
+      </c>
+      <c r="C2779" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="2780" spans="1:3">
+      <c r="A2780" s="1">
+        <v>2778</v>
+      </c>
+      <c r="B2780" t="s">
+        <v>32</v>
+      </c>
+      <c r="C2780" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="2781" spans="1:3">
+      <c r="A2781" s="1">
+        <v>2779</v>
+      </c>
+      <c r="B2781" t="s">
+        <v>32</v>
+      </c>
+      <c r="C2781" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="2782" spans="1:3">
+      <c r="A2782" s="1">
+        <v>2780</v>
+      </c>
+      <c r="B2782" t="s">
+        <v>32</v>
+      </c>
+      <c r="C2782" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="2783" spans="1:3">
+      <c r="A2783" s="1">
+        <v>2781</v>
+      </c>
+      <c r="B2783" t="s">
+        <v>32</v>
+      </c>
+      <c r="C2783" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="2784" spans="1:3">
+      <c r="A2784" s="1">
+        <v>2782</v>
+      </c>
+      <c r="B2784" t="s">
+        <v>32</v>
+      </c>
+      <c r="C2784" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="2785" spans="1:3">
+      <c r="A2785" s="1">
+        <v>2783</v>
+      </c>
+      <c r="B2785" t="s">
+        <v>32</v>
+      </c>
+      <c r="C2785" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="2786" spans="1:3">
+      <c r="A2786" s="1">
+        <v>2784</v>
+      </c>
+      <c r="B2786" t="s">
+        <v>32</v>
+      </c>
+      <c r="C2786" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="2787" spans="1:3">
+      <c r="A2787" s="1">
+        <v>2785</v>
+      </c>
+      <c r="B2787" t="s">
+        <v>32</v>
+      </c>
+      <c r="C2787" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="2788" spans="1:3">
+      <c r="A2788" s="1">
+        <v>2786</v>
+      </c>
+      <c r="B2788" t="s">
+        <v>32</v>
+      </c>
+      <c r="C2788" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="2789" spans="1:3">
+      <c r="A2789" s="1">
+        <v>2787</v>
+      </c>
+      <c r="B2789" t="s">
+        <v>32</v>
+      </c>
+      <c r="C2789" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="2790" spans="1:3">
+      <c r="A2790" s="1">
+        <v>2788</v>
+      </c>
+      <c r="B2790" t="s">
+        <v>32</v>
+      </c>
+      <c r="C2790" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="2791" spans="1:3">
+      <c r="A2791" s="1">
+        <v>2789</v>
+      </c>
+      <c r="B2791" t="s">
+        <v>32</v>
+      </c>
+      <c r="C2791" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="2792" spans="1:3">
+      <c r="A2792" s="1">
+        <v>2790</v>
+      </c>
+      <c r="B2792" t="s">
+        <v>32</v>
+      </c>
+      <c r="C2792" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="2793" spans="1:3">
+      <c r="A2793" s="1">
+        <v>2791</v>
+      </c>
+      <c r="B2793" t="s">
+        <v>32</v>
+      </c>
+      <c r="C2793" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="2794" spans="1:3">
+      <c r="A2794" s="1">
+        <v>2792</v>
+      </c>
+      <c r="B2794" t="s">
+        <v>32</v>
+      </c>
+      <c r="C2794" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="2795" spans="1:3">
+      <c r="A2795" s="1">
+        <v>2793</v>
+      </c>
+      <c r="B2795" t="s">
+        <v>32</v>
+      </c>
+      <c r="C2795" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="2796" spans="1:3">
+      <c r="A2796" s="1">
+        <v>2794</v>
+      </c>
+      <c r="B2796" t="s">
+        <v>32</v>
+      </c>
+      <c r="C2796" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="2797" spans="1:3">
+      <c r="A2797" s="1">
+        <v>2795</v>
+      </c>
+      <c r="B2797" t="s">
+        <v>32</v>
+      </c>
+      <c r="C2797" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="2798" spans="1:3">
+      <c r="A2798" s="1">
+        <v>2796</v>
+      </c>
+      <c r="B2798" t="s">
         <v>33</v>
       </c>
-      <c r="C2730" t="s">
+      <c r="C2798" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="2799" spans="1:3">
+      <c r="A2799" s="1">
+        <v>2797</v>
+      </c>
+      <c r="B2799" t="s">
+        <v>33</v>
+      </c>
+      <c r="C2799" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="2800" spans="1:3">
+      <c r="A2800" s="1">
+        <v>2798</v>
+      </c>
+      <c r="B2800" t="s">
+        <v>33</v>
+      </c>
+      <c r="C2800" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="2801" spans="1:3">
+      <c r="A2801" s="1">
+        <v>2799</v>
+      </c>
+      <c r="B2801" t="s">
+        <v>33</v>
+      </c>
+      <c r="C2801" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="2802" spans="1:3">
+      <c r="A2802" s="1">
+        <v>2800</v>
+      </c>
+      <c r="B2802" t="s">
+        <v>33</v>
+      </c>
+      <c r="C2802" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="2803" spans="1:3">
+      <c r="A2803" s="1">
+        <v>2801</v>
+      </c>
+      <c r="B2803" t="s">
+        <v>33</v>
+      </c>
+      <c r="C2803" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="2804" spans="1:3">
+      <c r="A2804" s="1">
+        <v>2802</v>
+      </c>
+      <c r="B2804" t="s">
+        <v>33</v>
+      </c>
+      <c r="C2804" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="2805" spans="1:3">
+      <c r="A2805" s="1">
+        <v>2803</v>
+      </c>
+      <c r="B2805" t="s">
+        <v>33</v>
+      </c>
+      <c r="C2805" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="2806" spans="1:3">
+      <c r="A2806" s="1">
+        <v>2804</v>
+      </c>
+      <c r="B2806" t="s">
+        <v>33</v>
+      </c>
+      <c r="C2806" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="2807" spans="1:3">
+      <c r="A2807" s="1">
+        <v>2805</v>
+      </c>
+      <c r="B2807" t="s">
+        <v>33</v>
+      </c>
+      <c r="C2807" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="2808" spans="1:3">
+      <c r="A2808" s="1">
+        <v>2806</v>
+      </c>
+      <c r="B2808" t="s">
+        <v>33</v>
+      </c>
+      <c r="C2808" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="2809" spans="1:3">
+      <c r="A2809" s="1">
+        <v>2807</v>
+      </c>
+      <c r="B2809" t="s">
+        <v>33</v>
+      </c>
+      <c r="C2809" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="2810" spans="1:3">
+      <c r="A2810" s="1">
+        <v>2808</v>
+      </c>
+      <c r="B2810" t="s">
+        <v>33</v>
+      </c>
+      <c r="C2810" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="2811" spans="1:3">
+      <c r="A2811" s="1">
+        <v>2809</v>
+      </c>
+      <c r="B2811" t="s">
+        <v>33</v>
+      </c>
+      <c r="C2811" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="2812" spans="1:3">
+      <c r="A2812" s="1">
+        <v>2810</v>
+      </c>
+      <c r="B2812" t="s">
+        <v>33</v>
+      </c>
+      <c r="C2812" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="2813" spans="1:3">
+      <c r="A2813" s="1">
+        <v>2811</v>
+      </c>
+      <c r="B2813" t="s">
+        <v>33</v>
+      </c>
+      <c r="C2813" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="2814" spans="1:3">
+      <c r="A2814" s="1">
+        <v>2812</v>
+      </c>
+      <c r="B2814" t="s">
+        <v>33</v>
+      </c>
+      <c r="C2814" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="2815" spans="1:3">
+      <c r="A2815" s="1">
+        <v>2813</v>
+      </c>
+      <c r="B2815" t="s">
+        <v>33</v>
+      </c>
+      <c r="C2815" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="2816" spans="1:3">
+      <c r="A2816" s="1">
+        <v>2814</v>
+      </c>
+      <c r="B2816" t="s">
+        <v>33</v>
+      </c>
+      <c r="C2816" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="2817" spans="1:3">
+      <c r="A2817" s="1">
+        <v>2815</v>
+      </c>
+      <c r="B2817" t="s">
+        <v>33</v>
+      </c>
+      <c r="C2817" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="2818" spans="1:3">
+      <c r="A2818" s="1">
+        <v>2816</v>
+      </c>
+      <c r="B2818" t="s">
+        <v>33</v>
+      </c>
+      <c r="C2818" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="2819" spans="1:3">
+      <c r="A2819" s="1">
+        <v>2817</v>
+      </c>
+      <c r="B2819" t="s">
+        <v>33</v>
+      </c>
+      <c r="C2819" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="2820" spans="1:3">
+      <c r="A2820" s="1">
+        <v>2818</v>
+      </c>
+      <c r="B2820" t="s">
+        <v>33</v>
+      </c>
+      <c r="C2820" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="2821" spans="1:3">
+      <c r="A2821" s="1">
+        <v>2819</v>
+      </c>
+      <c r="B2821" t="s">
+        <v>33</v>
+      </c>
+      <c r="C2821" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="2822" spans="1:3">
+      <c r="A2822" s="1">
+        <v>2820</v>
+      </c>
+      <c r="B2822" t="s">
+        <v>33</v>
+      </c>
+      <c r="C2822" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="2823" spans="1:3">
+      <c r="A2823" s="1">
+        <v>2821</v>
+      </c>
+      <c r="B2823" t="s">
+        <v>33</v>
+      </c>
+      <c r="C2823" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="2824" spans="1:3">
+      <c r="A2824" s="1">
+        <v>2822</v>
+      </c>
+      <c r="B2824" t="s">
+        <v>33</v>
+      </c>
+      <c r="C2824" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="2825" spans="1:3">
+      <c r="A2825" s="1">
+        <v>2823</v>
+      </c>
+      <c r="B2825" t="s">
+        <v>33</v>
+      </c>
+      <c r="C2825" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="2826" spans="1:3">
+      <c r="A2826" s="1">
+        <v>2824</v>
+      </c>
+      <c r="B2826" t="s">
+        <v>33</v>
+      </c>
+      <c r="C2826" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="2827" spans="1:3">
+      <c r="A2827" s="1">
+        <v>2825</v>
+      </c>
+      <c r="B2827" t="s">
+        <v>33</v>
+      </c>
+      <c r="C2827" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="2828" spans="1:3">
+      <c r="A2828" s="1">
+        <v>2826</v>
+      </c>
+      <c r="B2828" t="s">
+        <v>33</v>
+      </c>
+      <c r="C2828" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="2829" spans="1:3">
+      <c r="A2829" s="1">
+        <v>2827</v>
+      </c>
+      <c r="B2829" t="s">
+        <v>33</v>
+      </c>
+      <c r="C2829" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="2830" spans="1:3">
+      <c r="A2830" s="1">
+        <v>2828</v>
+      </c>
+      <c r="B2830" t="s">
+        <v>33</v>
+      </c>
+      <c r="C2830" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="2831" spans="1:3">
+      <c r="A2831" s="1">
+        <v>2829</v>
+      </c>
+      <c r="B2831" t="s">
+        <v>33</v>
+      </c>
+      <c r="C2831" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="2832" spans="1:3">
+      <c r="A2832" s="1">
+        <v>2830</v>
+      </c>
+      <c r="B2832" t="s">
+        <v>33</v>
+      </c>
+      <c r="C2832" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="2833" spans="1:3">
+      <c r="A2833" s="1">
+        <v>2831</v>
+      </c>
+      <c r="B2833" t="s">
+        <v>33</v>
+      </c>
+      <c r="C2833" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="2834" spans="1:3">
+      <c r="A2834" s="1">
+        <v>2832</v>
+      </c>
+      <c r="B2834" t="s">
+        <v>33</v>
+      </c>
+      <c r="C2834" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="2835" spans="1:3">
+      <c r="A2835" s="1">
+        <v>2833</v>
+      </c>
+      <c r="B2835" t="s">
+        <v>33</v>
+      </c>
+      <c r="C2835" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="2836" spans="1:3">
+      <c r="A2836" s="1">
+        <v>2834</v>
+      </c>
+      <c r="B2836" t="s">
+        <v>33</v>
+      </c>
+      <c r="C2836" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="2837" spans="1:3">
+      <c r="A2837" s="1">
+        <v>2835</v>
+      </c>
+      <c r="B2837" t="s">
+        <v>33</v>
+      </c>
+      <c r="C2837" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="2838" spans="1:3">
+      <c r="A2838" s="1">
+        <v>2836</v>
+      </c>
+      <c r="B2838" t="s">
+        <v>33</v>
+      </c>
+      <c r="C2838" t="s">
         <v>91</v>
       </c>
     </row>

--- a/KaryotypingPinnacle/CNN/theWholePatientID.xlsx
+++ b/KaryotypingPinnacle/CNN/theWholePatientID.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5676" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5938" uniqueCount="99">
   <si>
     <t>Chromosome</t>
   </si>
@@ -302,6 +302,9 @@
   </si>
   <si>
     <t>193067</t>
+  </si>
+  <si>
+    <t>W12813</t>
   </si>
   <si>
     <t>W17944</t>
@@ -665,7 +668,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C2838"/>
+  <dimension ref="A1:C2969"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -25591,7 +25594,7 @@
         <v>25</v>
       </c>
       <c r="C2266" t="s">
-        <v>35</v>
+        <v>71</v>
       </c>
     </row>
     <row r="2267" spans="1:3">
@@ -25602,7 +25605,7 @@
         <v>25</v>
       </c>
       <c r="C2267" t="s">
-        <v>36</v>
+        <v>71</v>
       </c>
     </row>
     <row r="2268" spans="1:3">
@@ -25613,7 +25616,7 @@
         <v>25</v>
       </c>
       <c r="C2268" t="s">
-        <v>40</v>
+        <v>71</v>
       </c>
     </row>
     <row r="2269" spans="1:3">
@@ -25624,7 +25627,7 @@
         <v>25</v>
       </c>
       <c r="C2269" t="s">
-        <v>42</v>
+        <v>71</v>
       </c>
     </row>
     <row r="2270" spans="1:3">
@@ -25635,7 +25638,7 @@
         <v>25</v>
       </c>
       <c r="C2270" t="s">
-        <v>43</v>
+        <v>71</v>
       </c>
     </row>
     <row r="2271" spans="1:3">
@@ -25646,7 +25649,7 @@
         <v>25</v>
       </c>
       <c r="C2271" t="s">
-        <v>44</v>
+        <v>71</v>
       </c>
     </row>
     <row r="2272" spans="1:3">
@@ -25657,7 +25660,7 @@
         <v>25</v>
       </c>
       <c r="C2272" t="s">
-        <v>46</v>
+        <v>71</v>
       </c>
     </row>
     <row r="2273" spans="1:3">
@@ -25668,7 +25671,7 @@
         <v>25</v>
       </c>
       <c r="C2273" t="s">
-        <v>47</v>
+        <v>71</v>
       </c>
     </row>
     <row r="2274" spans="1:3">
@@ -25679,7 +25682,7 @@
         <v>25</v>
       </c>
       <c r="C2274" t="s">
-        <v>48</v>
+        <v>71</v>
       </c>
     </row>
     <row r="2275" spans="1:3">
@@ -25690,7 +25693,7 @@
         <v>25</v>
       </c>
       <c r="C2275" t="s">
-        <v>49</v>
+        <v>71</v>
       </c>
     </row>
     <row r="2276" spans="1:3">
@@ -25701,7 +25704,7 @@
         <v>25</v>
       </c>
       <c r="C2276" t="s">
-        <v>49</v>
+        <v>71</v>
       </c>
     </row>
     <row r="2277" spans="1:3">
@@ -25712,7 +25715,7 @@
         <v>25</v>
       </c>
       <c r="C2277" t="s">
-        <v>50</v>
+        <v>71</v>
       </c>
     </row>
     <row r="2278" spans="1:3">
@@ -25723,7 +25726,7 @@
         <v>25</v>
       </c>
       <c r="C2278" t="s">
-        <v>51</v>
+        <v>71</v>
       </c>
     </row>
     <row r="2279" spans="1:3">
@@ -25734,7 +25737,7 @@
         <v>25</v>
       </c>
       <c r="C2279" t="s">
-        <v>53</v>
+        <v>71</v>
       </c>
     </row>
     <row r="2280" spans="1:3">
@@ -25745,7 +25748,7 @@
         <v>25</v>
       </c>
       <c r="C2280" t="s">
-        <v>54</v>
+        <v>71</v>
       </c>
     </row>
     <row r="2281" spans="1:3">
@@ -25756,7 +25759,7 @@
         <v>25</v>
       </c>
       <c r="C2281" t="s">
-        <v>55</v>
+        <v>71</v>
       </c>
     </row>
     <row r="2282" spans="1:3">
@@ -25767,7 +25770,7 @@
         <v>25</v>
       </c>
       <c r="C2282" t="s">
-        <v>56</v>
+        <v>71</v>
       </c>
     </row>
     <row r="2283" spans="1:3">
@@ -25778,7 +25781,7 @@
         <v>25</v>
       </c>
       <c r="C2283" t="s">
-        <v>57</v>
+        <v>71</v>
       </c>
     </row>
     <row r="2284" spans="1:3">
@@ -25789,7 +25792,7 @@
         <v>25</v>
       </c>
       <c r="C2284" t="s">
-        <v>58</v>
+        <v>71</v>
       </c>
     </row>
     <row r="2285" spans="1:3">
@@ -25800,7 +25803,7 @@
         <v>25</v>
       </c>
       <c r="C2285" t="s">
-        <v>59</v>
+        <v>71</v>
       </c>
     </row>
     <row r="2286" spans="1:3">
@@ -25811,7 +25814,7 @@
         <v>25</v>
       </c>
       <c r="C2286" t="s">
-        <v>60</v>
+        <v>71</v>
       </c>
     </row>
     <row r="2287" spans="1:3">
@@ -25822,7 +25825,7 @@
         <v>25</v>
       </c>
       <c r="C2287" t="s">
-        <v>61</v>
+        <v>71</v>
       </c>
     </row>
     <row r="2288" spans="1:3">
@@ -25833,7 +25836,7 @@
         <v>25</v>
       </c>
       <c r="C2288" t="s">
-        <v>62</v>
+        <v>71</v>
       </c>
     </row>
     <row r="2289" spans="1:3">
@@ -25844,7 +25847,7 @@
         <v>25</v>
       </c>
       <c r="C2289" t="s">
-        <v>63</v>
+        <v>71</v>
       </c>
     </row>
     <row r="2290" spans="1:3">
@@ -25855,7 +25858,7 @@
         <v>25</v>
       </c>
       <c r="C2290" t="s">
-        <v>64</v>
+        <v>71</v>
       </c>
     </row>
     <row r="2291" spans="1:3">
@@ -25866,7 +25869,7 @@
         <v>25</v>
       </c>
       <c r="C2291" t="s">
-        <v>65</v>
+        <v>71</v>
       </c>
     </row>
     <row r="2292" spans="1:3">
@@ -25877,7 +25880,7 @@
         <v>25</v>
       </c>
       <c r="C2292" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
     </row>
     <row r="2293" spans="1:3">
@@ -25888,7 +25891,7 @@
         <v>25</v>
       </c>
       <c r="C2293" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
     </row>
     <row r="2294" spans="1:3">
@@ -25899,7 +25902,7 @@
         <v>25</v>
       </c>
       <c r="C2294" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
     </row>
     <row r="2295" spans="1:3">
@@ -25907,10 +25910,10 @@
         <v>2293</v>
       </c>
       <c r="B2295" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C2295" t="s">
-        <v>83</v>
+        <v>74</v>
       </c>
     </row>
     <row r="2296" spans="1:3">
@@ -25918,10 +25921,10 @@
         <v>2294</v>
       </c>
       <c r="B2296" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C2296" t="s">
-        <v>83</v>
+        <v>74</v>
       </c>
     </row>
     <row r="2297" spans="1:3">
@@ -25929,10 +25932,10 @@
         <v>2295</v>
       </c>
       <c r="B2297" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C2297" t="s">
-        <v>83</v>
+        <v>74</v>
       </c>
     </row>
     <row r="2298" spans="1:3">
@@ -25940,10 +25943,10 @@
         <v>2296</v>
       </c>
       <c r="B2298" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C2298" t="s">
-        <v>83</v>
+        <v>74</v>
       </c>
     </row>
     <row r="2299" spans="1:3">
@@ -25951,10 +25954,10 @@
         <v>2297</v>
       </c>
       <c r="B2299" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C2299" t="s">
-        <v>83</v>
+        <v>74</v>
       </c>
     </row>
     <row r="2300" spans="1:3">
@@ -25962,10 +25965,10 @@
         <v>2298</v>
       </c>
       <c r="B2300" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C2300" t="s">
-        <v>83</v>
+        <v>74</v>
       </c>
     </row>
     <row r="2301" spans="1:3">
@@ -25973,10 +25976,10 @@
         <v>2299</v>
       </c>
       <c r="B2301" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C2301" t="s">
-        <v>83</v>
+        <v>74</v>
       </c>
     </row>
     <row r="2302" spans="1:3">
@@ -25984,10 +25987,10 @@
         <v>2300</v>
       </c>
       <c r="B2302" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C2302" t="s">
-        <v>83</v>
+        <v>74</v>
       </c>
     </row>
     <row r="2303" spans="1:3">
@@ -25995,10 +25998,10 @@
         <v>2301</v>
       </c>
       <c r="B2303" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C2303" t="s">
-        <v>83</v>
+        <v>74</v>
       </c>
     </row>
     <row r="2304" spans="1:3">
@@ -26006,10 +26009,10 @@
         <v>2302</v>
       </c>
       <c r="B2304" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C2304" t="s">
-        <v>83</v>
+        <v>74</v>
       </c>
     </row>
     <row r="2305" spans="1:3">
@@ -26017,10 +26020,10 @@
         <v>2303</v>
       </c>
       <c r="B2305" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C2305" t="s">
-        <v>83</v>
+        <v>74</v>
       </c>
     </row>
     <row r="2306" spans="1:3">
@@ -26028,10 +26031,10 @@
         <v>2304</v>
       </c>
       <c r="B2306" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C2306" t="s">
-        <v>83</v>
+        <v>74</v>
       </c>
     </row>
     <row r="2307" spans="1:3">
@@ -26039,10 +26042,10 @@
         <v>2305</v>
       </c>
       <c r="B2307" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C2307" t="s">
-        <v>83</v>
+        <v>74</v>
       </c>
     </row>
     <row r="2308" spans="1:3">
@@ -26050,10 +26053,10 @@
         <v>2306</v>
       </c>
       <c r="B2308" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C2308" t="s">
-        <v>83</v>
+        <v>74</v>
       </c>
     </row>
     <row r="2309" spans="1:3">
@@ -26061,10 +26064,10 @@
         <v>2307</v>
       </c>
       <c r="B2309" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C2309" t="s">
-        <v>83</v>
+        <v>74</v>
       </c>
     </row>
     <row r="2310" spans="1:3">
@@ -26072,10 +26075,10 @@
         <v>2308</v>
       </c>
       <c r="B2310" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C2310" t="s">
-        <v>83</v>
+        <v>74</v>
       </c>
     </row>
     <row r="2311" spans="1:3">
@@ -26083,10 +26086,10 @@
         <v>2309</v>
       </c>
       <c r="B2311" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C2311" t="s">
-        <v>83</v>
+        <v>74</v>
       </c>
     </row>
     <row r="2312" spans="1:3">
@@ -26094,10 +26097,10 @@
         <v>2310</v>
       </c>
       <c r="B2312" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C2312" t="s">
-        <v>83</v>
+        <v>74</v>
       </c>
     </row>
     <row r="2313" spans="1:3">
@@ -26105,10 +26108,10 @@
         <v>2311</v>
       </c>
       <c r="B2313" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C2313" t="s">
-        <v>83</v>
+        <v>74</v>
       </c>
     </row>
     <row r="2314" spans="1:3">
@@ -26116,10 +26119,10 @@
         <v>2312</v>
       </c>
       <c r="B2314" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C2314" t="s">
-        <v>83</v>
+        <v>96</v>
       </c>
     </row>
     <row r="2315" spans="1:3">
@@ -26127,10 +26130,10 @@
         <v>2313</v>
       </c>
       <c r="B2315" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C2315" t="s">
-        <v>83</v>
+        <v>96</v>
       </c>
     </row>
     <row r="2316" spans="1:3">
@@ -26138,10 +26141,10 @@
         <v>2314</v>
       </c>
       <c r="B2316" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C2316" t="s">
-        <v>83</v>
+        <v>96</v>
       </c>
     </row>
     <row r="2317" spans="1:3">
@@ -26149,10 +26152,10 @@
         <v>2315</v>
       </c>
       <c r="B2317" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C2317" t="s">
-        <v>83</v>
+        <v>96</v>
       </c>
     </row>
     <row r="2318" spans="1:3">
@@ -26160,10 +26163,10 @@
         <v>2316</v>
       </c>
       <c r="B2318" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C2318" t="s">
-        <v>83</v>
+        <v>96</v>
       </c>
     </row>
     <row r="2319" spans="1:3">
@@ -26171,10 +26174,10 @@
         <v>2317</v>
       </c>
       <c r="B2319" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C2319" t="s">
-        <v>83</v>
+        <v>96</v>
       </c>
     </row>
     <row r="2320" spans="1:3">
@@ -26182,10 +26185,10 @@
         <v>2318</v>
       </c>
       <c r="B2320" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C2320" t="s">
-        <v>84</v>
+        <v>96</v>
       </c>
     </row>
     <row r="2321" spans="1:3">
@@ -26193,10 +26196,10 @@
         <v>2319</v>
       </c>
       <c r="B2321" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C2321" t="s">
-        <v>84</v>
+        <v>96</v>
       </c>
     </row>
     <row r="2322" spans="1:3">
@@ -26204,10 +26207,10 @@
         <v>2320</v>
       </c>
       <c r="B2322" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C2322" t="s">
-        <v>84</v>
+        <v>96</v>
       </c>
     </row>
     <row r="2323" spans="1:3">
@@ -26215,10 +26218,10 @@
         <v>2321</v>
       </c>
       <c r="B2323" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C2323" t="s">
-        <v>84</v>
+        <v>96</v>
       </c>
     </row>
     <row r="2324" spans="1:3">
@@ -26226,10 +26229,10 @@
         <v>2322</v>
       </c>
       <c r="B2324" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C2324" t="s">
-        <v>84</v>
+        <v>96</v>
       </c>
     </row>
     <row r="2325" spans="1:3">
@@ -26237,10 +26240,10 @@
         <v>2323</v>
       </c>
       <c r="B2325" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C2325" t="s">
-        <v>84</v>
+        <v>96</v>
       </c>
     </row>
     <row r="2326" spans="1:3">
@@ -26248,10 +26251,10 @@
         <v>2324</v>
       </c>
       <c r="B2326" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C2326" t="s">
-        <v>84</v>
+        <v>96</v>
       </c>
     </row>
     <row r="2327" spans="1:3">
@@ -26259,10 +26262,10 @@
         <v>2325</v>
       </c>
       <c r="B2327" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C2327" t="s">
-        <v>84</v>
+        <v>96</v>
       </c>
     </row>
     <row r="2328" spans="1:3">
@@ -26270,10 +26273,10 @@
         <v>2326</v>
       </c>
       <c r="B2328" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C2328" t="s">
-        <v>84</v>
+        <v>96</v>
       </c>
     </row>
     <row r="2329" spans="1:3">
@@ -26281,10 +26284,10 @@
         <v>2327</v>
       </c>
       <c r="B2329" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C2329" t="s">
-        <v>84</v>
+        <v>96</v>
       </c>
     </row>
     <row r="2330" spans="1:3">
@@ -26292,10 +26295,10 @@
         <v>2328</v>
       </c>
       <c r="B2330" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C2330" t="s">
-        <v>84</v>
+        <v>96</v>
       </c>
     </row>
     <row r="2331" spans="1:3">
@@ -26303,10 +26306,10 @@
         <v>2329</v>
       </c>
       <c r="B2331" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C2331" t="s">
-        <v>84</v>
+        <v>96</v>
       </c>
     </row>
     <row r="2332" spans="1:3">
@@ -26314,10 +26317,10 @@
         <v>2330</v>
       </c>
       <c r="B2332" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C2332" t="s">
-        <v>84</v>
+        <v>96</v>
       </c>
     </row>
     <row r="2333" spans="1:3">
@@ -26325,10 +26328,10 @@
         <v>2331</v>
       </c>
       <c r="B2333" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C2333" t="s">
-        <v>84</v>
+        <v>96</v>
       </c>
     </row>
     <row r="2334" spans="1:3">
@@ -26336,10 +26339,10 @@
         <v>2332</v>
       </c>
       <c r="B2334" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C2334" t="s">
-        <v>84</v>
+        <v>75</v>
       </c>
     </row>
     <row r="2335" spans="1:3">
@@ -26347,10 +26350,10 @@
         <v>2333</v>
       </c>
       <c r="B2335" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C2335" t="s">
-        <v>84</v>
+        <v>75</v>
       </c>
     </row>
     <row r="2336" spans="1:3">
@@ -26358,10 +26361,10 @@
         <v>2334</v>
       </c>
       <c r="B2336" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C2336" t="s">
-        <v>84</v>
+        <v>75</v>
       </c>
     </row>
     <row r="2337" spans="1:3">
@@ -26369,10 +26372,10 @@
         <v>2335</v>
       </c>
       <c r="B2337" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C2337" t="s">
-        <v>84</v>
+        <v>75</v>
       </c>
     </row>
     <row r="2338" spans="1:3">
@@ -26380,10 +26383,10 @@
         <v>2336</v>
       </c>
       <c r="B2338" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C2338" t="s">
-        <v>84</v>
+        <v>75</v>
       </c>
     </row>
     <row r="2339" spans="1:3">
@@ -26391,10 +26394,10 @@
         <v>2337</v>
       </c>
       <c r="B2339" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C2339" t="s">
-        <v>84</v>
+        <v>75</v>
       </c>
     </row>
     <row r="2340" spans="1:3">
@@ -26402,10 +26405,10 @@
         <v>2338</v>
       </c>
       <c r="B2340" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C2340" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
     </row>
     <row r="2341" spans="1:3">
@@ -26413,10 +26416,10 @@
         <v>2339</v>
       </c>
       <c r="B2341" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C2341" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
     </row>
     <row r="2342" spans="1:3">
@@ -26424,10 +26427,10 @@
         <v>2340</v>
       </c>
       <c r="B2342" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C2342" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
     </row>
     <row r="2343" spans="1:3">
@@ -26435,10 +26438,10 @@
         <v>2341</v>
       </c>
       <c r="B2343" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C2343" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
     </row>
     <row r="2344" spans="1:3">
@@ -26446,10 +26449,10 @@
         <v>2342</v>
       </c>
       <c r="B2344" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C2344" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
     </row>
     <row r="2345" spans="1:3">
@@ -26457,10 +26460,10 @@
         <v>2343</v>
       </c>
       <c r="B2345" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C2345" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
     </row>
     <row r="2346" spans="1:3">
@@ -26468,10 +26471,10 @@
         <v>2344</v>
       </c>
       <c r="B2346" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C2346" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
     </row>
     <row r="2347" spans="1:3">
@@ -26479,10 +26482,10 @@
         <v>2345</v>
       </c>
       <c r="B2347" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C2347" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
     </row>
     <row r="2348" spans="1:3">
@@ -26490,10 +26493,10 @@
         <v>2346</v>
       </c>
       <c r="B2348" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C2348" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
     </row>
     <row r="2349" spans="1:3">
@@ -26501,10 +26504,10 @@
         <v>2347</v>
       </c>
       <c r="B2349" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C2349" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
     </row>
     <row r="2350" spans="1:3">
@@ -26512,10 +26515,10 @@
         <v>2348</v>
       </c>
       <c r="B2350" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C2350" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
     </row>
     <row r="2351" spans="1:3">
@@ -26523,10 +26526,10 @@
         <v>2349</v>
       </c>
       <c r="B2351" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C2351" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
     </row>
     <row r="2352" spans="1:3">
@@ -26534,10 +26537,10 @@
         <v>2350</v>
       </c>
       <c r="B2352" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C2352" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
     </row>
     <row r="2353" spans="1:3">
@@ -26545,10 +26548,10 @@
         <v>2351</v>
       </c>
       <c r="B2353" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C2353" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
     </row>
     <row r="2354" spans="1:3">
@@ -26556,10 +26559,10 @@
         <v>2352</v>
       </c>
       <c r="B2354" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C2354" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
     </row>
     <row r="2355" spans="1:3">
@@ -26567,10 +26570,10 @@
         <v>2353</v>
       </c>
       <c r="B2355" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C2355" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
     </row>
     <row r="2356" spans="1:3">
@@ -26578,10 +26581,10 @@
         <v>2354</v>
       </c>
       <c r="B2356" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C2356" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
     </row>
     <row r="2357" spans="1:3">
@@ -26589,10 +26592,10 @@
         <v>2355</v>
       </c>
       <c r="B2357" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C2357" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
     </row>
     <row r="2358" spans="1:3">
@@ -26600,10 +26603,10 @@
         <v>2356</v>
       </c>
       <c r="B2358" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C2358" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
     </row>
     <row r="2359" spans="1:3">
@@ -26611,10 +26614,10 @@
         <v>2357</v>
       </c>
       <c r="B2359" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C2359" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
     </row>
     <row r="2360" spans="1:3">
@@ -26622,10 +26625,10 @@
         <v>2358</v>
       </c>
       <c r="B2360" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C2360" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
     </row>
     <row r="2361" spans="1:3">
@@ -26633,10 +26636,10 @@
         <v>2359</v>
       </c>
       <c r="B2361" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C2361" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
     </row>
     <row r="2362" spans="1:3">
@@ -26644,10 +26647,10 @@
         <v>2360</v>
       </c>
       <c r="B2362" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C2362" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
     </row>
     <row r="2363" spans="1:3">
@@ -26655,10 +26658,10 @@
         <v>2361</v>
       </c>
       <c r="B2363" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C2363" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
     </row>
     <row r="2364" spans="1:3">
@@ -26666,10 +26669,10 @@
         <v>2362</v>
       </c>
       <c r="B2364" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C2364" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
     </row>
     <row r="2365" spans="1:3">
@@ -26677,10 +26680,10 @@
         <v>2363</v>
       </c>
       <c r="B2365" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C2365" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
     </row>
     <row r="2366" spans="1:3">
@@ -26688,10 +26691,10 @@
         <v>2364</v>
       </c>
       <c r="B2366" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C2366" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
     </row>
     <row r="2367" spans="1:3">
@@ -26699,10 +26702,10 @@
         <v>2365</v>
       </c>
       <c r="B2367" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C2367" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
     </row>
     <row r="2368" spans="1:3">
@@ -26710,10 +26713,10 @@
         <v>2366</v>
       </c>
       <c r="B2368" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C2368" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
     </row>
     <row r="2369" spans="1:3">
@@ -26721,10 +26724,10 @@
         <v>2367</v>
       </c>
       <c r="B2369" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C2369" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
     </row>
     <row r="2370" spans="1:3">
@@ -26732,10 +26735,10 @@
         <v>2368</v>
       </c>
       <c r="B2370" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C2370" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
     </row>
     <row r="2371" spans="1:3">
@@ -26743,10 +26746,10 @@
         <v>2369</v>
       </c>
       <c r="B2371" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C2371" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
     </row>
     <row r="2372" spans="1:3">
@@ -26754,10 +26757,10 @@
         <v>2370</v>
       </c>
       <c r="B2372" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C2372" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
     </row>
     <row r="2373" spans="1:3">
@@ -26765,10 +26768,10 @@
         <v>2371</v>
       </c>
       <c r="B2373" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C2373" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
     </row>
     <row r="2374" spans="1:3">
@@ -26776,10 +26779,10 @@
         <v>2372</v>
       </c>
       <c r="B2374" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C2374" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
     </row>
     <row r="2375" spans="1:3">
@@ -26787,10 +26790,10 @@
         <v>2373</v>
       </c>
       <c r="B2375" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C2375" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
     </row>
     <row r="2376" spans="1:3">
@@ -26798,10 +26801,10 @@
         <v>2374</v>
       </c>
       <c r="B2376" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C2376" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
     </row>
     <row r="2377" spans="1:3">
@@ -26809,10 +26812,10 @@
         <v>2375</v>
       </c>
       <c r="B2377" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C2377" t="s">
-        <v>82</v>
+        <v>35</v>
       </c>
     </row>
     <row r="2378" spans="1:3">
@@ -26820,10 +26823,10 @@
         <v>2376</v>
       </c>
       <c r="B2378" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C2378" t="s">
-        <v>82</v>
+        <v>36</v>
       </c>
     </row>
     <row r="2379" spans="1:3">
@@ -26831,10 +26834,10 @@
         <v>2377</v>
       </c>
       <c r="B2379" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C2379" t="s">
-        <v>82</v>
+        <v>40</v>
       </c>
     </row>
     <row r="2380" spans="1:3">
@@ -26842,10 +26845,10 @@
         <v>2378</v>
       </c>
       <c r="B2380" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C2380" t="s">
-        <v>82</v>
+        <v>42</v>
       </c>
     </row>
     <row r="2381" spans="1:3">
@@ -26853,10 +26856,10 @@
         <v>2379</v>
       </c>
       <c r="B2381" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C2381" t="s">
-        <v>82</v>
+        <v>43</v>
       </c>
     </row>
     <row r="2382" spans="1:3">
@@ -26864,10 +26867,10 @@
         <v>2380</v>
       </c>
       <c r="B2382" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C2382" t="s">
-        <v>82</v>
+        <v>44</v>
       </c>
     </row>
     <row r="2383" spans="1:3">
@@ -26875,10 +26878,10 @@
         <v>2381</v>
       </c>
       <c r="B2383" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C2383" t="s">
-        <v>85</v>
+        <v>46</v>
       </c>
     </row>
     <row r="2384" spans="1:3">
@@ -26886,10 +26889,10 @@
         <v>2382</v>
       </c>
       <c r="B2384" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C2384" t="s">
-        <v>85</v>
+        <v>47</v>
       </c>
     </row>
     <row r="2385" spans="1:3">
@@ -26897,10 +26900,10 @@
         <v>2383</v>
       </c>
       <c r="B2385" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C2385" t="s">
-        <v>85</v>
+        <v>48</v>
       </c>
     </row>
     <row r="2386" spans="1:3">
@@ -26908,10 +26911,10 @@
         <v>2384</v>
       </c>
       <c r="B2386" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C2386" t="s">
-        <v>85</v>
+        <v>49</v>
       </c>
     </row>
     <row r="2387" spans="1:3">
@@ -26919,10 +26922,10 @@
         <v>2385</v>
       </c>
       <c r="B2387" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C2387" t="s">
-        <v>85</v>
+        <v>49</v>
       </c>
     </row>
     <row r="2388" spans="1:3">
@@ -26930,10 +26933,10 @@
         <v>2386</v>
       </c>
       <c r="B2388" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C2388" t="s">
-        <v>85</v>
+        <v>50</v>
       </c>
     </row>
     <row r="2389" spans="1:3">
@@ -26941,10 +26944,10 @@
         <v>2387</v>
       </c>
       <c r="B2389" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C2389" t="s">
-        <v>85</v>
+        <v>51</v>
       </c>
     </row>
     <row r="2390" spans="1:3">
@@ -26952,10 +26955,10 @@
         <v>2388</v>
       </c>
       <c r="B2390" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C2390" t="s">
-        <v>85</v>
+        <v>53</v>
       </c>
     </row>
     <row r="2391" spans="1:3">
@@ -26963,10 +26966,10 @@
         <v>2389</v>
       </c>
       <c r="B2391" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C2391" t="s">
-        <v>85</v>
+        <v>54</v>
       </c>
     </row>
     <row r="2392" spans="1:3">
@@ -26974,10 +26977,10 @@
         <v>2390</v>
       </c>
       <c r="B2392" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C2392" t="s">
-        <v>85</v>
+        <v>55</v>
       </c>
     </row>
     <row r="2393" spans="1:3">
@@ -26985,10 +26988,10 @@
         <v>2391</v>
       </c>
       <c r="B2393" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C2393" t="s">
-        <v>85</v>
+        <v>56</v>
       </c>
     </row>
     <row r="2394" spans="1:3">
@@ -26996,10 +26999,10 @@
         <v>2392</v>
       </c>
       <c r="B2394" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C2394" t="s">
-        <v>85</v>
+        <v>57</v>
       </c>
     </row>
     <row r="2395" spans="1:3">
@@ -27007,10 +27010,10 @@
         <v>2393</v>
       </c>
       <c r="B2395" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C2395" t="s">
-        <v>85</v>
+        <v>58</v>
       </c>
     </row>
     <row r="2396" spans="1:3">
@@ -27018,10 +27021,10 @@
         <v>2394</v>
       </c>
       <c r="B2396" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C2396" t="s">
-        <v>85</v>
+        <v>59</v>
       </c>
     </row>
     <row r="2397" spans="1:3">
@@ -27029,10 +27032,10 @@
         <v>2395</v>
       </c>
       <c r="B2397" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C2397" t="s">
-        <v>85</v>
+        <v>60</v>
       </c>
     </row>
     <row r="2398" spans="1:3">
@@ -27040,10 +27043,10 @@
         <v>2396</v>
       </c>
       <c r="B2398" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C2398" t="s">
-        <v>85</v>
+        <v>61</v>
       </c>
     </row>
     <row r="2399" spans="1:3">
@@ -27051,10 +27054,10 @@
         <v>2397</v>
       </c>
       <c r="B2399" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C2399" t="s">
-        <v>85</v>
+        <v>62</v>
       </c>
     </row>
     <row r="2400" spans="1:3">
@@ -27062,10 +27065,10 @@
         <v>2398</v>
       </c>
       <c r="B2400" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C2400" t="s">
-        <v>85</v>
+        <v>63</v>
       </c>
     </row>
     <row r="2401" spans="1:3">
@@ -27073,10 +27076,10 @@
         <v>2399</v>
       </c>
       <c r="B2401" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C2401" t="s">
-        <v>73</v>
+        <v>64</v>
       </c>
     </row>
     <row r="2402" spans="1:3">
@@ -27084,10 +27087,10 @@
         <v>2400</v>
       </c>
       <c r="B2402" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C2402" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
     </row>
     <row r="2403" spans="1:3">
@@ -27095,10 +27098,10 @@
         <v>2401</v>
       </c>
       <c r="B2403" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C2403" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
     </row>
     <row r="2404" spans="1:3">
@@ -27106,10 +27109,10 @@
         <v>2402</v>
       </c>
       <c r="B2404" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C2404" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
     </row>
     <row r="2405" spans="1:3">
@@ -27117,10 +27120,10 @@
         <v>2403</v>
       </c>
       <c r="B2405" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C2405" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
     </row>
     <row r="2406" spans="1:3">
@@ -27128,10 +27131,10 @@
         <v>2404</v>
       </c>
       <c r="B2406" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C2406" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
     </row>
     <row r="2407" spans="1:3">
@@ -27139,10 +27142,10 @@
         <v>2405</v>
       </c>
       <c r="B2407" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C2407" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
     </row>
     <row r="2408" spans="1:3">
@@ -27150,10 +27153,10 @@
         <v>2406</v>
       </c>
       <c r="B2408" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C2408" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
     </row>
     <row r="2409" spans="1:3">
@@ -27161,10 +27164,10 @@
         <v>2407</v>
       </c>
       <c r="B2409" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C2409" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
     </row>
     <row r="2410" spans="1:3">
@@ -27172,10 +27175,10 @@
         <v>2408</v>
       </c>
       <c r="B2410" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C2410" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
     </row>
     <row r="2411" spans="1:3">
@@ -27183,10 +27186,10 @@
         <v>2409</v>
       </c>
       <c r="B2411" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C2411" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
     </row>
     <row r="2412" spans="1:3">
@@ -27194,10 +27197,10 @@
         <v>2410</v>
       </c>
       <c r="B2412" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C2412" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
     </row>
     <row r="2413" spans="1:3">
@@ -27205,10 +27208,10 @@
         <v>2411</v>
       </c>
       <c r="B2413" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C2413" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
     </row>
     <row r="2414" spans="1:3">
@@ -27216,10 +27219,10 @@
         <v>2412</v>
       </c>
       <c r="B2414" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C2414" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
     </row>
     <row r="2415" spans="1:3">
@@ -27227,10 +27230,10 @@
         <v>2413</v>
       </c>
       <c r="B2415" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C2415" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
     </row>
     <row r="2416" spans="1:3">
@@ -27238,10 +27241,10 @@
         <v>2414</v>
       </c>
       <c r="B2416" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C2416" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
     </row>
     <row r="2417" spans="1:3">
@@ -27249,10 +27252,10 @@
         <v>2415</v>
       </c>
       <c r="B2417" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C2417" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
     </row>
     <row r="2418" spans="1:3">
@@ -27260,10 +27263,10 @@
         <v>2416</v>
       </c>
       <c r="B2418" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C2418" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
     </row>
     <row r="2419" spans="1:3">
@@ -27271,10 +27274,10 @@
         <v>2417</v>
       </c>
       <c r="B2419" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C2419" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
     </row>
     <row r="2420" spans="1:3">
@@ -27282,10 +27285,10 @@
         <v>2418</v>
       </c>
       <c r="B2420" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C2420" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
     </row>
     <row r="2421" spans="1:3">
@@ -27293,10 +27296,10 @@
         <v>2419</v>
       </c>
       <c r="B2421" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C2421" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
     </row>
     <row r="2422" spans="1:3">
@@ -27304,10 +27307,10 @@
         <v>2420</v>
       </c>
       <c r="B2422" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C2422" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
     </row>
     <row r="2423" spans="1:3">
@@ -27315,10 +27318,10 @@
         <v>2421</v>
       </c>
       <c r="B2423" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C2423" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
     </row>
     <row r="2424" spans="1:3">
@@ -27326,10 +27329,10 @@
         <v>2422</v>
       </c>
       <c r="B2424" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C2424" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
     </row>
     <row r="2425" spans="1:3">
@@ -27337,10 +27340,10 @@
         <v>2423</v>
       </c>
       <c r="B2425" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C2425" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
     </row>
     <row r="2426" spans="1:3">
@@ -27348,10 +27351,10 @@
         <v>2424</v>
       </c>
       <c r="B2426" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C2426" t="s">
-        <v>74</v>
+        <v>83</v>
       </c>
     </row>
     <row r="2427" spans="1:3">
@@ -27359,10 +27362,10 @@
         <v>2425</v>
       </c>
       <c r="B2427" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C2427" t="s">
-        <v>74</v>
+        <v>83</v>
       </c>
     </row>
     <row r="2428" spans="1:3">
@@ -27370,10 +27373,10 @@
         <v>2426</v>
       </c>
       <c r="B2428" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C2428" t="s">
-        <v>74</v>
+        <v>83</v>
       </c>
     </row>
     <row r="2429" spans="1:3">
@@ -27381,10 +27384,10 @@
         <v>2427</v>
       </c>
       <c r="B2429" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C2429" t="s">
-        <v>74</v>
+        <v>83</v>
       </c>
     </row>
     <row r="2430" spans="1:3">
@@ -27392,10 +27395,10 @@
         <v>2428</v>
       </c>
       <c r="B2430" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C2430" t="s">
-        <v>74</v>
+        <v>83</v>
       </c>
     </row>
     <row r="2431" spans="1:3">
@@ -27403,10 +27406,10 @@
         <v>2429</v>
       </c>
       <c r="B2431" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C2431" t="s">
-        <v>74</v>
+        <v>83</v>
       </c>
     </row>
     <row r="2432" spans="1:3">
@@ -27414,10 +27417,10 @@
         <v>2430</v>
       </c>
       <c r="B2432" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C2432" t="s">
-        <v>74</v>
+        <v>83</v>
       </c>
     </row>
     <row r="2433" spans="1:3">
@@ -27425,10 +27428,10 @@
         <v>2431</v>
       </c>
       <c r="B2433" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C2433" t="s">
-        <v>74</v>
+        <v>83</v>
       </c>
     </row>
     <row r="2434" spans="1:3">
@@ -27436,10 +27439,10 @@
         <v>2432</v>
       </c>
       <c r="B2434" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C2434" t="s">
-        <v>74</v>
+        <v>83</v>
       </c>
     </row>
     <row r="2435" spans="1:3">
@@ -27447,10 +27450,10 @@
         <v>2433</v>
       </c>
       <c r="B2435" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C2435" t="s">
-        <v>74</v>
+        <v>83</v>
       </c>
     </row>
     <row r="2436" spans="1:3">
@@ -27458,10 +27461,10 @@
         <v>2434</v>
       </c>
       <c r="B2436" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C2436" t="s">
-        <v>74</v>
+        <v>83</v>
       </c>
     </row>
     <row r="2437" spans="1:3">
@@ -27469,10 +27472,10 @@
         <v>2435</v>
       </c>
       <c r="B2437" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C2437" t="s">
-        <v>74</v>
+        <v>83</v>
       </c>
     </row>
     <row r="2438" spans="1:3">
@@ -27480,10 +27483,10 @@
         <v>2436</v>
       </c>
       <c r="B2438" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C2438" t="s">
-        <v>74</v>
+        <v>83</v>
       </c>
     </row>
     <row r="2439" spans="1:3">
@@ -27491,10 +27494,10 @@
         <v>2437</v>
       </c>
       <c r="B2439" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C2439" t="s">
-        <v>74</v>
+        <v>83</v>
       </c>
     </row>
     <row r="2440" spans="1:3">
@@ -27502,10 +27505,10 @@
         <v>2438</v>
       </c>
       <c r="B2440" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C2440" t="s">
-        <v>74</v>
+        <v>83</v>
       </c>
     </row>
     <row r="2441" spans="1:3">
@@ -27513,10 +27516,10 @@
         <v>2439</v>
       </c>
       <c r="B2441" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C2441" t="s">
-        <v>74</v>
+        <v>83</v>
       </c>
     </row>
     <row r="2442" spans="1:3">
@@ -27524,10 +27527,10 @@
         <v>2440</v>
       </c>
       <c r="B2442" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C2442" t="s">
-        <v>75</v>
+        <v>83</v>
       </c>
     </row>
     <row r="2443" spans="1:3">
@@ -27535,10 +27538,10 @@
         <v>2441</v>
       </c>
       <c r="B2443" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C2443" t="s">
-        <v>75</v>
+        <v>83</v>
       </c>
     </row>
     <row r="2444" spans="1:3">
@@ -27546,10 +27549,10 @@
         <v>2442</v>
       </c>
       <c r="B2444" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C2444" t="s">
-        <v>75</v>
+        <v>83</v>
       </c>
     </row>
     <row r="2445" spans="1:3">
@@ -27557,10 +27560,10 @@
         <v>2443</v>
       </c>
       <c r="B2445" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C2445" t="s">
-        <v>75</v>
+        <v>83</v>
       </c>
     </row>
     <row r="2446" spans="1:3">
@@ -27568,10 +27571,10 @@
         <v>2444</v>
       </c>
       <c r="B2446" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C2446" t="s">
-        <v>75</v>
+        <v>83</v>
       </c>
     </row>
     <row r="2447" spans="1:3">
@@ -27579,10 +27582,10 @@
         <v>2445</v>
       </c>
       <c r="B2447" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C2447" t="s">
-        <v>75</v>
+        <v>83</v>
       </c>
     </row>
     <row r="2448" spans="1:3">
@@ -27590,10 +27593,10 @@
         <v>2446</v>
       </c>
       <c r="B2448" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C2448" t="s">
-        <v>75</v>
+        <v>83</v>
       </c>
     </row>
     <row r="2449" spans="1:3">
@@ -27601,10 +27604,10 @@
         <v>2447</v>
       </c>
       <c r="B2449" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C2449" t="s">
-        <v>75</v>
+        <v>83</v>
       </c>
     </row>
     <row r="2450" spans="1:3">
@@ -27612,10 +27615,10 @@
         <v>2448</v>
       </c>
       <c r="B2450" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C2450" t="s">
-        <v>75</v>
+        <v>83</v>
       </c>
     </row>
     <row r="2451" spans="1:3">
@@ -27623,10 +27626,10 @@
         <v>2449</v>
       </c>
       <c r="B2451" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C2451" t="s">
-        <v>75</v>
+        <v>84</v>
       </c>
     </row>
     <row r="2452" spans="1:3">
@@ -27634,10 +27637,10 @@
         <v>2450</v>
       </c>
       <c r="B2452" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C2452" t="s">
-        <v>75</v>
+        <v>84</v>
       </c>
     </row>
     <row r="2453" spans="1:3">
@@ -27645,10 +27648,10 @@
         <v>2451</v>
       </c>
       <c r="B2453" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C2453" t="s">
-        <v>75</v>
+        <v>84</v>
       </c>
     </row>
     <row r="2454" spans="1:3">
@@ -27656,10 +27659,10 @@
         <v>2452</v>
       </c>
       <c r="B2454" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C2454" t="s">
-        <v>75</v>
+        <v>84</v>
       </c>
     </row>
     <row r="2455" spans="1:3">
@@ -27667,10 +27670,10 @@
         <v>2453</v>
       </c>
       <c r="B2455" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C2455" t="s">
-        <v>75</v>
+        <v>84</v>
       </c>
     </row>
     <row r="2456" spans="1:3">
@@ -27678,10 +27681,10 @@
         <v>2454</v>
       </c>
       <c r="B2456" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C2456" t="s">
-        <v>75</v>
+        <v>84</v>
       </c>
     </row>
     <row r="2457" spans="1:3">
@@ -27689,10 +27692,10 @@
         <v>2455</v>
       </c>
       <c r="B2457" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C2457" t="s">
-        <v>75</v>
+        <v>84</v>
       </c>
     </row>
     <row r="2458" spans="1:3">
@@ -27700,10 +27703,10 @@
         <v>2456</v>
       </c>
       <c r="B2458" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C2458" t="s">
-        <v>75</v>
+        <v>84</v>
       </c>
     </row>
     <row r="2459" spans="1:3">
@@ -27711,10 +27714,10 @@
         <v>2457</v>
       </c>
       <c r="B2459" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C2459" t="s">
-        <v>75</v>
+        <v>84</v>
       </c>
     </row>
     <row r="2460" spans="1:3">
@@ -27722,10 +27725,10 @@
         <v>2458</v>
       </c>
       <c r="B2460" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C2460" t="s">
-        <v>75</v>
+        <v>84</v>
       </c>
     </row>
     <row r="2461" spans="1:3">
@@ -27733,10 +27736,10 @@
         <v>2459</v>
       </c>
       <c r="B2461" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C2461" t="s">
-        <v>75</v>
+        <v>84</v>
       </c>
     </row>
     <row r="2462" spans="1:3">
@@ -27744,10 +27747,10 @@
         <v>2460</v>
       </c>
       <c r="B2462" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C2462" t="s">
-        <v>76</v>
+        <v>84</v>
       </c>
     </row>
     <row r="2463" spans="1:3">
@@ -27755,10 +27758,10 @@
         <v>2461</v>
       </c>
       <c r="B2463" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C2463" t="s">
-        <v>76</v>
+        <v>84</v>
       </c>
     </row>
     <row r="2464" spans="1:3">
@@ -27766,10 +27769,10 @@
         <v>2462</v>
       </c>
       <c r="B2464" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C2464" t="s">
-        <v>76</v>
+        <v>84</v>
       </c>
     </row>
     <row r="2465" spans="1:3">
@@ -27777,10 +27780,10 @@
         <v>2463</v>
       </c>
       <c r="B2465" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C2465" t="s">
-        <v>76</v>
+        <v>84</v>
       </c>
     </row>
     <row r="2466" spans="1:3">
@@ -27788,10 +27791,10 @@
         <v>2464</v>
       </c>
       <c r="B2466" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C2466" t="s">
-        <v>76</v>
+        <v>84</v>
       </c>
     </row>
     <row r="2467" spans="1:3">
@@ -27799,10 +27802,10 @@
         <v>2465</v>
       </c>
       <c r="B2467" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C2467" t="s">
-        <v>76</v>
+        <v>84</v>
       </c>
     </row>
     <row r="2468" spans="1:3">
@@ -27810,10 +27813,10 @@
         <v>2466</v>
       </c>
       <c r="B2468" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C2468" t="s">
-        <v>76</v>
+        <v>84</v>
       </c>
     </row>
     <row r="2469" spans="1:3">
@@ -27821,10 +27824,10 @@
         <v>2467</v>
       </c>
       <c r="B2469" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C2469" t="s">
-        <v>76</v>
+        <v>84</v>
       </c>
     </row>
     <row r="2470" spans="1:3">
@@ -27832,10 +27835,10 @@
         <v>2468</v>
       </c>
       <c r="B2470" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C2470" t="s">
-        <v>76</v>
+        <v>84</v>
       </c>
     </row>
     <row r="2471" spans="1:3">
@@ -27843,10 +27846,10 @@
         <v>2469</v>
       </c>
       <c r="B2471" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C2471" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
     </row>
     <row r="2472" spans="1:3">
@@ -27854,10 +27857,10 @@
         <v>2470</v>
       </c>
       <c r="B2472" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C2472" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
     </row>
     <row r="2473" spans="1:3">
@@ -27865,10 +27868,10 @@
         <v>2471</v>
       </c>
       <c r="B2473" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C2473" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
     </row>
     <row r="2474" spans="1:3">
@@ -27876,10 +27879,10 @@
         <v>2472</v>
       </c>
       <c r="B2474" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C2474" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
     </row>
     <row r="2475" spans="1:3">
@@ -27887,10 +27890,10 @@
         <v>2473</v>
       </c>
       <c r="B2475" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C2475" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
     </row>
     <row r="2476" spans="1:3">
@@ -27898,10 +27901,10 @@
         <v>2474</v>
       </c>
       <c r="B2476" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C2476" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
     </row>
     <row r="2477" spans="1:3">
@@ -27909,10 +27912,10 @@
         <v>2475</v>
       </c>
       <c r="B2477" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C2477" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
     </row>
     <row r="2478" spans="1:3">
@@ -27920,10 +27923,10 @@
         <v>2476</v>
       </c>
       <c r="B2478" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C2478" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
     </row>
     <row r="2479" spans="1:3">
@@ -27931,10 +27934,10 @@
         <v>2477</v>
       </c>
       <c r="B2479" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C2479" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
     </row>
     <row r="2480" spans="1:3">
@@ -27942,10 +27945,10 @@
         <v>2478</v>
       </c>
       <c r="B2480" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C2480" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
     </row>
     <row r="2481" spans="1:3">
@@ -27953,10 +27956,10 @@
         <v>2479</v>
       </c>
       <c r="B2481" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C2481" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
     </row>
     <row r="2482" spans="1:3">
@@ -27964,10 +27967,10 @@
         <v>2480</v>
       </c>
       <c r="B2482" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C2482" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
     </row>
     <row r="2483" spans="1:3">
@@ -27975,10 +27978,10 @@
         <v>2481</v>
       </c>
       <c r="B2483" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C2483" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
     </row>
     <row r="2484" spans="1:3">
@@ -27986,10 +27989,10 @@
         <v>2482</v>
       </c>
       <c r="B2484" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C2484" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
     </row>
     <row r="2485" spans="1:3">
@@ -27997,10 +28000,10 @@
         <v>2483</v>
       </c>
       <c r="B2485" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C2485" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
     </row>
     <row r="2486" spans="1:3">
@@ -28008,10 +28011,10 @@
         <v>2484</v>
       </c>
       <c r="B2486" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C2486" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
     </row>
     <row r="2487" spans="1:3">
@@ -28019,10 +28022,10 @@
         <v>2485</v>
       </c>
       <c r="B2487" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C2487" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
     </row>
     <row r="2488" spans="1:3">
@@ -28030,10 +28033,10 @@
         <v>2486</v>
       </c>
       <c r="B2488" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C2488" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
     </row>
     <row r="2489" spans="1:3">
@@ -28041,10 +28044,10 @@
         <v>2487</v>
       </c>
       <c r="B2489" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C2489" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
     </row>
     <row r="2490" spans="1:3">
@@ -28052,10 +28055,10 @@
         <v>2488</v>
       </c>
       <c r="B2490" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C2490" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
     </row>
     <row r="2491" spans="1:3">
@@ -28063,10 +28066,10 @@
         <v>2489</v>
       </c>
       <c r="B2491" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C2491" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
     </row>
     <row r="2492" spans="1:3">
@@ -28074,10 +28077,10 @@
         <v>2490</v>
       </c>
       <c r="B2492" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C2492" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
     </row>
     <row r="2493" spans="1:3">
@@ -28085,10 +28088,10 @@
         <v>2491</v>
       </c>
       <c r="B2493" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C2493" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
     </row>
     <row r="2494" spans="1:3">
@@ -28096,10 +28099,10 @@
         <v>2492</v>
       </c>
       <c r="B2494" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C2494" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
     </row>
     <row r="2495" spans="1:3">
@@ -28107,10 +28110,10 @@
         <v>2493</v>
       </c>
       <c r="B2495" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C2495" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
     </row>
     <row r="2496" spans="1:3">
@@ -28118,10 +28121,10 @@
         <v>2494</v>
       </c>
       <c r="B2496" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C2496" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
     </row>
     <row r="2497" spans="1:3">
@@ -28129,10 +28132,10 @@
         <v>2495</v>
       </c>
       <c r="B2497" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C2497" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
     </row>
     <row r="2498" spans="1:3">
@@ -28140,10 +28143,10 @@
         <v>2496</v>
       </c>
       <c r="B2498" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C2498" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
     </row>
     <row r="2499" spans="1:3">
@@ -28151,10 +28154,10 @@
         <v>2497</v>
       </c>
       <c r="B2499" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C2499" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
     </row>
     <row r="2500" spans="1:3">
@@ -28162,10 +28165,10 @@
         <v>2498</v>
       </c>
       <c r="B2500" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C2500" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
     </row>
     <row r="2501" spans="1:3">
@@ -28173,10 +28176,10 @@
         <v>2499</v>
       </c>
       <c r="B2501" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C2501" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
     </row>
     <row r="2502" spans="1:3">
@@ -28184,10 +28187,10 @@
         <v>2500</v>
       </c>
       <c r="B2502" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C2502" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
     </row>
     <row r="2503" spans="1:3">
@@ -28195,10 +28198,10 @@
         <v>2501</v>
       </c>
       <c r="B2503" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C2503" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
     </row>
     <row r="2504" spans="1:3">
@@ -28206,10 +28209,10 @@
         <v>2502</v>
       </c>
       <c r="B2504" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C2504" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
     </row>
     <row r="2505" spans="1:3">
@@ -28217,10 +28220,10 @@
         <v>2503</v>
       </c>
       <c r="B2505" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C2505" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
     </row>
     <row r="2506" spans="1:3">
@@ -28228,10 +28231,10 @@
         <v>2504</v>
       </c>
       <c r="B2506" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C2506" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
     </row>
     <row r="2507" spans="1:3">
@@ -28239,10 +28242,10 @@
         <v>2505</v>
       </c>
       <c r="B2507" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C2507" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
     </row>
     <row r="2508" spans="1:3">
@@ -28250,10 +28253,10 @@
         <v>2506</v>
       </c>
       <c r="B2508" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C2508" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
     </row>
     <row r="2509" spans="1:3">
@@ -28261,10 +28264,10 @@
         <v>2507</v>
       </c>
       <c r="B2509" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C2509" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
     </row>
     <row r="2510" spans="1:3">
@@ -28272,10 +28275,10 @@
         <v>2508</v>
       </c>
       <c r="B2510" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C2510" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
     </row>
     <row r="2511" spans="1:3">
@@ -28283,10 +28286,10 @@
         <v>2509</v>
       </c>
       <c r="B2511" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C2511" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
     </row>
     <row r="2512" spans="1:3">
@@ -28294,10 +28297,10 @@
         <v>2510</v>
       </c>
       <c r="B2512" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C2512" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
     </row>
     <row r="2513" spans="1:3">
@@ -28305,10 +28308,10 @@
         <v>2511</v>
       </c>
       <c r="B2513" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C2513" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
     </row>
     <row r="2514" spans="1:3">
@@ -28316,10 +28319,10 @@
         <v>2512</v>
       </c>
       <c r="B2514" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C2514" t="s">
-        <v>78</v>
+        <v>85</v>
       </c>
     </row>
     <row r="2515" spans="1:3">
@@ -28327,10 +28330,10 @@
         <v>2513</v>
       </c>
       <c r="B2515" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C2515" t="s">
-        <v>78</v>
+        <v>85</v>
       </c>
     </row>
     <row r="2516" spans="1:3">
@@ -28338,10 +28341,10 @@
         <v>2514</v>
       </c>
       <c r="B2516" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C2516" t="s">
-        <v>78</v>
+        <v>85</v>
       </c>
     </row>
     <row r="2517" spans="1:3">
@@ -28349,10 +28352,10 @@
         <v>2515</v>
       </c>
       <c r="B2517" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C2517" t="s">
-        <v>78</v>
+        <v>85</v>
       </c>
     </row>
     <row r="2518" spans="1:3">
@@ -28360,10 +28363,10 @@
         <v>2516</v>
       </c>
       <c r="B2518" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C2518" t="s">
-        <v>78</v>
+        <v>85</v>
       </c>
     </row>
     <row r="2519" spans="1:3">
@@ -28371,10 +28374,10 @@
         <v>2517</v>
       </c>
       <c r="B2519" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C2519" t="s">
-        <v>78</v>
+        <v>85</v>
       </c>
     </row>
     <row r="2520" spans="1:3">
@@ -28382,10 +28385,10 @@
         <v>2518</v>
       </c>
       <c r="B2520" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C2520" t="s">
-        <v>78</v>
+        <v>85</v>
       </c>
     </row>
     <row r="2521" spans="1:3">
@@ -28393,10 +28396,10 @@
         <v>2519</v>
       </c>
       <c r="B2521" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C2521" t="s">
-        <v>78</v>
+        <v>85</v>
       </c>
     </row>
     <row r="2522" spans="1:3">
@@ -28404,10 +28407,10 @@
         <v>2520</v>
       </c>
       <c r="B2522" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C2522" t="s">
-        <v>78</v>
+        <v>85</v>
       </c>
     </row>
     <row r="2523" spans="1:3">
@@ -28415,10 +28418,10 @@
         <v>2521</v>
       </c>
       <c r="B2523" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C2523" t="s">
-        <v>78</v>
+        <v>85</v>
       </c>
     </row>
     <row r="2524" spans="1:3">
@@ -28426,10 +28429,10 @@
         <v>2522</v>
       </c>
       <c r="B2524" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C2524" t="s">
-        <v>78</v>
+        <v>85</v>
       </c>
     </row>
     <row r="2525" spans="1:3">
@@ -28437,10 +28440,10 @@
         <v>2523</v>
       </c>
       <c r="B2525" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C2525" t="s">
-        <v>78</v>
+        <v>85</v>
       </c>
     </row>
     <row r="2526" spans="1:3">
@@ -28448,10 +28451,10 @@
         <v>2524</v>
       </c>
       <c r="B2526" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C2526" t="s">
-        <v>78</v>
+        <v>85</v>
       </c>
     </row>
     <row r="2527" spans="1:3">
@@ -28459,10 +28462,10 @@
         <v>2525</v>
       </c>
       <c r="B2527" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C2527" t="s">
-        <v>78</v>
+        <v>85</v>
       </c>
     </row>
     <row r="2528" spans="1:3">
@@ -28470,10 +28473,10 @@
         <v>2526</v>
       </c>
       <c r="B2528" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C2528" t="s">
-        <v>78</v>
+        <v>85</v>
       </c>
     </row>
     <row r="2529" spans="1:3">
@@ -28481,10 +28484,10 @@
         <v>2527</v>
       </c>
       <c r="B2529" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C2529" t="s">
-        <v>78</v>
+        <v>85</v>
       </c>
     </row>
     <row r="2530" spans="1:3">
@@ -28492,10 +28495,10 @@
         <v>2528</v>
       </c>
       <c r="B2530" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C2530" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
     </row>
     <row r="2531" spans="1:3">
@@ -28503,10 +28506,10 @@
         <v>2529</v>
       </c>
       <c r="B2531" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C2531" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
     </row>
     <row r="2532" spans="1:3">
@@ -28517,7 +28520,7 @@
         <v>28</v>
       </c>
       <c r="C2532" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
     </row>
     <row r="2533" spans="1:3">
@@ -28528,7 +28531,7 @@
         <v>28</v>
       </c>
       <c r="C2533" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
     </row>
     <row r="2534" spans="1:3">
@@ -28539,7 +28542,7 @@
         <v>28</v>
       </c>
       <c r="C2534" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
     </row>
     <row r="2535" spans="1:3">
@@ -28550,7 +28553,7 @@
         <v>28</v>
       </c>
       <c r="C2535" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
     </row>
     <row r="2536" spans="1:3">
@@ -28561,7 +28564,7 @@
         <v>28</v>
       </c>
       <c r="C2536" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
     </row>
     <row r="2537" spans="1:3">
@@ -28572,7 +28575,7 @@
         <v>28</v>
       </c>
       <c r="C2537" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
     </row>
     <row r="2538" spans="1:3">
@@ -28583,7 +28586,7 @@
         <v>28</v>
       </c>
       <c r="C2538" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
     </row>
     <row r="2539" spans="1:3">
@@ -28594,7 +28597,7 @@
         <v>28</v>
       </c>
       <c r="C2539" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
     </row>
     <row r="2540" spans="1:3">
@@ -28605,7 +28608,7 @@
         <v>28</v>
       </c>
       <c r="C2540" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
     </row>
     <row r="2541" spans="1:3">
@@ -28616,7 +28619,7 @@
         <v>28</v>
       </c>
       <c r="C2541" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
     </row>
     <row r="2542" spans="1:3">
@@ -28627,7 +28630,7 @@
         <v>28</v>
       </c>
       <c r="C2542" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
     </row>
     <row r="2543" spans="1:3">
@@ -28638,7 +28641,7 @@
         <v>28</v>
       </c>
       <c r="C2543" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
     </row>
     <row r="2544" spans="1:3">
@@ -28649,7 +28652,7 @@
         <v>28</v>
       </c>
       <c r="C2544" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
     </row>
     <row r="2545" spans="1:3">
@@ -28660,7 +28663,7 @@
         <v>28</v>
       </c>
       <c r="C2545" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
     </row>
     <row r="2546" spans="1:3">
@@ -28671,7 +28674,7 @@
         <v>28</v>
       </c>
       <c r="C2546" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
     </row>
     <row r="2547" spans="1:3">
@@ -28682,7 +28685,7 @@
         <v>28</v>
       </c>
       <c r="C2547" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
     </row>
     <row r="2548" spans="1:3">
@@ -28693,7 +28696,7 @@
         <v>28</v>
       </c>
       <c r="C2548" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
     </row>
     <row r="2549" spans="1:3">
@@ -28704,7 +28707,7 @@
         <v>28</v>
       </c>
       <c r="C2549" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
     </row>
     <row r="2550" spans="1:3">
@@ -28715,7 +28718,7 @@
         <v>28</v>
       </c>
       <c r="C2550" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
     </row>
     <row r="2551" spans="1:3">
@@ -28726,7 +28729,7 @@
         <v>28</v>
       </c>
       <c r="C2551" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
     </row>
     <row r="2552" spans="1:3">
@@ -28737,7 +28740,7 @@
         <v>28</v>
       </c>
       <c r="C2552" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
     </row>
     <row r="2553" spans="1:3">
@@ -28748,7 +28751,7 @@
         <v>28</v>
       </c>
       <c r="C2553" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
     </row>
     <row r="2554" spans="1:3">
@@ -28759,7 +28762,7 @@
         <v>28</v>
       </c>
       <c r="C2554" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
     </row>
     <row r="2555" spans="1:3">
@@ -28770,7 +28773,7 @@
         <v>28</v>
       </c>
       <c r="C2555" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
     </row>
     <row r="2556" spans="1:3">
@@ -28781,7 +28784,7 @@
         <v>28</v>
       </c>
       <c r="C2556" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
     </row>
     <row r="2557" spans="1:3">
@@ -28792,7 +28795,7 @@
         <v>28</v>
       </c>
       <c r="C2557" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
     </row>
     <row r="2558" spans="1:3">
@@ -28803,7 +28806,7 @@
         <v>28</v>
       </c>
       <c r="C2558" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
     </row>
     <row r="2559" spans="1:3">
@@ -28814,7 +28817,7 @@
         <v>28</v>
       </c>
       <c r="C2559" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
     </row>
     <row r="2560" spans="1:3">
@@ -28825,7 +28828,7 @@
         <v>28</v>
       </c>
       <c r="C2560" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
     </row>
     <row r="2561" spans="1:3">
@@ -28836,7 +28839,7 @@
         <v>28</v>
       </c>
       <c r="C2561" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
     </row>
     <row r="2562" spans="1:3">
@@ -28847,7 +28850,7 @@
         <v>28</v>
       </c>
       <c r="C2562" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
     </row>
     <row r="2563" spans="1:3">
@@ -28858,7 +28861,7 @@
         <v>28</v>
       </c>
       <c r="C2563" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
     </row>
     <row r="2564" spans="1:3">
@@ -28869,7 +28872,7 @@
         <v>28</v>
       </c>
       <c r="C2564" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
     </row>
     <row r="2565" spans="1:3">
@@ -28880,7 +28883,7 @@
         <v>28</v>
       </c>
       <c r="C2565" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
     </row>
     <row r="2566" spans="1:3">
@@ -28891,7 +28894,7 @@
         <v>28</v>
       </c>
       <c r="C2566" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
     </row>
     <row r="2567" spans="1:3">
@@ -28902,7 +28905,7 @@
         <v>28</v>
       </c>
       <c r="C2567" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
     </row>
     <row r="2568" spans="1:3">
@@ -28913,7 +28916,7 @@
         <v>28</v>
       </c>
       <c r="C2568" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
     </row>
     <row r="2569" spans="1:3">
@@ -28924,7 +28927,7 @@
         <v>28</v>
       </c>
       <c r="C2569" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
     </row>
     <row r="2570" spans="1:3">
@@ -28935,7 +28938,7 @@
         <v>28</v>
       </c>
       <c r="C2570" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
     </row>
     <row r="2571" spans="1:3">
@@ -28946,7 +28949,7 @@
         <v>28</v>
       </c>
       <c r="C2571" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
     </row>
     <row r="2572" spans="1:3">
@@ -28957,7 +28960,7 @@
         <v>28</v>
       </c>
       <c r="C2572" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
     </row>
     <row r="2573" spans="1:3">
@@ -28968,7 +28971,7 @@
         <v>28</v>
       </c>
       <c r="C2573" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
     </row>
     <row r="2574" spans="1:3">
@@ -28976,10 +28979,10 @@
         <v>2572</v>
       </c>
       <c r="B2574" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C2574" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
     </row>
     <row r="2575" spans="1:3">
@@ -28987,10 +28990,10 @@
         <v>2573</v>
       </c>
       <c r="B2575" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C2575" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
     </row>
     <row r="2576" spans="1:3">
@@ -28998,10 +29001,10 @@
         <v>2574</v>
       </c>
       <c r="B2576" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C2576" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
     </row>
     <row r="2577" spans="1:3">
@@ -29009,10 +29012,10 @@
         <v>2575</v>
       </c>
       <c r="B2577" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C2577" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
     </row>
     <row r="2578" spans="1:3">
@@ -29020,10 +29023,10 @@
         <v>2576</v>
       </c>
       <c r="B2578" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C2578" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
     </row>
     <row r="2579" spans="1:3">
@@ -29031,10 +29034,10 @@
         <v>2577</v>
       </c>
       <c r="B2579" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C2579" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
     </row>
     <row r="2580" spans="1:3">
@@ -29042,10 +29045,10 @@
         <v>2578</v>
       </c>
       <c r="B2580" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C2580" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
     </row>
     <row r="2581" spans="1:3">
@@ -29053,10 +29056,10 @@
         <v>2579</v>
       </c>
       <c r="B2581" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C2581" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
     </row>
     <row r="2582" spans="1:3">
@@ -29064,10 +29067,10 @@
         <v>2580</v>
       </c>
       <c r="B2582" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C2582" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
     </row>
     <row r="2583" spans="1:3">
@@ -29075,10 +29078,10 @@
         <v>2581</v>
       </c>
       <c r="B2583" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C2583" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
     </row>
     <row r="2584" spans="1:3">
@@ -29086,10 +29089,10 @@
         <v>2582</v>
       </c>
       <c r="B2584" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C2584" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
     </row>
     <row r="2585" spans="1:3">
@@ -29097,10 +29100,10 @@
         <v>2583</v>
       </c>
       <c r="B2585" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C2585" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
     </row>
     <row r="2586" spans="1:3">
@@ -29108,10 +29111,10 @@
         <v>2584</v>
       </c>
       <c r="B2586" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C2586" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
     </row>
     <row r="2587" spans="1:3">
@@ -29119,10 +29122,10 @@
         <v>2585</v>
       </c>
       <c r="B2587" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C2587" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
     </row>
     <row r="2588" spans="1:3">
@@ -29130,10 +29133,10 @@
         <v>2586</v>
       </c>
       <c r="B2588" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C2588" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
     </row>
     <row r="2589" spans="1:3">
@@ -29141,10 +29144,10 @@
         <v>2587</v>
       </c>
       <c r="B2589" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C2589" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
     </row>
     <row r="2590" spans="1:3">
@@ -29152,10 +29155,10 @@
         <v>2588</v>
       </c>
       <c r="B2590" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C2590" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
     </row>
     <row r="2591" spans="1:3">
@@ -29163,10 +29166,10 @@
         <v>2589</v>
       </c>
       <c r="B2591" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C2591" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
     </row>
     <row r="2592" spans="1:3">
@@ -29174,10 +29177,10 @@
         <v>2590</v>
       </c>
       <c r="B2592" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C2592" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
     </row>
     <row r="2593" spans="1:3">
@@ -29185,10 +29188,10 @@
         <v>2591</v>
       </c>
       <c r="B2593" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C2593" t="s">
-        <v>69</v>
+        <v>76</v>
       </c>
     </row>
     <row r="2594" spans="1:3">
@@ -29196,10 +29199,10 @@
         <v>2592</v>
       </c>
       <c r="B2594" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C2594" t="s">
-        <v>69</v>
+        <v>76</v>
       </c>
     </row>
     <row r="2595" spans="1:3">
@@ -29207,10 +29210,10 @@
         <v>2593</v>
       </c>
       <c r="B2595" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C2595" t="s">
-        <v>69</v>
+        <v>76</v>
       </c>
     </row>
     <row r="2596" spans="1:3">
@@ -29218,10 +29221,10 @@
         <v>2594</v>
       </c>
       <c r="B2596" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C2596" t="s">
-        <v>69</v>
+        <v>76</v>
       </c>
     </row>
     <row r="2597" spans="1:3">
@@ -29229,10 +29232,10 @@
         <v>2595</v>
       </c>
       <c r="B2597" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C2597" t="s">
-        <v>69</v>
+        <v>76</v>
       </c>
     </row>
     <row r="2598" spans="1:3">
@@ -29240,10 +29243,10 @@
         <v>2596</v>
       </c>
       <c r="B2598" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C2598" t="s">
-        <v>69</v>
+        <v>76</v>
       </c>
     </row>
     <row r="2599" spans="1:3">
@@ -29251,10 +29254,10 @@
         <v>2597</v>
       </c>
       <c r="B2599" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C2599" t="s">
-        <v>69</v>
+        <v>76</v>
       </c>
     </row>
     <row r="2600" spans="1:3">
@@ -29262,10 +29265,10 @@
         <v>2598</v>
       </c>
       <c r="B2600" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C2600" t="s">
-        <v>69</v>
+        <v>76</v>
       </c>
     </row>
     <row r="2601" spans="1:3">
@@ -29273,10 +29276,10 @@
         <v>2599</v>
       </c>
       <c r="B2601" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C2601" t="s">
-        <v>69</v>
+        <v>76</v>
       </c>
     </row>
     <row r="2602" spans="1:3">
@@ -29284,10 +29287,10 @@
         <v>2600</v>
       </c>
       <c r="B2602" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C2602" t="s">
-        <v>69</v>
+        <v>76</v>
       </c>
     </row>
     <row r="2603" spans="1:3">
@@ -29295,10 +29298,10 @@
         <v>2601</v>
       </c>
       <c r="B2603" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C2603" t="s">
-        <v>69</v>
+        <v>76</v>
       </c>
     </row>
     <row r="2604" spans="1:3">
@@ -29306,10 +29309,10 @@
         <v>2602</v>
       </c>
       <c r="B2604" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C2604" t="s">
-        <v>69</v>
+        <v>76</v>
       </c>
     </row>
     <row r="2605" spans="1:3">
@@ -29317,10 +29320,10 @@
         <v>2603</v>
       </c>
       <c r="B2605" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C2605" t="s">
-        <v>69</v>
+        <v>76</v>
       </c>
     </row>
     <row r="2606" spans="1:3">
@@ -29328,10 +29331,10 @@
         <v>2604</v>
       </c>
       <c r="B2606" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C2606" t="s">
-        <v>69</v>
+        <v>76</v>
       </c>
     </row>
     <row r="2607" spans="1:3">
@@ -29339,10 +29342,10 @@
         <v>2605</v>
       </c>
       <c r="B2607" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C2607" t="s">
-        <v>69</v>
+        <v>76</v>
       </c>
     </row>
     <row r="2608" spans="1:3">
@@ -29350,10 +29353,10 @@
         <v>2606</v>
       </c>
       <c r="B2608" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C2608" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
     </row>
     <row r="2609" spans="1:3">
@@ -29361,10 +29364,10 @@
         <v>2607</v>
       </c>
       <c r="B2609" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C2609" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
     </row>
     <row r="2610" spans="1:3">
@@ -29372,10 +29375,10 @@
         <v>2608</v>
       </c>
       <c r="B2610" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C2610" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
     </row>
     <row r="2611" spans="1:3">
@@ -29383,10 +29386,10 @@
         <v>2609</v>
       </c>
       <c r="B2611" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C2611" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
     </row>
     <row r="2612" spans="1:3">
@@ -29394,10 +29397,10 @@
         <v>2610</v>
       </c>
       <c r="B2612" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C2612" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
     </row>
     <row r="2613" spans="1:3">
@@ -29405,10 +29408,10 @@
         <v>2611</v>
       </c>
       <c r="B2613" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C2613" t="s">
-        <v>70</v>
+        <v>77</v>
       </c>
     </row>
     <row r="2614" spans="1:3">
@@ -29416,10 +29419,10 @@
         <v>2612</v>
       </c>
       <c r="B2614" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C2614" t="s">
-        <v>70</v>
+        <v>77</v>
       </c>
     </row>
     <row r="2615" spans="1:3">
@@ -29427,10 +29430,10 @@
         <v>2613</v>
       </c>
       <c r="B2615" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C2615" t="s">
-        <v>70</v>
+        <v>77</v>
       </c>
     </row>
     <row r="2616" spans="1:3">
@@ -29438,10 +29441,10 @@
         <v>2614</v>
       </c>
       <c r="B2616" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C2616" t="s">
-        <v>70</v>
+        <v>77</v>
       </c>
     </row>
     <row r="2617" spans="1:3">
@@ -29449,10 +29452,10 @@
         <v>2615</v>
       </c>
       <c r="B2617" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C2617" t="s">
-        <v>70</v>
+        <v>77</v>
       </c>
     </row>
     <row r="2618" spans="1:3">
@@ -29460,10 +29463,10 @@
         <v>2616</v>
       </c>
       <c r="B2618" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C2618" t="s">
-        <v>70</v>
+        <v>77</v>
       </c>
     </row>
     <row r="2619" spans="1:3">
@@ -29471,10 +29474,10 @@
         <v>2617</v>
       </c>
       <c r="B2619" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C2619" t="s">
-        <v>70</v>
+        <v>77</v>
       </c>
     </row>
     <row r="2620" spans="1:3">
@@ -29482,10 +29485,10 @@
         <v>2618</v>
       </c>
       <c r="B2620" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C2620" t="s">
-        <v>70</v>
+        <v>77</v>
       </c>
     </row>
     <row r="2621" spans="1:3">
@@ -29493,10 +29496,10 @@
         <v>2619</v>
       </c>
       <c r="B2621" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C2621" t="s">
-        <v>70</v>
+        <v>77</v>
       </c>
     </row>
     <row r="2622" spans="1:3">
@@ -29504,10 +29507,10 @@
         <v>2620</v>
       </c>
       <c r="B2622" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C2622" t="s">
-        <v>70</v>
+        <v>77</v>
       </c>
     </row>
     <row r="2623" spans="1:3">
@@ -29515,10 +29518,10 @@
         <v>2621</v>
       </c>
       <c r="B2623" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C2623" t="s">
-        <v>70</v>
+        <v>77</v>
       </c>
     </row>
     <row r="2624" spans="1:3">
@@ -29526,10 +29529,10 @@
         <v>2622</v>
       </c>
       <c r="B2624" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C2624" t="s">
-        <v>70</v>
+        <v>77</v>
       </c>
     </row>
     <row r="2625" spans="1:3">
@@ -29537,10 +29540,10 @@
         <v>2623</v>
       </c>
       <c r="B2625" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C2625" t="s">
-        <v>70</v>
+        <v>77</v>
       </c>
     </row>
     <row r="2626" spans="1:3">
@@ -29548,10 +29551,10 @@
         <v>2624</v>
       </c>
       <c r="B2626" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C2626" t="s">
-        <v>70</v>
+        <v>77</v>
       </c>
     </row>
     <row r="2627" spans="1:3">
@@ -29559,10 +29562,10 @@
         <v>2625</v>
       </c>
       <c r="B2627" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C2627" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
     </row>
     <row r="2628" spans="1:3">
@@ -29570,10 +29573,10 @@
         <v>2626</v>
       </c>
       <c r="B2628" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C2628" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
     </row>
     <row r="2629" spans="1:3">
@@ -29581,10 +29584,10 @@
         <v>2627</v>
       </c>
       <c r="B2629" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C2629" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
     </row>
     <row r="2630" spans="1:3">
@@ -29592,10 +29595,10 @@
         <v>2628</v>
       </c>
       <c r="B2630" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C2630" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
     </row>
     <row r="2631" spans="1:3">
@@ -29603,10 +29606,10 @@
         <v>2629</v>
       </c>
       <c r="B2631" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C2631" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
     </row>
     <row r="2632" spans="1:3">
@@ -29614,10 +29617,10 @@
         <v>2630</v>
       </c>
       <c r="B2632" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C2632" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
     </row>
     <row r="2633" spans="1:3">
@@ -29625,10 +29628,10 @@
         <v>2631</v>
       </c>
       <c r="B2633" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C2633" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
     </row>
     <row r="2634" spans="1:3">
@@ -29636,10 +29639,10 @@
         <v>2632</v>
       </c>
       <c r="B2634" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C2634" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
     </row>
     <row r="2635" spans="1:3">
@@ -29647,10 +29650,10 @@
         <v>2633</v>
       </c>
       <c r="B2635" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C2635" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
     </row>
     <row r="2636" spans="1:3">
@@ -29658,10 +29661,10 @@
         <v>2634</v>
       </c>
       <c r="B2636" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C2636" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
     </row>
     <row r="2637" spans="1:3">
@@ -29669,10 +29672,10 @@
         <v>2635</v>
       </c>
       <c r="B2637" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C2637" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
     </row>
     <row r="2638" spans="1:3">
@@ -29680,10 +29683,10 @@
         <v>2636</v>
       </c>
       <c r="B2638" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C2638" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
     </row>
     <row r="2639" spans="1:3">
@@ -29691,10 +29694,10 @@
         <v>2637</v>
       </c>
       <c r="B2639" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C2639" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
     </row>
     <row r="2640" spans="1:3">
@@ -29702,10 +29705,10 @@
         <v>2638</v>
       </c>
       <c r="B2640" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C2640" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
     </row>
     <row r="2641" spans="1:3">
@@ -29713,10 +29716,10 @@
         <v>2639</v>
       </c>
       <c r="B2641" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C2641" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
     </row>
     <row r="2642" spans="1:3">
@@ -29724,10 +29727,10 @@
         <v>2640</v>
       </c>
       <c r="B2642" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C2642" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
     </row>
     <row r="2643" spans="1:3">
@@ -29735,10 +29738,10 @@
         <v>2641</v>
       </c>
       <c r="B2643" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C2643" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
     </row>
     <row r="2644" spans="1:3">
@@ -29746,10 +29749,10 @@
         <v>2642</v>
       </c>
       <c r="B2644" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C2644" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
     </row>
     <row r="2645" spans="1:3">
@@ -29757,10 +29760,10 @@
         <v>2643</v>
       </c>
       <c r="B2645" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C2645" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
     </row>
     <row r="2646" spans="1:3">
@@ -29768,10 +29771,10 @@
         <v>2644</v>
       </c>
       <c r="B2646" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C2646" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
     </row>
     <row r="2647" spans="1:3">
@@ -29779,10 +29782,10 @@
         <v>2645</v>
       </c>
       <c r="B2647" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C2647" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
     </row>
     <row r="2648" spans="1:3">
@@ -29790,10 +29793,10 @@
         <v>2646</v>
       </c>
       <c r="B2648" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C2648" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
     </row>
     <row r="2649" spans="1:3">
@@ -29801,10 +29804,10 @@
         <v>2647</v>
       </c>
       <c r="B2649" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C2649" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
     </row>
     <row r="2650" spans="1:3">
@@ -29812,10 +29815,10 @@
         <v>2648</v>
       </c>
       <c r="B2650" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C2650" t="s">
-        <v>88</v>
+        <v>78</v>
       </c>
     </row>
     <row r="2651" spans="1:3">
@@ -29823,10 +29826,10 @@
         <v>2649</v>
       </c>
       <c r="B2651" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C2651" t="s">
-        <v>88</v>
+        <v>78</v>
       </c>
     </row>
     <row r="2652" spans="1:3">
@@ -29834,10 +29837,10 @@
         <v>2650</v>
       </c>
       <c r="B2652" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C2652" t="s">
-        <v>88</v>
+        <v>78</v>
       </c>
     </row>
     <row r="2653" spans="1:3">
@@ -29845,10 +29848,10 @@
         <v>2651</v>
       </c>
       <c r="B2653" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C2653" t="s">
-        <v>88</v>
+        <v>78</v>
       </c>
     </row>
     <row r="2654" spans="1:3">
@@ -29856,10 +29859,10 @@
         <v>2652</v>
       </c>
       <c r="B2654" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C2654" t="s">
-        <v>88</v>
+        <v>78</v>
       </c>
     </row>
     <row r="2655" spans="1:3">
@@ -29867,10 +29870,10 @@
         <v>2653</v>
       </c>
       <c r="B2655" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C2655" t="s">
-        <v>88</v>
+        <v>78</v>
       </c>
     </row>
     <row r="2656" spans="1:3">
@@ -29878,10 +29881,10 @@
         <v>2654</v>
       </c>
       <c r="B2656" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C2656" t="s">
-        <v>88</v>
+        <v>78</v>
       </c>
     </row>
     <row r="2657" spans="1:3">
@@ -29889,10 +29892,10 @@
         <v>2655</v>
       </c>
       <c r="B2657" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C2657" t="s">
-        <v>88</v>
+        <v>78</v>
       </c>
     </row>
     <row r="2658" spans="1:3">
@@ -29900,10 +29903,10 @@
         <v>2656</v>
       </c>
       <c r="B2658" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C2658" t="s">
-        <v>88</v>
+        <v>78</v>
       </c>
     </row>
     <row r="2659" spans="1:3">
@@ -29911,10 +29914,10 @@
         <v>2657</v>
       </c>
       <c r="B2659" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C2659" t="s">
-        <v>88</v>
+        <v>78</v>
       </c>
     </row>
     <row r="2660" spans="1:3">
@@ -29922,10 +29925,10 @@
         <v>2658</v>
       </c>
       <c r="B2660" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C2660" t="s">
-        <v>88</v>
+        <v>78</v>
       </c>
     </row>
     <row r="2661" spans="1:3">
@@ -29933,10 +29936,10 @@
         <v>2659</v>
       </c>
       <c r="B2661" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C2661" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
     </row>
     <row r="2662" spans="1:3">
@@ -29944,10 +29947,10 @@
         <v>2660</v>
       </c>
       <c r="B2662" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C2662" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
     </row>
     <row r="2663" spans="1:3">
@@ -29955,10 +29958,10 @@
         <v>2661</v>
       </c>
       <c r="B2663" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C2663" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
     </row>
     <row r="2664" spans="1:3">
@@ -29966,10 +29969,10 @@
         <v>2662</v>
       </c>
       <c r="B2664" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C2664" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
     </row>
     <row r="2665" spans="1:3">
@@ -29977,10 +29980,10 @@
         <v>2663</v>
       </c>
       <c r="B2665" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C2665" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
     </row>
     <row r="2666" spans="1:3">
@@ -29988,10 +29991,10 @@
         <v>2664</v>
       </c>
       <c r="B2666" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C2666" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
     </row>
     <row r="2667" spans="1:3">
@@ -29999,10 +30002,10 @@
         <v>2665</v>
       </c>
       <c r="B2667" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C2667" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
     </row>
     <row r="2668" spans="1:3">
@@ -30010,10 +30013,10 @@
         <v>2666</v>
       </c>
       <c r="B2668" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C2668" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
     </row>
     <row r="2669" spans="1:3">
@@ -30021,10 +30024,10 @@
         <v>2667</v>
       </c>
       <c r="B2669" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C2669" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
     </row>
     <row r="2670" spans="1:3">
@@ -30032,10 +30035,10 @@
         <v>2668</v>
       </c>
       <c r="B2670" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C2670" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
     </row>
     <row r="2671" spans="1:3">
@@ -30043,10 +30046,10 @@
         <v>2669</v>
       </c>
       <c r="B2671" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C2671" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
     </row>
     <row r="2672" spans="1:3">
@@ -30054,10 +30057,10 @@
         <v>2670</v>
       </c>
       <c r="B2672" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C2672" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
     </row>
     <row r="2673" spans="1:3">
@@ -30065,10 +30068,10 @@
         <v>2671</v>
       </c>
       <c r="B2673" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C2673" t="s">
-        <v>96</v>
+        <v>80</v>
       </c>
     </row>
     <row r="2674" spans="1:3">
@@ -30076,10 +30079,10 @@
         <v>2672</v>
       </c>
       <c r="B2674" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C2674" t="s">
-        <v>96</v>
+        <v>80</v>
       </c>
     </row>
     <row r="2675" spans="1:3">
@@ -30087,10 +30090,10 @@
         <v>2673</v>
       </c>
       <c r="B2675" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C2675" t="s">
-        <v>96</v>
+        <v>80</v>
       </c>
     </row>
     <row r="2676" spans="1:3">
@@ -30098,10 +30101,10 @@
         <v>2674</v>
       </c>
       <c r="B2676" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C2676" t="s">
-        <v>96</v>
+        <v>80</v>
       </c>
     </row>
     <row r="2677" spans="1:3">
@@ -30109,10 +30112,10 @@
         <v>2675</v>
       </c>
       <c r="B2677" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C2677" t="s">
-        <v>96</v>
+        <v>80</v>
       </c>
     </row>
     <row r="2678" spans="1:3">
@@ -30120,10 +30123,10 @@
         <v>2676</v>
       </c>
       <c r="B2678" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C2678" t="s">
-        <v>96</v>
+        <v>80</v>
       </c>
     </row>
     <row r="2679" spans="1:3">
@@ -30131,10 +30134,10 @@
         <v>2677</v>
       </c>
       <c r="B2679" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C2679" t="s">
-        <v>96</v>
+        <v>80</v>
       </c>
     </row>
     <row r="2680" spans="1:3">
@@ -30142,10 +30145,10 @@
         <v>2678</v>
       </c>
       <c r="B2680" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C2680" t="s">
-        <v>96</v>
+        <v>80</v>
       </c>
     </row>
     <row r="2681" spans="1:3">
@@ -30153,10 +30156,10 @@
         <v>2679</v>
       </c>
       <c r="B2681" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C2681" t="s">
-        <v>96</v>
+        <v>80</v>
       </c>
     </row>
     <row r="2682" spans="1:3">
@@ -30164,10 +30167,10 @@
         <v>2680</v>
       </c>
       <c r="B2682" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C2682" t="s">
-        <v>96</v>
+        <v>80</v>
       </c>
     </row>
     <row r="2683" spans="1:3">
@@ -30175,10 +30178,10 @@
         <v>2681</v>
       </c>
       <c r="B2683" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C2683" t="s">
-        <v>96</v>
+        <v>81</v>
       </c>
     </row>
     <row r="2684" spans="1:3">
@@ -30186,10 +30189,10 @@
         <v>2682</v>
       </c>
       <c r="B2684" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C2684" t="s">
-        <v>96</v>
+        <v>81</v>
       </c>
     </row>
     <row r="2685" spans="1:3">
@@ -30197,10 +30200,10 @@
         <v>2683</v>
       </c>
       <c r="B2685" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C2685" t="s">
-        <v>96</v>
+        <v>81</v>
       </c>
     </row>
     <row r="2686" spans="1:3">
@@ -30208,10 +30211,10 @@
         <v>2684</v>
       </c>
       <c r="B2686" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C2686" t="s">
-        <v>96</v>
+        <v>81</v>
       </c>
     </row>
     <row r="2687" spans="1:3">
@@ -30219,10 +30222,10 @@
         <v>2685</v>
       </c>
       <c r="B2687" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C2687" t="s">
-        <v>96</v>
+        <v>81</v>
       </c>
     </row>
     <row r="2688" spans="1:3">
@@ -30230,10 +30233,10 @@
         <v>2686</v>
       </c>
       <c r="B2688" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C2688" t="s">
-        <v>96</v>
+        <v>81</v>
       </c>
     </row>
     <row r="2689" spans="1:3">
@@ -30241,10 +30244,10 @@
         <v>2687</v>
       </c>
       <c r="B2689" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C2689" t="s">
-        <v>96</v>
+        <v>81</v>
       </c>
     </row>
     <row r="2690" spans="1:3">
@@ -30252,10 +30255,10 @@
         <v>2688</v>
       </c>
       <c r="B2690" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C2690" t="s">
-        <v>96</v>
+        <v>81</v>
       </c>
     </row>
     <row r="2691" spans="1:3">
@@ -30263,10 +30266,10 @@
         <v>2689</v>
       </c>
       <c r="B2691" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C2691" t="s">
-        <v>96</v>
+        <v>81</v>
       </c>
     </row>
     <row r="2692" spans="1:3">
@@ -30274,10 +30277,10 @@
         <v>2690</v>
       </c>
       <c r="B2692" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C2692" t="s">
-        <v>96</v>
+        <v>81</v>
       </c>
     </row>
     <row r="2693" spans="1:3">
@@ -30285,10 +30288,10 @@
         <v>2691</v>
       </c>
       <c r="B2693" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C2693" t="s">
-        <v>96</v>
+        <v>81</v>
       </c>
     </row>
     <row r="2694" spans="1:3">
@@ -30296,10 +30299,10 @@
         <v>2692</v>
       </c>
       <c r="B2694" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C2694" t="s">
-        <v>96</v>
+        <v>81</v>
       </c>
     </row>
     <row r="2695" spans="1:3">
@@ -30307,10 +30310,10 @@
         <v>2693</v>
       </c>
       <c r="B2695" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C2695" t="s">
-        <v>96</v>
+        <v>81</v>
       </c>
     </row>
     <row r="2696" spans="1:3">
@@ -30318,10 +30321,10 @@
         <v>2694</v>
       </c>
       <c r="B2696" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C2696" t="s">
-        <v>97</v>
+        <v>81</v>
       </c>
     </row>
     <row r="2697" spans="1:3">
@@ -30329,10 +30332,10 @@
         <v>2695</v>
       </c>
       <c r="B2697" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C2697" t="s">
-        <v>97</v>
+        <v>81</v>
       </c>
     </row>
     <row r="2698" spans="1:3">
@@ -30340,10 +30343,10 @@
         <v>2696</v>
       </c>
       <c r="B2698" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C2698" t="s">
-        <v>97</v>
+        <v>81</v>
       </c>
     </row>
     <row r="2699" spans="1:3">
@@ -30351,10 +30354,10 @@
         <v>2697</v>
       </c>
       <c r="B2699" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C2699" t="s">
-        <v>97</v>
+        <v>81</v>
       </c>
     </row>
     <row r="2700" spans="1:3">
@@ -30362,10 +30365,10 @@
         <v>2698</v>
       </c>
       <c r="B2700" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C2700" t="s">
-        <v>97</v>
+        <v>81</v>
       </c>
     </row>
     <row r="2701" spans="1:3">
@@ -30373,10 +30376,10 @@
         <v>2699</v>
       </c>
       <c r="B2701" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C2701" t="s">
-        <v>97</v>
+        <v>81</v>
       </c>
     </row>
     <row r="2702" spans="1:3">
@@ -30384,10 +30387,10 @@
         <v>2700</v>
       </c>
       <c r="B2702" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C2702" t="s">
-        <v>97</v>
+        <v>81</v>
       </c>
     </row>
     <row r="2703" spans="1:3">
@@ -30395,10 +30398,10 @@
         <v>2701</v>
       </c>
       <c r="B2703" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C2703" t="s">
-        <v>97</v>
+        <v>81</v>
       </c>
     </row>
     <row r="2704" spans="1:3">
@@ -30406,10 +30409,10 @@
         <v>2702</v>
       </c>
       <c r="B2704" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C2704" t="s">
-        <v>97</v>
+        <v>81</v>
       </c>
     </row>
     <row r="2705" spans="1:3">
@@ -30417,10 +30420,10 @@
         <v>2703</v>
       </c>
       <c r="B2705" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C2705" t="s">
-        <v>97</v>
+        <v>69</v>
       </c>
     </row>
     <row r="2706" spans="1:3">
@@ -30428,10 +30431,10 @@
         <v>2704</v>
       </c>
       <c r="B2706" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C2706" t="s">
-        <v>97</v>
+        <v>69</v>
       </c>
     </row>
     <row r="2707" spans="1:3">
@@ -30439,10 +30442,10 @@
         <v>2705</v>
       </c>
       <c r="B2707" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C2707" t="s">
-        <v>97</v>
+        <v>69</v>
       </c>
     </row>
     <row r="2708" spans="1:3">
@@ -30450,10 +30453,10 @@
         <v>2706</v>
       </c>
       <c r="B2708" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C2708" t="s">
-        <v>97</v>
+        <v>69</v>
       </c>
     </row>
     <row r="2709" spans="1:3">
@@ -30461,10 +30464,10 @@
         <v>2707</v>
       </c>
       <c r="B2709" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C2709" t="s">
-        <v>97</v>
+        <v>69</v>
       </c>
     </row>
     <row r="2710" spans="1:3">
@@ -30472,10 +30475,10 @@
         <v>2708</v>
       </c>
       <c r="B2710" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C2710" t="s">
-        <v>97</v>
+        <v>69</v>
       </c>
     </row>
     <row r="2711" spans="1:3">
@@ -30483,10 +30486,10 @@
         <v>2709</v>
       </c>
       <c r="B2711" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C2711" t="s">
-        <v>97</v>
+        <v>69</v>
       </c>
     </row>
     <row r="2712" spans="1:3">
@@ -30494,10 +30497,10 @@
         <v>2710</v>
       </c>
       <c r="B2712" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C2712" t="s">
-        <v>86</v>
+        <v>69</v>
       </c>
     </row>
     <row r="2713" spans="1:3">
@@ -30505,10 +30508,10 @@
         <v>2711</v>
       </c>
       <c r="B2713" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C2713" t="s">
-        <v>86</v>
+        <v>69</v>
       </c>
     </row>
     <row r="2714" spans="1:3">
@@ -30516,10 +30519,10 @@
         <v>2712</v>
       </c>
       <c r="B2714" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C2714" t="s">
-        <v>86</v>
+        <v>69</v>
       </c>
     </row>
     <row r="2715" spans="1:3">
@@ -30527,10 +30530,10 @@
         <v>2713</v>
       </c>
       <c r="B2715" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C2715" t="s">
-        <v>86</v>
+        <v>69</v>
       </c>
     </row>
     <row r="2716" spans="1:3">
@@ -30538,10 +30541,10 @@
         <v>2714</v>
       </c>
       <c r="B2716" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C2716" t="s">
-        <v>86</v>
+        <v>69</v>
       </c>
     </row>
     <row r="2717" spans="1:3">
@@ -30549,10 +30552,10 @@
         <v>2715</v>
       </c>
       <c r="B2717" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C2717" t="s">
-        <v>86</v>
+        <v>69</v>
       </c>
     </row>
     <row r="2718" spans="1:3">
@@ -30560,10 +30563,10 @@
         <v>2716</v>
       </c>
       <c r="B2718" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C2718" t="s">
-        <v>86</v>
+        <v>69</v>
       </c>
     </row>
     <row r="2719" spans="1:3">
@@ -30571,10 +30574,10 @@
         <v>2717</v>
       </c>
       <c r="B2719" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C2719" t="s">
-        <v>86</v>
+        <v>69</v>
       </c>
     </row>
     <row r="2720" spans="1:3">
@@ -30582,10 +30585,10 @@
         <v>2718</v>
       </c>
       <c r="B2720" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C2720" t="s">
-        <v>86</v>
+        <v>69</v>
       </c>
     </row>
     <row r="2721" spans="1:3">
@@ -30593,10 +30596,10 @@
         <v>2719</v>
       </c>
       <c r="B2721" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C2721" t="s">
-        <v>86</v>
+        <v>69</v>
       </c>
     </row>
     <row r="2722" spans="1:3">
@@ -30604,10 +30607,10 @@
         <v>2720</v>
       </c>
       <c r="B2722" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C2722" t="s">
-        <v>86</v>
+        <v>69</v>
       </c>
     </row>
     <row r="2723" spans="1:3">
@@ -30615,10 +30618,10 @@
         <v>2721</v>
       </c>
       <c r="B2723" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C2723" t="s">
-        <v>86</v>
+        <v>69</v>
       </c>
     </row>
     <row r="2724" spans="1:3">
@@ -30626,10 +30629,10 @@
         <v>2722</v>
       </c>
       <c r="B2724" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C2724" t="s">
-        <v>86</v>
+        <v>69</v>
       </c>
     </row>
     <row r="2725" spans="1:3">
@@ -30637,10 +30640,10 @@
         <v>2723</v>
       </c>
       <c r="B2725" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C2725" t="s">
-        <v>86</v>
+        <v>69</v>
       </c>
     </row>
     <row r="2726" spans="1:3">
@@ -30648,10 +30651,10 @@
         <v>2724</v>
       </c>
       <c r="B2726" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C2726" t="s">
-        <v>86</v>
+        <v>69</v>
       </c>
     </row>
     <row r="2727" spans="1:3">
@@ -30659,10 +30662,10 @@
         <v>2725</v>
       </c>
       <c r="B2727" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C2727" t="s">
-        <v>86</v>
+        <v>69</v>
       </c>
     </row>
     <row r="2728" spans="1:3">
@@ -30670,10 +30673,10 @@
         <v>2726</v>
       </c>
       <c r="B2728" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C2728" t="s">
-        <v>86</v>
+        <v>69</v>
       </c>
     </row>
     <row r="2729" spans="1:3">
@@ -30681,10 +30684,10 @@
         <v>2727</v>
       </c>
       <c r="B2729" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C2729" t="s">
-        <v>86</v>
+        <v>69</v>
       </c>
     </row>
     <row r="2730" spans="1:3">
@@ -30692,10 +30695,10 @@
         <v>2728</v>
       </c>
       <c r="B2730" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C2730" t="s">
-        <v>86</v>
+        <v>69</v>
       </c>
     </row>
     <row r="2731" spans="1:3">
@@ -30703,10 +30706,10 @@
         <v>2729</v>
       </c>
       <c r="B2731" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C2731" t="s">
-        <v>86</v>
+        <v>69</v>
       </c>
     </row>
     <row r="2732" spans="1:3">
@@ -30714,10 +30717,10 @@
         <v>2730</v>
       </c>
       <c r="B2732" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C2732" t="s">
-        <v>86</v>
+        <v>69</v>
       </c>
     </row>
     <row r="2733" spans="1:3">
@@ -30725,10 +30728,10 @@
         <v>2731</v>
       </c>
       <c r="B2733" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C2733" t="s">
-        <v>86</v>
+        <v>69</v>
       </c>
     </row>
     <row r="2734" spans="1:3">
@@ -30736,10 +30739,10 @@
         <v>2732</v>
       </c>
       <c r="B2734" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C2734" t="s">
-        <v>90</v>
+        <v>69</v>
       </c>
     </row>
     <row r="2735" spans="1:3">
@@ -30747,10 +30750,10 @@
         <v>2733</v>
       </c>
       <c r="B2735" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C2735" t="s">
-        <v>90</v>
+        <v>69</v>
       </c>
     </row>
     <row r="2736" spans="1:3">
@@ -30758,10 +30761,10 @@
         <v>2734</v>
       </c>
       <c r="B2736" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C2736" t="s">
-        <v>90</v>
+        <v>69</v>
       </c>
     </row>
     <row r="2737" spans="1:3">
@@ -30769,10 +30772,10 @@
         <v>2735</v>
       </c>
       <c r="B2737" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C2737" t="s">
-        <v>90</v>
+        <v>69</v>
       </c>
     </row>
     <row r="2738" spans="1:3">
@@ -30780,10 +30783,10 @@
         <v>2736</v>
       </c>
       <c r="B2738" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C2738" t="s">
-        <v>90</v>
+        <v>69</v>
       </c>
     </row>
     <row r="2739" spans="1:3">
@@ -30791,10 +30794,10 @@
         <v>2737</v>
       </c>
       <c r="B2739" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C2739" t="s">
-        <v>90</v>
+        <v>70</v>
       </c>
     </row>
     <row r="2740" spans="1:3">
@@ -30802,10 +30805,10 @@
         <v>2738</v>
       </c>
       <c r="B2740" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C2740" t="s">
-        <v>90</v>
+        <v>70</v>
       </c>
     </row>
     <row r="2741" spans="1:3">
@@ -30813,10 +30816,10 @@
         <v>2739</v>
       </c>
       <c r="B2741" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C2741" t="s">
-        <v>90</v>
+        <v>70</v>
       </c>
     </row>
     <row r="2742" spans="1:3">
@@ -30824,10 +30827,10 @@
         <v>2740</v>
       </c>
       <c r="B2742" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C2742" t="s">
-        <v>90</v>
+        <v>70</v>
       </c>
     </row>
     <row r="2743" spans="1:3">
@@ -30835,10 +30838,10 @@
         <v>2741</v>
       </c>
       <c r="B2743" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C2743" t="s">
-        <v>90</v>
+        <v>70</v>
       </c>
     </row>
     <row r="2744" spans="1:3">
@@ -30846,10 +30849,10 @@
         <v>2742</v>
       </c>
       <c r="B2744" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C2744" t="s">
-        <v>90</v>
+        <v>70</v>
       </c>
     </row>
     <row r="2745" spans="1:3">
@@ -30857,10 +30860,10 @@
         <v>2743</v>
       </c>
       <c r="B2745" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C2745" t="s">
-        <v>90</v>
+        <v>70</v>
       </c>
     </row>
     <row r="2746" spans="1:3">
@@ -30868,10 +30871,10 @@
         <v>2744</v>
       </c>
       <c r="B2746" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C2746" t="s">
-        <v>90</v>
+        <v>70</v>
       </c>
     </row>
     <row r="2747" spans="1:3">
@@ -30879,10 +30882,10 @@
         <v>2745</v>
       </c>
       <c r="B2747" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C2747" t="s">
-        <v>90</v>
+        <v>70</v>
       </c>
     </row>
     <row r="2748" spans="1:3">
@@ -30890,10 +30893,10 @@
         <v>2746</v>
       </c>
       <c r="B2748" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C2748" t="s">
-        <v>87</v>
+        <v>70</v>
       </c>
     </row>
     <row r="2749" spans="1:3">
@@ -30901,10 +30904,10 @@
         <v>2747</v>
       </c>
       <c r="B2749" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C2749" t="s">
-        <v>87</v>
+        <v>70</v>
       </c>
     </row>
     <row r="2750" spans="1:3">
@@ -30912,10 +30915,10 @@
         <v>2748</v>
       </c>
       <c r="B2750" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C2750" t="s">
-        <v>87</v>
+        <v>70</v>
       </c>
     </row>
     <row r="2751" spans="1:3">
@@ -30923,10 +30926,10 @@
         <v>2749</v>
       </c>
       <c r="B2751" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C2751" t="s">
-        <v>87</v>
+        <v>70</v>
       </c>
     </row>
     <row r="2752" spans="1:3">
@@ -30934,10 +30937,10 @@
         <v>2750</v>
       </c>
       <c r="B2752" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C2752" t="s">
-        <v>87</v>
+        <v>70</v>
       </c>
     </row>
     <row r="2753" spans="1:3">
@@ -30945,10 +30948,10 @@
         <v>2751</v>
       </c>
       <c r="B2753" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C2753" t="s">
-        <v>87</v>
+        <v>70</v>
       </c>
     </row>
     <row r="2754" spans="1:3">
@@ -30956,10 +30959,10 @@
         <v>2752</v>
       </c>
       <c r="B2754" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C2754" t="s">
-        <v>87</v>
+        <v>70</v>
       </c>
     </row>
     <row r="2755" spans="1:3">
@@ -30967,10 +30970,10 @@
         <v>2753</v>
       </c>
       <c r="B2755" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C2755" t="s">
-        <v>87</v>
+        <v>70</v>
       </c>
     </row>
     <row r="2756" spans="1:3">
@@ -30978,10 +30981,10 @@
         <v>2754</v>
       </c>
       <c r="B2756" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C2756" t="s">
-        <v>87</v>
+        <v>70</v>
       </c>
     </row>
     <row r="2757" spans="1:3">
@@ -30989,10 +30992,10 @@
         <v>2755</v>
       </c>
       <c r="B2757" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C2757" t="s">
-        <v>87</v>
+        <v>70</v>
       </c>
     </row>
     <row r="2758" spans="1:3">
@@ -31000,10 +31003,10 @@
         <v>2756</v>
       </c>
       <c r="B2758" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C2758" t="s">
-        <v>87</v>
+        <v>72</v>
       </c>
     </row>
     <row r="2759" spans="1:3">
@@ -31011,10 +31014,10 @@
         <v>2757</v>
       </c>
       <c r="B2759" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C2759" t="s">
-        <v>87</v>
+        <v>72</v>
       </c>
     </row>
     <row r="2760" spans="1:3">
@@ -31022,10 +31025,10 @@
         <v>2758</v>
       </c>
       <c r="B2760" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C2760" t="s">
-        <v>87</v>
+        <v>72</v>
       </c>
     </row>
     <row r="2761" spans="1:3">
@@ -31033,10 +31036,10 @@
         <v>2759</v>
       </c>
       <c r="B2761" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C2761" t="s">
-        <v>87</v>
+        <v>72</v>
       </c>
     </row>
     <row r="2762" spans="1:3">
@@ -31044,10 +31047,10 @@
         <v>2760</v>
       </c>
       <c r="B2762" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C2762" t="s">
-        <v>87</v>
+        <v>72</v>
       </c>
     </row>
     <row r="2763" spans="1:3">
@@ -31055,10 +31058,10 @@
         <v>2761</v>
       </c>
       <c r="B2763" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C2763" t="s">
-        <v>87</v>
+        <v>72</v>
       </c>
     </row>
     <row r="2764" spans="1:3">
@@ -31066,10 +31069,10 @@
         <v>2762</v>
       </c>
       <c r="B2764" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C2764" t="s">
-        <v>87</v>
+        <v>72</v>
       </c>
     </row>
     <row r="2765" spans="1:3">
@@ -31077,10 +31080,10 @@
         <v>2763</v>
       </c>
       <c r="B2765" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C2765" t="s">
-        <v>87</v>
+        <v>72</v>
       </c>
     </row>
     <row r="2766" spans="1:3">
@@ -31088,10 +31091,10 @@
         <v>2764</v>
       </c>
       <c r="B2766" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C2766" t="s">
-        <v>87</v>
+        <v>72</v>
       </c>
     </row>
     <row r="2767" spans="1:3">
@@ -31099,10 +31102,10 @@
         <v>2765</v>
       </c>
       <c r="B2767" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C2767" t="s">
-        <v>87</v>
+        <v>72</v>
       </c>
     </row>
     <row r="2768" spans="1:3">
@@ -31110,10 +31113,10 @@
         <v>2766</v>
       </c>
       <c r="B2768" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C2768" t="s">
-        <v>87</v>
+        <v>72</v>
       </c>
     </row>
     <row r="2769" spans="1:3">
@@ -31121,10 +31124,10 @@
         <v>2767</v>
       </c>
       <c r="B2769" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C2769" t="s">
-        <v>87</v>
+        <v>72</v>
       </c>
     </row>
     <row r="2770" spans="1:3">
@@ -31132,10 +31135,10 @@
         <v>2768</v>
       </c>
       <c r="B2770" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C2770" t="s">
-        <v>87</v>
+        <v>72</v>
       </c>
     </row>
     <row r="2771" spans="1:3">
@@ -31143,10 +31146,10 @@
         <v>2769</v>
       </c>
       <c r="B2771" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C2771" t="s">
-        <v>87</v>
+        <v>72</v>
       </c>
     </row>
     <row r="2772" spans="1:3">
@@ -31154,10 +31157,10 @@
         <v>2770</v>
       </c>
       <c r="B2772" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C2772" t="s">
-        <v>87</v>
+        <v>72</v>
       </c>
     </row>
     <row r="2773" spans="1:3">
@@ -31165,10 +31168,10 @@
         <v>2771</v>
       </c>
       <c r="B2773" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C2773" t="s">
-        <v>87</v>
+        <v>72</v>
       </c>
     </row>
     <row r="2774" spans="1:3">
@@ -31176,10 +31179,10 @@
         <v>2772</v>
       </c>
       <c r="B2774" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C2774" t="s">
-        <v>87</v>
+        <v>72</v>
       </c>
     </row>
     <row r="2775" spans="1:3">
@@ -31187,10 +31190,10 @@
         <v>2773</v>
       </c>
       <c r="B2775" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C2775" t="s">
-        <v>87</v>
+        <v>72</v>
       </c>
     </row>
     <row r="2776" spans="1:3">
@@ -31198,10 +31201,10 @@
         <v>2774</v>
       </c>
       <c r="B2776" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C2776" t="s">
-        <v>87</v>
+        <v>72</v>
       </c>
     </row>
     <row r="2777" spans="1:3">
@@ -31209,10 +31212,10 @@
         <v>2775</v>
       </c>
       <c r="B2777" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C2777" t="s">
-        <v>87</v>
+        <v>72</v>
       </c>
     </row>
     <row r="2778" spans="1:3">
@@ -31220,10 +31223,10 @@
         <v>2776</v>
       </c>
       <c r="B2778" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C2778" t="s">
-        <v>87</v>
+        <v>72</v>
       </c>
     </row>
     <row r="2779" spans="1:3">
@@ -31231,10 +31234,10 @@
         <v>2777</v>
       </c>
       <c r="B2779" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C2779" t="s">
-        <v>92</v>
+        <v>72</v>
       </c>
     </row>
     <row r="2780" spans="1:3">
@@ -31242,10 +31245,10 @@
         <v>2778</v>
       </c>
       <c r="B2780" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C2780" t="s">
-        <v>92</v>
+        <v>72</v>
       </c>
     </row>
     <row r="2781" spans="1:3">
@@ -31253,10 +31256,10 @@
         <v>2779</v>
       </c>
       <c r="B2781" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C2781" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
     </row>
     <row r="2782" spans="1:3">
@@ -31264,10 +31267,10 @@
         <v>2780</v>
       </c>
       <c r="B2782" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C2782" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
     </row>
     <row r="2783" spans="1:3">
@@ -31275,10 +31278,10 @@
         <v>2781</v>
       </c>
       <c r="B2783" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C2783" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
     </row>
     <row r="2784" spans="1:3">
@@ -31286,10 +31289,10 @@
         <v>2782</v>
       </c>
       <c r="B2784" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C2784" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
     </row>
     <row r="2785" spans="1:3">
@@ -31297,10 +31300,10 @@
         <v>2783</v>
       </c>
       <c r="B2785" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C2785" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
     </row>
     <row r="2786" spans="1:3">
@@ -31308,10 +31311,10 @@
         <v>2784</v>
       </c>
       <c r="B2786" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C2786" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
     </row>
     <row r="2787" spans="1:3">
@@ -31319,10 +31322,10 @@
         <v>2785</v>
       </c>
       <c r="B2787" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C2787" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
     </row>
     <row r="2788" spans="1:3">
@@ -31330,10 +31333,10 @@
         <v>2786</v>
       </c>
       <c r="B2788" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C2788" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
     </row>
     <row r="2789" spans="1:3">
@@ -31341,10 +31344,10 @@
         <v>2787</v>
       </c>
       <c r="B2789" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C2789" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
     </row>
     <row r="2790" spans="1:3">
@@ -31352,10 +31355,10 @@
         <v>2788</v>
       </c>
       <c r="B2790" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C2790" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
     </row>
     <row r="2791" spans="1:3">
@@ -31363,10 +31366,10 @@
         <v>2789</v>
       </c>
       <c r="B2791" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C2791" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
     </row>
     <row r="2792" spans="1:3">
@@ -31374,10 +31377,10 @@
         <v>2790</v>
       </c>
       <c r="B2792" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C2792" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
     </row>
     <row r="2793" spans="1:3">
@@ -31385,10 +31388,10 @@
         <v>2791</v>
       </c>
       <c r="B2793" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C2793" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
     </row>
     <row r="2794" spans="1:3">
@@ -31396,10 +31399,10 @@
         <v>2792</v>
       </c>
       <c r="B2794" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C2794" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
     </row>
     <row r="2795" spans="1:3">
@@ -31407,10 +31410,10 @@
         <v>2793</v>
       </c>
       <c r="B2795" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C2795" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
     </row>
     <row r="2796" spans="1:3">
@@ -31418,10 +31421,10 @@
         <v>2794</v>
       </c>
       <c r="B2796" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C2796" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
     </row>
     <row r="2797" spans="1:3">
@@ -31429,10 +31432,10 @@
         <v>2795</v>
       </c>
       <c r="B2797" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C2797" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
     </row>
     <row r="2798" spans="1:3">
@@ -31440,10 +31443,10 @@
         <v>2796</v>
       </c>
       <c r="B2798" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C2798" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="2799" spans="1:3">
@@ -31451,10 +31454,10 @@
         <v>2797</v>
       </c>
       <c r="B2799" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C2799" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="2800" spans="1:3">
@@ -31462,10 +31465,10 @@
         <v>2798</v>
       </c>
       <c r="B2800" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C2800" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="2801" spans="1:3">
@@ -31473,10 +31476,10 @@
         <v>2799</v>
       </c>
       <c r="B2801" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C2801" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="2802" spans="1:3">
@@ -31484,10 +31487,10 @@
         <v>2800</v>
       </c>
       <c r="B2802" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C2802" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="2803" spans="1:3">
@@ -31495,10 +31498,10 @@
         <v>2801</v>
       </c>
       <c r="B2803" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C2803" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="2804" spans="1:3">
@@ -31506,10 +31509,10 @@
         <v>2802</v>
       </c>
       <c r="B2804" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C2804" t="s">
-        <v>89</v>
+        <v>97</v>
       </c>
     </row>
     <row r="2805" spans="1:3">
@@ -31517,10 +31520,10 @@
         <v>2803</v>
       </c>
       <c r="B2805" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C2805" t="s">
-        <v>89</v>
+        <v>97</v>
       </c>
     </row>
     <row r="2806" spans="1:3">
@@ -31528,10 +31531,10 @@
         <v>2804</v>
       </c>
       <c r="B2806" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C2806" t="s">
-        <v>89</v>
+        <v>97</v>
       </c>
     </row>
     <row r="2807" spans="1:3">
@@ -31539,10 +31542,10 @@
         <v>2805</v>
       </c>
       <c r="B2807" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C2807" t="s">
-        <v>89</v>
+        <v>97</v>
       </c>
     </row>
     <row r="2808" spans="1:3">
@@ -31550,10 +31553,10 @@
         <v>2806</v>
       </c>
       <c r="B2808" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C2808" t="s">
-        <v>89</v>
+        <v>97</v>
       </c>
     </row>
     <row r="2809" spans="1:3">
@@ -31561,10 +31564,10 @@
         <v>2807</v>
       </c>
       <c r="B2809" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C2809" t="s">
-        <v>89</v>
+        <v>97</v>
       </c>
     </row>
     <row r="2810" spans="1:3">
@@ -31572,10 +31575,10 @@
         <v>2808</v>
       </c>
       <c r="B2810" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C2810" t="s">
-        <v>89</v>
+        <v>97</v>
       </c>
     </row>
     <row r="2811" spans="1:3">
@@ -31583,10 +31586,10 @@
         <v>2809</v>
       </c>
       <c r="B2811" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C2811" t="s">
-        <v>89</v>
+        <v>97</v>
       </c>
     </row>
     <row r="2812" spans="1:3">
@@ -31594,10 +31597,10 @@
         <v>2810</v>
       </c>
       <c r="B2812" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C2812" t="s">
-        <v>89</v>
+        <v>97</v>
       </c>
     </row>
     <row r="2813" spans="1:3">
@@ -31605,10 +31608,10 @@
         <v>2811</v>
       </c>
       <c r="B2813" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C2813" t="s">
-        <v>89</v>
+        <v>97</v>
       </c>
     </row>
     <row r="2814" spans="1:3">
@@ -31616,10 +31619,10 @@
         <v>2812</v>
       </c>
       <c r="B2814" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C2814" t="s">
-        <v>89</v>
+        <v>97</v>
       </c>
     </row>
     <row r="2815" spans="1:3">
@@ -31627,10 +31630,10 @@
         <v>2813</v>
       </c>
       <c r="B2815" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C2815" t="s">
-        <v>89</v>
+        <v>97</v>
       </c>
     </row>
     <row r="2816" spans="1:3">
@@ -31638,10 +31641,10 @@
         <v>2814</v>
       </c>
       <c r="B2816" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C2816" t="s">
-        <v>89</v>
+        <v>97</v>
       </c>
     </row>
     <row r="2817" spans="1:3">
@@ -31649,10 +31652,10 @@
         <v>2815</v>
       </c>
       <c r="B2817" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C2817" t="s">
-        <v>89</v>
+        <v>97</v>
       </c>
     </row>
     <row r="2818" spans="1:3">
@@ -31660,10 +31663,10 @@
         <v>2816</v>
       </c>
       <c r="B2818" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C2818" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
     </row>
     <row r="2819" spans="1:3">
@@ -31671,10 +31674,10 @@
         <v>2817</v>
       </c>
       <c r="B2819" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C2819" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
     </row>
     <row r="2820" spans="1:3">
@@ -31682,10 +31685,10 @@
         <v>2818</v>
       </c>
       <c r="B2820" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C2820" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
     </row>
     <row r="2821" spans="1:3">
@@ -31693,10 +31696,10 @@
         <v>2819</v>
       </c>
       <c r="B2821" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C2821" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
     </row>
     <row r="2822" spans="1:3">
@@ -31704,10 +31707,10 @@
         <v>2820</v>
       </c>
       <c r="B2822" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C2822" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
     </row>
     <row r="2823" spans="1:3">
@@ -31715,10 +31718,10 @@
         <v>2821</v>
       </c>
       <c r="B2823" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C2823" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
     </row>
     <row r="2824" spans="1:3">
@@ -31726,10 +31729,10 @@
         <v>2822</v>
       </c>
       <c r="B2824" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C2824" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
     </row>
     <row r="2825" spans="1:3">
@@ -31737,10 +31740,10 @@
         <v>2823</v>
       </c>
       <c r="B2825" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C2825" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
     </row>
     <row r="2826" spans="1:3">
@@ -31748,10 +31751,10 @@
         <v>2824</v>
       </c>
       <c r="B2826" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C2826" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
     </row>
     <row r="2827" spans="1:3">
@@ -31759,10 +31762,10 @@
         <v>2825</v>
       </c>
       <c r="B2827" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C2827" t="s">
-        <v>91</v>
+        <v>98</v>
       </c>
     </row>
     <row r="2828" spans="1:3">
@@ -31770,10 +31773,10 @@
         <v>2826</v>
       </c>
       <c r="B2828" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C2828" t="s">
-        <v>91</v>
+        <v>98</v>
       </c>
     </row>
     <row r="2829" spans="1:3">
@@ -31781,10 +31784,10 @@
         <v>2827</v>
       </c>
       <c r="B2829" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C2829" t="s">
-        <v>91</v>
+        <v>98</v>
       </c>
     </row>
     <row r="2830" spans="1:3">
@@ -31792,10 +31795,10 @@
         <v>2828</v>
       </c>
       <c r="B2830" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C2830" t="s">
-        <v>91</v>
+        <v>98</v>
       </c>
     </row>
     <row r="2831" spans="1:3">
@@ -31803,10 +31806,10 @@
         <v>2829</v>
       </c>
       <c r="B2831" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C2831" t="s">
-        <v>91</v>
+        <v>98</v>
       </c>
     </row>
     <row r="2832" spans="1:3">
@@ -31814,10 +31817,10 @@
         <v>2830</v>
       </c>
       <c r="B2832" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C2832" t="s">
-        <v>91</v>
+        <v>98</v>
       </c>
     </row>
     <row r="2833" spans="1:3">
@@ -31825,10 +31828,10 @@
         <v>2831</v>
       </c>
       <c r="B2833" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C2833" t="s">
-        <v>91</v>
+        <v>98</v>
       </c>
     </row>
     <row r="2834" spans="1:3">
@@ -31836,10 +31839,10 @@
         <v>2832</v>
       </c>
       <c r="B2834" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C2834" t="s">
-        <v>91</v>
+        <v>98</v>
       </c>
     </row>
     <row r="2835" spans="1:3">
@@ -31847,10 +31850,10 @@
         <v>2833</v>
       </c>
       <c r="B2835" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C2835" t="s">
-        <v>91</v>
+        <v>98</v>
       </c>
     </row>
     <row r="2836" spans="1:3">
@@ -31858,10 +31861,10 @@
         <v>2834</v>
       </c>
       <c r="B2836" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C2836" t="s">
-        <v>91</v>
+        <v>98</v>
       </c>
     </row>
     <row r="2837" spans="1:3">
@@ -31869,10 +31872,10 @@
         <v>2835</v>
       </c>
       <c r="B2837" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C2837" t="s">
-        <v>91</v>
+        <v>98</v>
       </c>
     </row>
     <row r="2838" spans="1:3">
@@ -31880,9 +31883,1450 @@
         <v>2836</v>
       </c>
       <c r="B2838" t="s">
+        <v>30</v>
+      </c>
+      <c r="C2838" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="2839" spans="1:3">
+      <c r="A2839" s="1">
+        <v>2837</v>
+      </c>
+      <c r="B2839" t="s">
+        <v>30</v>
+      </c>
+      <c r="C2839" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="2840" spans="1:3">
+      <c r="A2840" s="1">
+        <v>2838</v>
+      </c>
+      <c r="B2840" t="s">
+        <v>30</v>
+      </c>
+      <c r="C2840" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="2841" spans="1:3">
+      <c r="A2841" s="1">
+        <v>2839</v>
+      </c>
+      <c r="B2841" t="s">
+        <v>30</v>
+      </c>
+      <c r="C2841" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="2842" spans="1:3">
+      <c r="A2842" s="1">
+        <v>2840</v>
+      </c>
+      <c r="B2842" t="s">
+        <v>30</v>
+      </c>
+      <c r="C2842" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="2843" spans="1:3">
+      <c r="A2843" s="1">
+        <v>2841</v>
+      </c>
+      <c r="B2843" t="s">
+        <v>31</v>
+      </c>
+      <c r="C2843" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="2844" spans="1:3">
+      <c r="A2844" s="1">
+        <v>2842</v>
+      </c>
+      <c r="B2844" t="s">
+        <v>31</v>
+      </c>
+      <c r="C2844" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="2845" spans="1:3">
+      <c r="A2845" s="1">
+        <v>2843</v>
+      </c>
+      <c r="B2845" t="s">
+        <v>31</v>
+      </c>
+      <c r="C2845" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="2846" spans="1:3">
+      <c r="A2846" s="1">
+        <v>2844</v>
+      </c>
+      <c r="B2846" t="s">
+        <v>31</v>
+      </c>
+      <c r="C2846" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="2847" spans="1:3">
+      <c r="A2847" s="1">
+        <v>2845</v>
+      </c>
+      <c r="B2847" t="s">
+        <v>31</v>
+      </c>
+      <c r="C2847" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="2848" spans="1:3">
+      <c r="A2848" s="1">
+        <v>2846</v>
+      </c>
+      <c r="B2848" t="s">
+        <v>31</v>
+      </c>
+      <c r="C2848" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="2849" spans="1:3">
+      <c r="A2849" s="1">
+        <v>2847</v>
+      </c>
+      <c r="B2849" t="s">
+        <v>31</v>
+      </c>
+      <c r="C2849" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="2850" spans="1:3">
+      <c r="A2850" s="1">
+        <v>2848</v>
+      </c>
+      <c r="B2850" t="s">
+        <v>31</v>
+      </c>
+      <c r="C2850" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="2851" spans="1:3">
+      <c r="A2851" s="1">
+        <v>2849</v>
+      </c>
+      <c r="B2851" t="s">
+        <v>31</v>
+      </c>
+      <c r="C2851" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="2852" spans="1:3">
+      <c r="A2852" s="1">
+        <v>2850</v>
+      </c>
+      <c r="B2852" t="s">
+        <v>31</v>
+      </c>
+      <c r="C2852" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="2853" spans="1:3">
+      <c r="A2853" s="1">
+        <v>2851</v>
+      </c>
+      <c r="B2853" t="s">
+        <v>31</v>
+      </c>
+      <c r="C2853" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="2854" spans="1:3">
+      <c r="A2854" s="1">
+        <v>2852</v>
+      </c>
+      <c r="B2854" t="s">
+        <v>31</v>
+      </c>
+      <c r="C2854" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="2855" spans="1:3">
+      <c r="A2855" s="1">
+        <v>2853</v>
+      </c>
+      <c r="B2855" t="s">
+        <v>31</v>
+      </c>
+      <c r="C2855" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="2856" spans="1:3">
+      <c r="A2856" s="1">
+        <v>2854</v>
+      </c>
+      <c r="B2856" t="s">
+        <v>31</v>
+      </c>
+      <c r="C2856" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="2857" spans="1:3">
+      <c r="A2857" s="1">
+        <v>2855</v>
+      </c>
+      <c r="B2857" t="s">
+        <v>31</v>
+      </c>
+      <c r="C2857" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="2858" spans="1:3">
+      <c r="A2858" s="1">
+        <v>2856</v>
+      </c>
+      <c r="B2858" t="s">
+        <v>31</v>
+      </c>
+      <c r="C2858" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="2859" spans="1:3">
+      <c r="A2859" s="1">
+        <v>2857</v>
+      </c>
+      <c r="B2859" t="s">
+        <v>31</v>
+      </c>
+      <c r="C2859" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="2860" spans="1:3">
+      <c r="A2860" s="1">
+        <v>2858</v>
+      </c>
+      <c r="B2860" t="s">
+        <v>31</v>
+      </c>
+      <c r="C2860" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="2861" spans="1:3">
+      <c r="A2861" s="1">
+        <v>2859</v>
+      </c>
+      <c r="B2861" t="s">
+        <v>31</v>
+      </c>
+      <c r="C2861" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="2862" spans="1:3">
+      <c r="A2862" s="1">
+        <v>2860</v>
+      </c>
+      <c r="B2862" t="s">
+        <v>31</v>
+      </c>
+      <c r="C2862" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="2863" spans="1:3">
+      <c r="A2863" s="1">
+        <v>2861</v>
+      </c>
+      <c r="B2863" t="s">
+        <v>31</v>
+      </c>
+      <c r="C2863" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="2864" spans="1:3">
+      <c r="A2864" s="1">
+        <v>2862</v>
+      </c>
+      <c r="B2864" t="s">
+        <v>31</v>
+      </c>
+      <c r="C2864" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="2865" spans="1:3">
+      <c r="A2865" s="1">
+        <v>2863</v>
+      </c>
+      <c r="B2865" t="s">
+        <v>31</v>
+      </c>
+      <c r="C2865" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="2866" spans="1:3">
+      <c r="A2866" s="1">
+        <v>2864</v>
+      </c>
+      <c r="B2866" t="s">
+        <v>31</v>
+      </c>
+      <c r="C2866" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="2867" spans="1:3">
+      <c r="A2867" s="1">
+        <v>2865</v>
+      </c>
+      <c r="B2867" t="s">
+        <v>31</v>
+      </c>
+      <c r="C2867" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="2868" spans="1:3">
+      <c r="A2868" s="1">
+        <v>2866</v>
+      </c>
+      <c r="B2868" t="s">
+        <v>31</v>
+      </c>
+      <c r="C2868" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="2869" spans="1:3">
+      <c r="A2869" s="1">
+        <v>2867</v>
+      </c>
+      <c r="B2869" t="s">
+        <v>31</v>
+      </c>
+      <c r="C2869" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="2870" spans="1:3">
+      <c r="A2870" s="1">
+        <v>2868</v>
+      </c>
+      <c r="B2870" t="s">
+        <v>31</v>
+      </c>
+      <c r="C2870" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="2871" spans="1:3">
+      <c r="A2871" s="1">
+        <v>2869</v>
+      </c>
+      <c r="B2871" t="s">
+        <v>31</v>
+      </c>
+      <c r="C2871" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="2872" spans="1:3">
+      <c r="A2872" s="1">
+        <v>2870</v>
+      </c>
+      <c r="B2872" t="s">
+        <v>31</v>
+      </c>
+      <c r="C2872" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="2873" spans="1:3">
+      <c r="A2873" s="1">
+        <v>2871</v>
+      </c>
+      <c r="B2873" t="s">
+        <v>31</v>
+      </c>
+      <c r="C2873" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="2874" spans="1:3">
+      <c r="A2874" s="1">
+        <v>2872</v>
+      </c>
+      <c r="B2874" t="s">
+        <v>31</v>
+      </c>
+      <c r="C2874" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="2875" spans="1:3">
+      <c r="A2875" s="1">
+        <v>2873</v>
+      </c>
+      <c r="B2875" t="s">
+        <v>31</v>
+      </c>
+      <c r="C2875" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="2876" spans="1:3">
+      <c r="A2876" s="1">
+        <v>2874</v>
+      </c>
+      <c r="B2876" t="s">
+        <v>31</v>
+      </c>
+      <c r="C2876" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="2877" spans="1:3">
+      <c r="A2877" s="1">
+        <v>2875</v>
+      </c>
+      <c r="B2877" t="s">
+        <v>31</v>
+      </c>
+      <c r="C2877" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="2878" spans="1:3">
+      <c r="A2878" s="1">
+        <v>2876</v>
+      </c>
+      <c r="B2878" t="s">
+        <v>31</v>
+      </c>
+      <c r="C2878" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="2879" spans="1:3">
+      <c r="A2879" s="1">
+        <v>2877</v>
+      </c>
+      <c r="B2879" t="s">
+        <v>32</v>
+      </c>
+      <c r="C2879" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="2880" spans="1:3">
+      <c r="A2880" s="1">
+        <v>2878</v>
+      </c>
+      <c r="B2880" t="s">
+        <v>32</v>
+      </c>
+      <c r="C2880" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="2881" spans="1:3">
+      <c r="A2881" s="1">
+        <v>2879</v>
+      </c>
+      <c r="B2881" t="s">
+        <v>32</v>
+      </c>
+      <c r="C2881" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="2882" spans="1:3">
+      <c r="A2882" s="1">
+        <v>2880</v>
+      </c>
+      <c r="B2882" t="s">
+        <v>32</v>
+      </c>
+      <c r="C2882" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="2883" spans="1:3">
+      <c r="A2883" s="1">
+        <v>2881</v>
+      </c>
+      <c r="B2883" t="s">
+        <v>32</v>
+      </c>
+      <c r="C2883" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="2884" spans="1:3">
+      <c r="A2884" s="1">
+        <v>2882</v>
+      </c>
+      <c r="B2884" t="s">
+        <v>32</v>
+      </c>
+      <c r="C2884" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="2885" spans="1:3">
+      <c r="A2885" s="1">
+        <v>2883</v>
+      </c>
+      <c r="B2885" t="s">
+        <v>32</v>
+      </c>
+      <c r="C2885" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="2886" spans="1:3">
+      <c r="A2886" s="1">
+        <v>2884</v>
+      </c>
+      <c r="B2886" t="s">
+        <v>32</v>
+      </c>
+      <c r="C2886" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="2887" spans="1:3">
+      <c r="A2887" s="1">
+        <v>2885</v>
+      </c>
+      <c r="B2887" t="s">
+        <v>32</v>
+      </c>
+      <c r="C2887" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="2888" spans="1:3">
+      <c r="A2888" s="1">
+        <v>2886</v>
+      </c>
+      <c r="B2888" t="s">
+        <v>32</v>
+      </c>
+      <c r="C2888" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="2889" spans="1:3">
+      <c r="A2889" s="1">
+        <v>2887</v>
+      </c>
+      <c r="B2889" t="s">
+        <v>32</v>
+      </c>
+      <c r="C2889" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="2890" spans="1:3">
+      <c r="A2890" s="1">
+        <v>2888</v>
+      </c>
+      <c r="B2890" t="s">
+        <v>32</v>
+      </c>
+      <c r="C2890" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="2891" spans="1:3">
+      <c r="A2891" s="1">
+        <v>2889</v>
+      </c>
+      <c r="B2891" t="s">
+        <v>32</v>
+      </c>
+      <c r="C2891" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="2892" spans="1:3">
+      <c r="A2892" s="1">
+        <v>2890</v>
+      </c>
+      <c r="B2892" t="s">
+        <v>32</v>
+      </c>
+      <c r="C2892" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="2893" spans="1:3">
+      <c r="A2893" s="1">
+        <v>2891</v>
+      </c>
+      <c r="B2893" t="s">
+        <v>32</v>
+      </c>
+      <c r="C2893" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="2894" spans="1:3">
+      <c r="A2894" s="1">
+        <v>2892</v>
+      </c>
+      <c r="B2894" t="s">
+        <v>32</v>
+      </c>
+      <c r="C2894" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="2895" spans="1:3">
+      <c r="A2895" s="1">
+        <v>2893</v>
+      </c>
+      <c r="B2895" t="s">
+        <v>32</v>
+      </c>
+      <c r="C2895" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="2896" spans="1:3">
+      <c r="A2896" s="1">
+        <v>2894</v>
+      </c>
+      <c r="B2896" t="s">
+        <v>32</v>
+      </c>
+      <c r="C2896" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="2897" spans="1:3">
+      <c r="A2897" s="1">
+        <v>2895</v>
+      </c>
+      <c r="B2897" t="s">
+        <v>32</v>
+      </c>
+      <c r="C2897" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="2898" spans="1:3">
+      <c r="A2898" s="1">
+        <v>2896</v>
+      </c>
+      <c r="B2898" t="s">
+        <v>32</v>
+      </c>
+      <c r="C2898" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="2899" spans="1:3">
+      <c r="A2899" s="1">
+        <v>2897</v>
+      </c>
+      <c r="B2899" t="s">
+        <v>32</v>
+      </c>
+      <c r="C2899" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="2900" spans="1:3">
+      <c r="A2900" s="1">
+        <v>2898</v>
+      </c>
+      <c r="B2900" t="s">
+        <v>32</v>
+      </c>
+      <c r="C2900" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="2901" spans="1:3">
+      <c r="A2901" s="1">
+        <v>2899</v>
+      </c>
+      <c r="B2901" t="s">
+        <v>32</v>
+      </c>
+      <c r="C2901" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="2902" spans="1:3">
+      <c r="A2902" s="1">
+        <v>2900</v>
+      </c>
+      <c r="B2902" t="s">
+        <v>32</v>
+      </c>
+      <c r="C2902" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="2903" spans="1:3">
+      <c r="A2903" s="1">
+        <v>2901</v>
+      </c>
+      <c r="B2903" t="s">
+        <v>32</v>
+      </c>
+      <c r="C2903" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="2904" spans="1:3">
+      <c r="A2904" s="1">
+        <v>2902</v>
+      </c>
+      <c r="B2904" t="s">
+        <v>32</v>
+      </c>
+      <c r="C2904" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="2905" spans="1:3">
+      <c r="A2905" s="1">
+        <v>2903</v>
+      </c>
+      <c r="B2905" t="s">
+        <v>32</v>
+      </c>
+      <c r="C2905" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="2906" spans="1:3">
+      <c r="A2906" s="1">
+        <v>2904</v>
+      </c>
+      <c r="B2906" t="s">
+        <v>32</v>
+      </c>
+      <c r="C2906" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="2907" spans="1:3">
+      <c r="A2907" s="1">
+        <v>2905</v>
+      </c>
+      <c r="B2907" t="s">
+        <v>32</v>
+      </c>
+      <c r="C2907" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="2908" spans="1:3">
+      <c r="A2908" s="1">
+        <v>2906</v>
+      </c>
+      <c r="B2908" t="s">
+        <v>32</v>
+      </c>
+      <c r="C2908" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="2909" spans="1:3">
+      <c r="A2909" s="1">
+        <v>2907</v>
+      </c>
+      <c r="B2909" t="s">
+        <v>32</v>
+      </c>
+      <c r="C2909" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="2910" spans="1:3">
+      <c r="A2910" s="1">
+        <v>2908</v>
+      </c>
+      <c r="B2910" t="s">
+        <v>32</v>
+      </c>
+      <c r="C2910" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="2911" spans="1:3">
+      <c r="A2911" s="1">
+        <v>2909</v>
+      </c>
+      <c r="B2911" t="s">
+        <v>32</v>
+      </c>
+      <c r="C2911" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="2912" spans="1:3">
+      <c r="A2912" s="1">
+        <v>2910</v>
+      </c>
+      <c r="B2912" t="s">
+        <v>32</v>
+      </c>
+      <c r="C2912" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="2913" spans="1:3">
+      <c r="A2913" s="1">
+        <v>2911</v>
+      </c>
+      <c r="B2913" t="s">
+        <v>32</v>
+      </c>
+      <c r="C2913" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="2914" spans="1:3">
+      <c r="A2914" s="1">
+        <v>2912</v>
+      </c>
+      <c r="B2914" t="s">
+        <v>32</v>
+      </c>
+      <c r="C2914" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="2915" spans="1:3">
+      <c r="A2915" s="1">
+        <v>2913</v>
+      </c>
+      <c r="B2915" t="s">
+        <v>32</v>
+      </c>
+      <c r="C2915" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="2916" spans="1:3">
+      <c r="A2916" s="1">
+        <v>2914</v>
+      </c>
+      <c r="B2916" t="s">
+        <v>32</v>
+      </c>
+      <c r="C2916" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="2917" spans="1:3">
+      <c r="A2917" s="1">
+        <v>2915</v>
+      </c>
+      <c r="B2917" t="s">
+        <v>32</v>
+      </c>
+      <c r="C2917" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="2918" spans="1:3">
+      <c r="A2918" s="1">
+        <v>2916</v>
+      </c>
+      <c r="B2918" t="s">
+        <v>32</v>
+      </c>
+      <c r="C2918" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="2919" spans="1:3">
+      <c r="A2919" s="1">
+        <v>2917</v>
+      </c>
+      <c r="B2919" t="s">
+        <v>32</v>
+      </c>
+      <c r="C2919" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="2920" spans="1:3">
+      <c r="A2920" s="1">
+        <v>2918</v>
+      </c>
+      <c r="B2920" t="s">
+        <v>32</v>
+      </c>
+      <c r="C2920" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="2921" spans="1:3">
+      <c r="A2921" s="1">
+        <v>2919</v>
+      </c>
+      <c r="B2921" t="s">
+        <v>32</v>
+      </c>
+      <c r="C2921" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="2922" spans="1:3">
+      <c r="A2922" s="1">
+        <v>2920</v>
+      </c>
+      <c r="B2922" t="s">
+        <v>32</v>
+      </c>
+      <c r="C2922" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="2923" spans="1:3">
+      <c r="A2923" s="1">
+        <v>2921</v>
+      </c>
+      <c r="B2923" t="s">
+        <v>32</v>
+      </c>
+      <c r="C2923" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="2924" spans="1:3">
+      <c r="A2924" s="1">
+        <v>2922</v>
+      </c>
+      <c r="B2924" t="s">
+        <v>32</v>
+      </c>
+      <c r="C2924" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="2925" spans="1:3">
+      <c r="A2925" s="1">
+        <v>2923</v>
+      </c>
+      <c r="B2925" t="s">
+        <v>32</v>
+      </c>
+      <c r="C2925" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="2926" spans="1:3">
+      <c r="A2926" s="1">
+        <v>2924</v>
+      </c>
+      <c r="B2926" t="s">
+        <v>32</v>
+      </c>
+      <c r="C2926" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="2927" spans="1:3">
+      <c r="A2927" s="1">
+        <v>2925</v>
+      </c>
+      <c r="B2927" t="s">
+        <v>32</v>
+      </c>
+      <c r="C2927" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="2928" spans="1:3">
+      <c r="A2928" s="1">
+        <v>2926</v>
+      </c>
+      <c r="B2928" t="s">
+        <v>32</v>
+      </c>
+      <c r="C2928" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="2929" spans="1:3">
+      <c r="A2929" s="1">
+        <v>2927</v>
+      </c>
+      <c r="B2929" t="s">
         <v>33</v>
       </c>
-      <c r="C2838" t="s">
+      <c r="C2929" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="2930" spans="1:3">
+      <c r="A2930" s="1">
+        <v>2928</v>
+      </c>
+      <c r="B2930" t="s">
+        <v>33</v>
+      </c>
+      <c r="C2930" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="2931" spans="1:3">
+      <c r="A2931" s="1">
+        <v>2929</v>
+      </c>
+      <c r="B2931" t="s">
+        <v>33</v>
+      </c>
+      <c r="C2931" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="2932" spans="1:3">
+      <c r="A2932" s="1">
+        <v>2930</v>
+      </c>
+      <c r="B2932" t="s">
+        <v>33</v>
+      </c>
+      <c r="C2932" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="2933" spans="1:3">
+      <c r="A2933" s="1">
+        <v>2931</v>
+      </c>
+      <c r="B2933" t="s">
+        <v>33</v>
+      </c>
+      <c r="C2933" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="2934" spans="1:3">
+      <c r="A2934" s="1">
+        <v>2932</v>
+      </c>
+      <c r="B2934" t="s">
+        <v>33</v>
+      </c>
+      <c r="C2934" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="2935" spans="1:3">
+      <c r="A2935" s="1">
+        <v>2933</v>
+      </c>
+      <c r="B2935" t="s">
+        <v>33</v>
+      </c>
+      <c r="C2935" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="2936" spans="1:3">
+      <c r="A2936" s="1">
+        <v>2934</v>
+      </c>
+      <c r="B2936" t="s">
+        <v>33</v>
+      </c>
+      <c r="C2936" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="2937" spans="1:3">
+      <c r="A2937" s="1">
+        <v>2935</v>
+      </c>
+      <c r="B2937" t="s">
+        <v>33</v>
+      </c>
+      <c r="C2937" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="2938" spans="1:3">
+      <c r="A2938" s="1">
+        <v>2936</v>
+      </c>
+      <c r="B2938" t="s">
+        <v>33</v>
+      </c>
+      <c r="C2938" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="2939" spans="1:3">
+      <c r="A2939" s="1">
+        <v>2937</v>
+      </c>
+      <c r="B2939" t="s">
+        <v>33</v>
+      </c>
+      <c r="C2939" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="2940" spans="1:3">
+      <c r="A2940" s="1">
+        <v>2938</v>
+      </c>
+      <c r="B2940" t="s">
+        <v>33</v>
+      </c>
+      <c r="C2940" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="2941" spans="1:3">
+      <c r="A2941" s="1">
+        <v>2939</v>
+      </c>
+      <c r="B2941" t="s">
+        <v>33</v>
+      </c>
+      <c r="C2941" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="2942" spans="1:3">
+      <c r="A2942" s="1">
+        <v>2940</v>
+      </c>
+      <c r="B2942" t="s">
+        <v>33</v>
+      </c>
+      <c r="C2942" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="2943" spans="1:3">
+      <c r="A2943" s="1">
+        <v>2941</v>
+      </c>
+      <c r="B2943" t="s">
+        <v>33</v>
+      </c>
+      <c r="C2943" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="2944" spans="1:3">
+      <c r="A2944" s="1">
+        <v>2942</v>
+      </c>
+      <c r="B2944" t="s">
+        <v>33</v>
+      </c>
+      <c r="C2944" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="2945" spans="1:3">
+      <c r="A2945" s="1">
+        <v>2943</v>
+      </c>
+      <c r="B2945" t="s">
+        <v>33</v>
+      </c>
+      <c r="C2945" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="2946" spans="1:3">
+      <c r="A2946" s="1">
+        <v>2944</v>
+      </c>
+      <c r="B2946" t="s">
+        <v>33</v>
+      </c>
+      <c r="C2946" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="2947" spans="1:3">
+      <c r="A2947" s="1">
+        <v>2945</v>
+      </c>
+      <c r="B2947" t="s">
+        <v>33</v>
+      </c>
+      <c r="C2947" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="2948" spans="1:3">
+      <c r="A2948" s="1">
+        <v>2946</v>
+      </c>
+      <c r="B2948" t="s">
+        <v>33</v>
+      </c>
+      <c r="C2948" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="2949" spans="1:3">
+      <c r="A2949" s="1">
+        <v>2947</v>
+      </c>
+      <c r="B2949" t="s">
+        <v>33</v>
+      </c>
+      <c r="C2949" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="2950" spans="1:3">
+      <c r="A2950" s="1">
+        <v>2948</v>
+      </c>
+      <c r="B2950" t="s">
+        <v>33</v>
+      </c>
+      <c r="C2950" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="2951" spans="1:3">
+      <c r="A2951" s="1">
+        <v>2949</v>
+      </c>
+      <c r="B2951" t="s">
+        <v>33</v>
+      </c>
+      <c r="C2951" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="2952" spans="1:3">
+      <c r="A2952" s="1">
+        <v>2950</v>
+      </c>
+      <c r="B2952" t="s">
+        <v>33</v>
+      </c>
+      <c r="C2952" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="2953" spans="1:3">
+      <c r="A2953" s="1">
+        <v>2951</v>
+      </c>
+      <c r="B2953" t="s">
+        <v>33</v>
+      </c>
+      <c r="C2953" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="2954" spans="1:3">
+      <c r="A2954" s="1">
+        <v>2952</v>
+      </c>
+      <c r="B2954" t="s">
+        <v>33</v>
+      </c>
+      <c r="C2954" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="2955" spans="1:3">
+      <c r="A2955" s="1">
+        <v>2953</v>
+      </c>
+      <c r="B2955" t="s">
+        <v>33</v>
+      </c>
+      <c r="C2955" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="2956" spans="1:3">
+      <c r="A2956" s="1">
+        <v>2954</v>
+      </c>
+      <c r="B2956" t="s">
+        <v>33</v>
+      </c>
+      <c r="C2956" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="2957" spans="1:3">
+      <c r="A2957" s="1">
+        <v>2955</v>
+      </c>
+      <c r="B2957" t="s">
+        <v>33</v>
+      </c>
+      <c r="C2957" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="2958" spans="1:3">
+      <c r="A2958" s="1">
+        <v>2956</v>
+      </c>
+      <c r="B2958" t="s">
+        <v>33</v>
+      </c>
+      <c r="C2958" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="2959" spans="1:3">
+      <c r="A2959" s="1">
+        <v>2957</v>
+      </c>
+      <c r="B2959" t="s">
+        <v>33</v>
+      </c>
+      <c r="C2959" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="2960" spans="1:3">
+      <c r="A2960" s="1">
+        <v>2958</v>
+      </c>
+      <c r="B2960" t="s">
+        <v>33</v>
+      </c>
+      <c r="C2960" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="2961" spans="1:3">
+      <c r="A2961" s="1">
+        <v>2959</v>
+      </c>
+      <c r="B2961" t="s">
+        <v>33</v>
+      </c>
+      <c r="C2961" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="2962" spans="1:3">
+      <c r="A2962" s="1">
+        <v>2960</v>
+      </c>
+      <c r="B2962" t="s">
+        <v>33</v>
+      </c>
+      <c r="C2962" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="2963" spans="1:3">
+      <c r="A2963" s="1">
+        <v>2961</v>
+      </c>
+      <c r="B2963" t="s">
+        <v>33</v>
+      </c>
+      <c r="C2963" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="2964" spans="1:3">
+      <c r="A2964" s="1">
+        <v>2962</v>
+      </c>
+      <c r="B2964" t="s">
+        <v>33</v>
+      </c>
+      <c r="C2964" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="2965" spans="1:3">
+      <c r="A2965" s="1">
+        <v>2963</v>
+      </c>
+      <c r="B2965" t="s">
+        <v>33</v>
+      </c>
+      <c r="C2965" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="2966" spans="1:3">
+      <c r="A2966" s="1">
+        <v>2964</v>
+      </c>
+      <c r="B2966" t="s">
+        <v>33</v>
+      </c>
+      <c r="C2966" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="2967" spans="1:3">
+      <c r="A2967" s="1">
+        <v>2965</v>
+      </c>
+      <c r="B2967" t="s">
+        <v>33</v>
+      </c>
+      <c r="C2967" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="2968" spans="1:3">
+      <c r="A2968" s="1">
+        <v>2966</v>
+      </c>
+      <c r="B2968" t="s">
+        <v>33</v>
+      </c>
+      <c r="C2968" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="2969" spans="1:3">
+      <c r="A2969" s="1">
+        <v>2967</v>
+      </c>
+      <c r="B2969" t="s">
+        <v>33</v>
+      </c>
+      <c r="C2969" t="s">
         <v>91</v>
       </c>
     </row>
